--- a/Area_de_Proceso-_MA/TABME/TABME_V1.0_2015.xlsx
+++ b/Area_de_Proceso-_MA/TABME/TABME_V1.0_2015.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OJO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thefa\Downloads\UTP-GPS-ALARM-master\Area_de_Proceso-_MA\TABME\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="9045" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Tableros" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Hoja1" sheetId="5" r:id="rId7"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -423,7 +423,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -1284,7 +1284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1570,6 +1570,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1729,6 +1732,48 @@
     <xf numFmtId="0" fontId="40" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1746,48 +1791,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1871,7 +1874,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1918,7 +1921,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1991,7 +1994,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-PE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -2058,6 +2061,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-41FF-448D-A7F9-4D55DB2741DF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="ctr"/>
@@ -2132,7 +2140,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-PE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2170,7 +2178,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="168512736"/>
@@ -2265,7 +2273,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-PE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2327,7 +2335,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2339,7 +2347,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2411,7 +2419,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2480,7 +2488,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-PE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -2538,7 +2546,7 @@
                   <c:v>0.63636363636363635</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4358974358974359</c:v>
+                  <c:v>0.45945945945945948</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
                   <c:v>0</c:v>
@@ -2546,6 +2554,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C88-429B-9B94-D693452364F6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="inEnd"/>
@@ -2601,7 +2614,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="168070496"/>
@@ -2684,7 +2697,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2696,7 +2709,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2766,7 +2779,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2836,6 +2849,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1CE4-4D1A-8C0D-A8986C73C9BB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2909,7 +2927,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-PE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2947,7 +2965,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="168270128"/>
@@ -3030,7 +3048,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-PE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3062,7 +3080,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="167704336"/>
@@ -3108,7 +3126,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3135,7 +3153,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3147,7 +3165,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3194,7 +3212,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3307,6 +3325,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C2EA-4E10-B8DC-B0F15286BC26}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3357,7 +3380,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="167816152"/>
@@ -3413,7 +3436,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="168250720"/>
@@ -3451,7 +3474,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3463,7 +3486,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3528,7 +3551,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3587,7 +3610,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-PE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -3648,6 +3671,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-50BD-4EF6-9D79-6DA9D6248718}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="ctr"/>
@@ -3727,7 +3755,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-PE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3765,7 +3793,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="168029280"/>
@@ -3850,7 +3878,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-PE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3909,7 +3937,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3921,7 +3949,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3997,7 +4025,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4096,6 +4124,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9209-487D-ADE6-3545591C93C9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4166,7 +4199,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-PE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4203,7 +4236,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="138509960"/>
@@ -4283,7 +4316,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-PE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4314,7 +4347,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="138509568"/>
@@ -4368,7 +4401,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7962,7 +7995,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>97014</xdr:rowOff>
     </xdr:to>
@@ -8812,7 +8845,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H12" sqref="H12:I15"/>
     </sheetView>
   </sheetViews>
@@ -8827,199 +8860,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="104"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="105"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="107"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="108"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1">
-      <c r="A3" s="105"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="107"/>
+      <c r="A3" s="106"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="108"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1">
-      <c r="A4" s="105"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="107"/>
+      <c r="A4" s="106"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="108"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A5" s="105"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="107"/>
+      <c r="A5" s="106"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="108"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="108"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="110"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="110"/>
+      <c r="O6" s="110"/>
+      <c r="P6" s="111"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="113"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="113"/>
+      <c r="N7" s="113"/>
+      <c r="O7" s="113"/>
+      <c r="P7" s="114"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="114"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="116"/>
+      <c r="A8" s="115"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="117"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1">
       <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="124"/>
     </row>
     <row r="10" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A10" s="124" t="s">
+      <c r="A10" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="125"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
+      <c r="B10" s="126"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="117" t="s">
+      <c r="B11" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="118"/>
-      <c r="D11" s="117" t="s">
+      <c r="C11" s="119"/>
+      <c r="D11" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="119"/>
-      <c r="F11" s="120" t="s">
+      <c r="E11" s="120"/>
+      <c r="F11" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="119"/>
-      <c r="H11" s="120" t="s">
+      <c r="G11" s="120"/>
+      <c r="H11" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="119"/>
+      <c r="I11" s="120"/>
     </row>
     <row r="12" spans="1:16" ht="26.25" thickBot="1">
       <c r="A12" s="2" t="s">
@@ -9149,15 +9182,15 @@
       <c r="I16" s="32"/>
     </row>
     <row r="17" spans="10:16" ht="19.5" thickBot="1">
-      <c r="J17" s="99" t="s">
+      <c r="J17" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="101"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="101"/>
+      <c r="P17" s="102"/>
     </row>
     <row r="18" spans="10:16" ht="32.25" customHeight="1">
       <c r="J18" s="33" t="s">
@@ -9391,14 +9424,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:H28"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" customWidth="1"/>
@@ -9410,20 +9443,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="104"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="105"/>
       <c r="M1" s="55"/>
       <c r="N1" s="55"/>
       <c r="O1" s="55"/>
@@ -9432,18 +9465,18 @@
       <c r="R1" s="55"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="107"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="108"/>
       <c r="M2" s="55"/>
       <c r="N2" s="55"/>
       <c r="O2" s="55"/>
@@ -9452,18 +9485,18 @@
       <c r="R2" s="55"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1">
-      <c r="A3" s="105"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="107"/>
+      <c r="A3" s="106"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="108"/>
       <c r="M3" s="55"/>
       <c r="N3" s="55"/>
       <c r="O3" s="55"/>
@@ -9472,18 +9505,18 @@
       <c r="R3" s="55"/>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1">
-      <c r="A4" s="105"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="107"/>
+      <c r="A4" s="106"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="108"/>
       <c r="M4" s="55"/>
       <c r="N4" s="55"/>
       <c r="O4" s="55"/>
@@ -9492,18 +9525,18 @@
       <c r="R4" s="55"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A5" s="105"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="107"/>
+      <c r="A5" s="106"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="108"/>
       <c r="M5" s="55"/>
       <c r="N5" s="55"/>
       <c r="O5" s="55"/>
@@ -9512,18 +9545,18 @@
       <c r="R5" s="55"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="108"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="110"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="111"/>
       <c r="M6" s="55"/>
       <c r="N6" s="55"/>
       <c r="O6" s="55"/>
@@ -9532,16 +9565,16 @@
       <c r="R6" s="55"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="C7" s="127" t="s">
+      <c r="C7" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="128"/>
-      <c r="E7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="130"/>
     </row>
     <row r="8" spans="1:18" ht="23.25" customHeight="1" thickBot="1">
-      <c r="C8" s="130"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="132"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="133"/>
     </row>
     <row r="9" spans="1:18" ht="26.25" thickBot="1">
       <c r="C9" s="3" t="s">
@@ -9589,16 +9622,16 @@
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="14" spans="1:18" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A14" s="135" t="s">
+      <c r="A14" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="136"/>
-      <c r="C14" s="136"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
       <c r="I14" s="70"/>
       <c r="J14" s="70"/>
     </row>
@@ -9658,16 +9691,16 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="19" spans="1:11" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A19" s="135" t="s">
+      <c r="A19" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="136"/>
-      <c r="C19" s="136"/>
-      <c r="D19" s="136"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="136"/>
+      <c r="B19" s="137"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
     </row>
     <row r="20" spans="1:11" ht="60.75" thickBot="1">
       <c r="A20" s="59" t="s">
@@ -9709,32 +9742,32 @@
         <v>15</v>
       </c>
       <c r="E21" s="67">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F21" s="67">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G21" s="68">
         <f>E21/F21</f>
-        <v>0.87179487179487181</v>
+        <v>0.45945945945945948</v>
       </c>
       <c r="H21" s="69">
         <f>+G21</f>
-        <v>0.87179487179487181</v>
+        <v>0.45945945945945948</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="24" spans="1:11" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A24" s="139" t="s">
+      <c r="A24" s="140" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="140"/>
-      <c r="C24" s="140"/>
-      <c r="D24" s="140"/>
-      <c r="E24" s="140"/>
-      <c r="F24" s="140"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="140"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="141"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="141"/>
       <c r="I24" s="70"/>
       <c r="J24" s="70"/>
     </row>
@@ -9757,8 +9790,8 @@
       <c r="F25" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="144"/>
-      <c r="H25" s="145"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="146"/>
       <c r="I25" s="72"/>
       <c r="J25" s="72"/>
     </row>
@@ -9781,22 +9814,22 @@
       <c r="F26" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G26" s="146"/>
-      <c r="H26" s="147"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="148"/>
       <c r="I26" s="73"/>
       <c r="J26" s="74"/>
     </row>
     <row r="27" spans="1:11" ht="45">
-      <c r="A27" s="137" t="s">
+      <c r="A27" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="138"/>
-      <c r="C27" s="138"/>
+      <c r="B27" s="139"/>
+      <c r="C27" s="139"/>
       <c r="D27" s="36">
         <v>11</v>
       </c>
       <c r="E27" s="36">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>78</v>
@@ -9809,18 +9842,18 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="45.75" thickBot="1">
-      <c r="A28" s="141" t="s">
+      <c r="A28" s="142" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="142"/>
-      <c r="C28" s="143"/>
+      <c r="B28" s="143"/>
+      <c r="C28" s="144"/>
       <c r="D28" s="81">
         <f>D26/D27</f>
         <v>0.63636363636363635</v>
       </c>
       <c r="E28" s="81">
         <f>E26/E27</f>
-        <v>0.4358974358974359</v>
+        <v>0.45945945945945948</v>
       </c>
       <c r="F28" s="82" t="s">
         <v>78</v>
@@ -9831,7 +9864,7 @@
       </c>
       <c r="H28" s="84">
         <f>AVERAGE(D28:E28)</f>
-        <v>0.53613053613053618</v>
+        <v>0.54791154791154795</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -9839,10 +9872,10 @@
     </row>
     <row r="33" spans="2:20" ht="15.75" thickBot="1"/>
     <row r="34" spans="2:20" ht="39.75" customHeight="1">
-      <c r="B34" s="133" t="s">
+      <c r="B34" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="134"/>
+      <c r="C34" s="135"/>
       <c r="D34" s="37"/>
       <c r="E34" s="37"/>
       <c r="F34" s="37"/>
@@ -9861,7 +9894,7 @@
       </c>
     </row>
     <row r="36" spans="2:20">
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="99" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="58">
@@ -9870,19 +9903,19 @@
       </c>
     </row>
     <row r="37" spans="2:20">
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="99" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="58">
-        <f>E26/39</f>
-        <v>0.4358974358974359</v>
+        <f>E26/37</f>
+        <v>0.45945945945945948</v>
       </c>
     </row>
     <row r="38" spans="2:20">
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="36" t="str">
+      <c r="C38" s="99" t="str">
         <f>+F26</f>
         <v>POR REVISAR</v>
       </c>
@@ -10000,7 +10033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -10013,103 +10046,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="104"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="105"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="107"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="108"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="105"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="107"/>
+      <c r="A3" s="106"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="108"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="105"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="107"/>
+      <c r="A4" s="106"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="108"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="105"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="107"/>
+      <c r="A5" s="106"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="108"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A6" s="108"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="110"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="111"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:12">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="128" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="128"/>
-      <c r="C8" s="129"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="130"/>
     </row>
     <row r="9" spans="1:12" ht="33" customHeight="1" thickBot="1">
-      <c r="A9" s="130"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="132"/>
+      <c r="A9" s="131"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="133"/>
     </row>
     <row r="10" spans="1:12" ht="26.25" thickBot="1">
       <c r="A10" s="3" t="s">
@@ -10157,18 +10190,18 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="15" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A15" s="139" t="s">
+      <c r="A15" s="140" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="140"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="148"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="149"/>
     </row>
     <row r="16" spans="1:12" ht="30.75" customHeight="1" thickBot="1">
       <c r="A16" s="50" t="s">
@@ -10240,16 +10273,16 @@
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="21" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A21" s="135" t="s">
+      <c r="A21" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="136"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="136"/>
-      <c r="G21" s="136"/>
-      <c r="H21" s="136"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
     </row>
     <row r="22" spans="1:10" ht="48.75" thickBot="1">
       <c r="A22" s="59" t="s">
@@ -10307,16 +10340,16 @@
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="27" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A27" s="135" t="s">
+      <c r="A27" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="136"/>
-      <c r="C27" s="136"/>
-      <c r="D27" s="136"/>
-      <c r="E27" s="136"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="136"/>
-      <c r="H27" s="136"/>
+      <c r="B27" s="137"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
     </row>
     <row r="28" spans="1:10" ht="48.75" thickBot="1">
       <c r="A28" s="59" t="s">
@@ -10374,16 +10407,16 @@
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="32" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A32" s="139" t="s">
+      <c r="A32" s="140" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="140"/>
-      <c r="C32" s="140"/>
-      <c r="D32" s="140"/>
-      <c r="E32" s="140"/>
-      <c r="F32" s="140"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="140"/>
+      <c r="B32" s="141"/>
+      <c r="C32" s="141"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="141"/>
     </row>
     <row r="33" spans="1:8" ht="24.75" thickBot="1">
       <c r="A33" s="75" t="s">
@@ -10404,8 +10437,8 @@
       <c r="F33" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="G33" s="144"/>
-      <c r="H33" s="145"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="146"/>
     </row>
     <row r="34" spans="1:8" ht="54" customHeight="1" thickBot="1">
       <c r="A34" s="79" t="s">
@@ -10426,15 +10459,15 @@
       <c r="F34" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G34" s="146"/>
-      <c r="H34" s="147"/>
+      <c r="G34" s="147"/>
+      <c r="H34" s="148"/>
     </row>
     <row r="35" spans="1:8" ht="30">
-      <c r="A35" s="137" t="s">
+      <c r="A35" s="138" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="138"/>
-      <c r="C35" s="138"/>
+      <c r="B35" s="139"/>
+      <c r="C35" s="139"/>
       <c r="D35" s="36">
         <v>15</v>
       </c>
@@ -10452,11 +10485,11 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="30.75" thickBot="1">
-      <c r="A36" s="141" t="s">
+      <c r="A36" s="142" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="142"/>
-      <c r="C36" s="143"/>
+      <c r="B36" s="143"/>
+      <c r="C36" s="144"/>
       <c r="D36" s="81">
         <f>D34/D35*100</f>
         <v>0</v>
@@ -10479,10 +10512,10 @@
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="39" spans="1:8" ht="36.75" customHeight="1">
-      <c r="A39" s="133" t="s">
+      <c r="A39" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="134"/>
+      <c r="B39" s="135"/>
     </row>
     <row r="40" spans="1:8" ht="15.75">
       <c r="A40" s="38" t="s">
@@ -10520,16 +10553,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:L6"/>
+    <mergeCell ref="A8:C9"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A27:H27"/>
     <mergeCell ref="A32:H32"/>
     <mergeCell ref="G33:H34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A1:L6"/>
-    <mergeCell ref="A8:C9"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A27:H27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10649,91 +10682,91 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="104"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="105"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="107"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="108"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="105"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="107"/>
+      <c r="A3" s="106"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="108"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="105"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="107"/>
+      <c r="A4" s="106"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="108"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="105"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="107"/>
+      <c r="A5" s="106"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="108"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A6" s="108"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="110"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="111"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:10">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="128" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="128"/>
-      <c r="C8" s="129"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="130"/>
     </row>
     <row r="9" spans="1:10" ht="33" customHeight="1" thickBot="1">
-      <c r="A9" s="130"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="132"/>
+      <c r="A9" s="131"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="133"/>
     </row>
     <row r="10" spans="1:10" ht="26.25" thickBot="1">
       <c r="A10" s="2" t="s">
@@ -10781,14 +10814,14 @@
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="15" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A15" s="135" t="s">
+      <c r="A15" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="136"/>
-      <c r="C15" s="136"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
     </row>
     <row r="16" spans="1:10" ht="24.75" thickBot="1">
       <c r="A16" s="59" t="s">
@@ -10833,14 +10866,14 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="22" spans="1:14" ht="19.5" thickBot="1">
-      <c r="A22" s="135" t="s">
+      <c r="A22" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="136"/>
-      <c r="C22" s="136"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="136"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="137"/>
     </row>
     <row r="23" spans="1:14" ht="24.75" thickBot="1">
       <c r="A23" s="59" t="s">
@@ -10885,16 +10918,16 @@
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="29" spans="1:14" ht="19.5" thickBot="1">
-      <c r="A29" s="139" t="s">
+      <c r="A29" s="140" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="140"/>
-      <c r="C29" s="140"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="140"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="141"/>
       <c r="L29" s="94"/>
       <c r="M29" s="95"/>
       <c r="N29" s="95"/>
@@ -10918,8 +10951,8 @@
       <c r="F30" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="144"/>
-      <c r="H30" s="145"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="146"/>
       <c r="L30" s="94"/>
       <c r="M30" s="95"/>
       <c r="N30" s="95"/>
@@ -10943,18 +10976,18 @@
       <c r="F31" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G31" s="146"/>
-      <c r="H31" s="147"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="148"/>
       <c r="L31" s="94"/>
       <c r="M31" s="95"/>
       <c r="N31" s="95"/>
     </row>
     <row r="32" spans="1:14" ht="30">
-      <c r="A32" s="137" t="s">
+      <c r="A32" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="138"/>
-      <c r="C32" s="138"/>
+      <c r="B32" s="139"/>
+      <c r="C32" s="139"/>
       <c r="D32" s="86">
         <v>18</v>
       </c>
@@ -10972,11 +11005,11 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="30.75" thickBot="1">
-      <c r="A33" s="149" t="s">
+      <c r="A33" s="150" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="150"/>
-      <c r="C33" s="151"/>
+      <c r="B33" s="151"/>
+      <c r="C33" s="152"/>
       <c r="D33" s="90">
         <v>18</v>
       </c>
@@ -10997,10 +11030,10 @@
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="39" spans="1:8" ht="18.75">
-      <c r="A39" s="133" t="s">
+      <c r="A39" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="134"/>
+      <c r="B39" s="135"/>
     </row>
     <row r="40" spans="1:8" ht="15.75">
       <c r="A40" s="38" t="s">
@@ -11118,8 +11151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:J8"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -11130,201 +11163,219 @@
   <sheetData>
     <row r="4" spans="3:10" ht="15.75" thickBot="1"/>
     <row r="5" spans="3:10" ht="15.75" thickBot="1">
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="153"/>
-      <c r="E5" s="152" t="s">
+      <c r="D5" s="168"/>
+      <c r="E5" s="167" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="154"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="155" t="s">
+      <c r="F5" s="169"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="156"/>
-      <c r="J5" s="157"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="172"/>
     </row>
     <row r="6" spans="3:10" ht="24" customHeight="1" thickBot="1">
-      <c r="C6" s="158" t="s">
+      <c r="C6" s="161" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="159"/>
-      <c r="E6" s="158" t="s">
+      <c r="D6" s="162"/>
+      <c r="E6" s="161" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="160"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="161" t="s">
+      <c r="F6" s="163"/>
+      <c r="G6" s="162"/>
+      <c r="H6" s="164" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="162"/>
-      <c r="J6" s="163"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="166"/>
     </row>
     <row r="7" spans="3:10" ht="24" customHeight="1" thickBot="1">
-      <c r="C7" s="158" t="s">
+      <c r="C7" s="161" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="159"/>
-      <c r="E7" s="158" t="s">
+      <c r="D7" s="162"/>
+      <c r="E7" s="161" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="160"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="161" t="s">
+      <c r="F7" s="163"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="162"/>
-      <c r="J7" s="163"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="166"/>
     </row>
     <row r="8" spans="3:10" ht="24" customHeight="1" thickBot="1">
-      <c r="C8" s="158" t="s">
+      <c r="C8" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="159"/>
-      <c r="E8" s="161" t="s">
+      <c r="D8" s="162"/>
+      <c r="E8" s="164" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="162"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="161" t="s">
+      <c r="F8" s="165"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="164" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="162"/>
-      <c r="J8" s="163"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="166"/>
     </row>
     <row r="9" spans="3:10">
-      <c r="C9" s="164"/>
-      <c r="D9" s="164"/>
-      <c r="E9" s="164"/>
-      <c r="F9" s="165"/>
-      <c r="G9" s="165"/>
-      <c r="H9" s="165"/>
-      <c r="I9" s="166"/>
-      <c r="J9" s="166"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="160"/>
+      <c r="J9" s="160"/>
     </row>
     <row r="10" spans="3:10">
-      <c r="C10" s="167" t="s">
+      <c r="C10" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="167"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="168"/>
-      <c r="I10" s="169"/>
-      <c r="J10" s="169"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="156"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="153"/>
     </row>
     <row r="11" spans="3:10">
       <c r="C11" s="22"/>
-      <c r="D11" s="170" t="s">
+      <c r="D11" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="171" t="s">
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="155" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="171"/>
-      <c r="I11" s="171"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="155"/>
       <c r="J11" s="22"/>
     </row>
     <row r="12" spans="3:10">
-      <c r="C12" s="169"/>
-      <c r="D12" s="170" t="s">
+      <c r="C12" s="153"/>
+      <c r="D12" s="154" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="170"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="171" t="s">
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="155" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="171"/>
-      <c r="I12" s="171"/>
-      <c r="J12" s="169"/>
+      <c r="H12" s="155"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="153"/>
     </row>
     <row r="13" spans="3:10">
-      <c r="C13" s="169"/>
-      <c r="D13" s="170"/>
-      <c r="E13" s="170"/>
-      <c r="F13" s="170"/>
-      <c r="G13" s="171"/>
-      <c r="H13" s="171"/>
-      <c r="I13" s="171"/>
-      <c r="J13" s="169"/>
+      <c r="C13" s="153"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="155"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="153"/>
     </row>
     <row r="14" spans="3:10">
-      <c r="C14" s="169"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="168" t="s">
+      <c r="C14" s="153"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="156" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="168"/>
-      <c r="I14" s="168"/>
-      <c r="J14" s="169"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="153"/>
     </row>
     <row r="15" spans="3:10">
-      <c r="C15" s="169"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="167" t="s">
+      <c r="C15" s="153"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="157" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="169"/>
+      <c r="H15" s="157"/>
+      <c r="I15" s="157"/>
+      <c r="J15" s="153"/>
     </row>
     <row r="16" spans="3:10">
-      <c r="C16" s="169"/>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="171" t="s">
+      <c r="C16" s="153"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="155" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="171"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="169"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="153"/>
     </row>
     <row r="17" spans="3:10">
-      <c r="C17" s="169"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="168"/>
-      <c r="H17" s="168"/>
-      <c r="I17" s="168"/>
-      <c r="J17" s="169"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="156"/>
+      <c r="J17" s="153"/>
     </row>
     <row r="18" spans="3:10">
-      <c r="C18" s="169"/>
-      <c r="D18" s="170"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="167" t="s">
+      <c r="C18" s="153"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="167"/>
-      <c r="I18" s="167"/>
-      <c r="J18" s="169"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="153"/>
     </row>
     <row r="19" spans="3:10">
-      <c r="C19" s="169"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="171" t="s">
+      <c r="C19" s="153"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="155" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="171"/>
-      <c r="I19" s="171"/>
-      <c r="J19" s="169"/>
+      <c r="H19" s="155"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="J12:J19"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
@@ -11338,24 +11389,6 @@
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="G19:I19"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11366,7 +11399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:I20"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -11408,10 +11441,10 @@
     </row>
     <row r="15" spans="2:9" ht="15.75" thickBot="1">
       <c r="G15" s="1"/>
-      <c r="H15" s="117" t="s">
+      <c r="H15" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="119"/>
+      <c r="I15" s="120"/>
     </row>
     <row r="16" spans="2:9" ht="26.25" thickBot="1">
       <c r="G16" s="2" t="s">
@@ -11487,52 +11520,52 @@
   <sheetData>
     <row r="4" spans="3:10" ht="15.75" thickBot="1"/>
     <row r="5" spans="3:10" ht="15.75" thickBot="1">
-      <c r="C5" s="175" t="s">
+      <c r="C5" s="176" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="176"/>
-      <c r="E5" s="175" t="s">
+      <c r="D5" s="177"/>
+      <c r="E5" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="177"/>
-      <c r="G5" s="176"/>
-      <c r="H5" s="175" t="s">
+      <c r="F5" s="178"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="177"/>
-      <c r="J5" s="176"/>
+      <c r="I5" s="178"/>
+      <c r="J5" s="177"/>
     </row>
     <row r="6" spans="3:10" ht="30.75" customHeight="1" thickBot="1">
-      <c r="C6" s="172" t="s">
+      <c r="C6" s="173" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="173"/>
-      <c r="E6" s="172" t="s">
+      <c r="D6" s="174"/>
+      <c r="E6" s="173" t="s">
         <v>102</v>
       </c>
-      <c r="F6" s="174"/>
-      <c r="G6" s="173"/>
-      <c r="H6" s="172" t="s">
+      <c r="F6" s="175"/>
+      <c r="G6" s="174"/>
+      <c r="H6" s="173" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="174"/>
-      <c r="J6" s="173"/>
+      <c r="I6" s="175"/>
+      <c r="J6" s="174"/>
     </row>
     <row r="7" spans="3:10" ht="38.25" customHeight="1" thickBot="1">
-      <c r="C7" s="172" t="s">
+      <c r="C7" s="173" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="173"/>
-      <c r="E7" s="172" t="s">
+      <c r="D7" s="174"/>
+      <c r="E7" s="173" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="174"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="172" t="s">
+      <c r="F7" s="175"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="173" t="s">
         <v>104</v>
       </c>
-      <c r="I7" s="174"/>
-      <c r="J7" s="173"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -11572,15 +11605,15 @@
   <sheetData>
     <row r="7" spans="5:11" ht="15.75" thickBot="1"/>
     <row r="8" spans="5:11" ht="18.75">
-      <c r="E8" s="178" t="s">
+      <c r="E8" s="179" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="179"/>
-      <c r="G8" s="179"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="180"/>
-      <c r="J8" s="181"/>
-      <c r="K8" s="182"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="180"/>
+      <c r="H8" s="180"/>
+      <c r="I8" s="181"/>
+      <c r="J8" s="182"/>
+      <c r="K8" s="183"/>
     </row>
     <row r="9" spans="5:11" ht="15.75">
       <c r="E9" s="18" t="s">
@@ -11602,53 +11635,53 @@
       <c r="K9" s="17"/>
     </row>
     <row r="10" spans="5:11" ht="15" customHeight="1">
-      <c r="E10" s="187" t="s">
+      <c r="E10" s="188" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="185" t="s">
+      <c r="F10" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="189" t="s">
+      <c r="G10" s="190" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="191"/>
-      <c r="I10" s="183"/>
-      <c r="J10" s="181"/>
-      <c r="K10" s="182"/>
+      <c r="H10" s="192"/>
+      <c r="I10" s="184"/>
+      <c r="J10" s="182"/>
+      <c r="K10" s="183"/>
     </row>
     <row r="11" spans="5:11" ht="15" customHeight="1">
-      <c r="E11" s="187"/>
-      <c r="F11" s="185"/>
-      <c r="G11" s="189"/>
-      <c r="H11" s="191"/>
-      <c r="I11" s="183"/>
-      <c r="J11" s="181"/>
-      <c r="K11" s="182"/>
+      <c r="E11" s="188"/>
+      <c r="F11" s="186"/>
+      <c r="G11" s="190"/>
+      <c r="H11" s="192"/>
+      <c r="I11" s="184"/>
+      <c r="J11" s="182"/>
+      <c r="K11" s="183"/>
     </row>
     <row r="12" spans="5:11" ht="15.75">
-      <c r="E12" s="187"/>
-      <c r="F12" s="185"/>
-      <c r="G12" s="189"/>
-      <c r="H12" s="191"/>
-      <c r="I12" s="183"/>
+      <c r="E12" s="188"/>
+      <c r="F12" s="186"/>
+      <c r="G12" s="190"/>
+      <c r="H12" s="192"/>
+      <c r="I12" s="184"/>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
     </row>
     <row r="13" spans="5:11" ht="15.75">
-      <c r="E13" s="187"/>
-      <c r="F13" s="185"/>
-      <c r="G13" s="189"/>
-      <c r="H13" s="191"/>
-      <c r="I13" s="183"/>
+      <c r="E13" s="188"/>
+      <c r="F13" s="186"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="192"/>
+      <c r="I13" s="184"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
     </row>
     <row r="14" spans="5:11" ht="55.5" customHeight="1" thickBot="1">
-      <c r="E14" s="188"/>
-      <c r="F14" s="186"/>
-      <c r="G14" s="190"/>
-      <c r="H14" s="192"/>
-      <c r="I14" s="184"/>
+      <c r="E14" s="189"/>
+      <c r="F14" s="187"/>
+      <c r="G14" s="191"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="185"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
     </row>

--- a/Area_de_Proceso-_MA/TABME/TABME_V1.0_2015.xlsx
+++ b/Area_de_Proceso-_MA/TABME/TABME_V1.0_2015.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thefa\Downloads\UTP-GPS-ALARM-master\Area_de_Proceso-_MA\TABME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UTP-GPS-ALARM\UTP-GPS-ALARM\Area_de_Proceso-_MA\TABME\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7650" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Tableros" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Hoja1" sheetId="5" r:id="rId7"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,9 +34,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="106">
   <si>
     <t xml:space="preserve">    EJR-SOFT</t>
-  </si>
-  <si>
-    <t>TABLERO DE CONTROL DE METRICAS DEL PROYECTO UTP-GPS-ALARM</t>
   </si>
   <si>
     <t xml:space="preserve">Proyecto </t>
@@ -419,11 +416,14 @@
   <si>
     <t>EXPOSICION AL RIESGO</t>
   </si>
+  <si>
+    <t>TABME - TABLERO DE CONTROL DE METRICAS DEL PROYECTO UTP-GPS-ALARM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -1284,7 +1284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1317,7 +1317,6 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1639,15 +1638,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1732,6 +1722,57 @@
     <xf numFmtId="0" fontId="40" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1741,57 +1782,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1855,6 +1845,17 @@
     <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Cancel" xfId="1"/>
@@ -1874,7 +1875,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1921,7 +1922,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1936,7 +1937,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>FMNCONPRO!$B$26:$C$26</c:f>
+              <c:f>FMNCONPRO!$B$27:$C$27</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1994,7 +1995,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -2005,7 +2006,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -2027,7 +2028,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>FMNCONPRO!$D$25:$F$25</c:f>
+              <c:f>FMNCONPRO!$D$26:$F$26</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2044,7 +2045,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FMNCONPRO!$D$26:$F$26</c:f>
+              <c:f>FMNCONPRO!$D$27:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2061,7 +2062,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-41FF-448D-A7F9-4D55DB2741DF}"/>
             </c:ext>
@@ -2078,11 +2079,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="167455104"/>
-        <c:axId val="168512736"/>
+        <c:axId val="244848424"/>
+        <c:axId val="243966576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="167455104"/>
+        <c:axId val="244848424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2140,7 +2141,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-PE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2178,10 +2179,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168512736"/>
+        <c:crossAx val="243966576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2189,7 +2190,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168512736"/>
+        <c:axId val="243966576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2273,7 +2274,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-PE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2281,7 +2282,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167455104"/>
+        <c:crossAx val="244848424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2335,7 +2336,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2347,7 +2348,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2419,7 +2420,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2435,7 +2436,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>FMNCONPRO!$C$34:$C$35</c:f>
+              <c:f>FMNCONPRO!$C$35:$C$36</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2488,7 +2489,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -2499,7 +2500,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -2521,7 +2522,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>FMNCONPRO!$B$36:$B$38</c:f>
+              <c:f>FMNCONPRO!$B$37:$B$39</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2538,7 +2539,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FMNCONPRO!$C$36:$C$38</c:f>
+              <c:f>FMNCONPRO!$C$37:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2554,7 +2555,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6C88-429B-9B94-D693452364F6}"/>
             </c:ext>
@@ -2570,11 +2571,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="168349136"/>
-        <c:axId val="168070496"/>
+        <c:axId val="243971280"/>
+        <c:axId val="243969712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="168349136"/>
+        <c:axId val="243971280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2614,10 +2615,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168070496"/>
+        <c:crossAx val="243969712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2625,7 +2626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168070496"/>
+        <c:axId val="243969712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2646,7 +2647,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168349136"/>
+        <c:crossAx val="243971280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2697,7 +2698,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2709,7 +2710,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2779,7 +2780,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2849,7 +2850,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1CE4-4D1A-8C0D-A8986C73C9BB}"/>
             </c:ext>
@@ -2865,11 +2866,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="167704336"/>
-        <c:axId val="168270128"/>
+        <c:axId val="243968536"/>
+        <c:axId val="243968928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="167704336"/>
+        <c:axId val="243968536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2927,7 +2928,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-PE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2965,10 +2966,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168270128"/>
+        <c:crossAx val="243968928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2976,7 +2977,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168270128"/>
+        <c:axId val="243968928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3048,7 +3049,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-PE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3080,10 +3081,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167704336"/>
+        <c:crossAx val="243968536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3126,7 +3127,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3153,7 +3154,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3165,7 +3166,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3212,7 +3213,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3325,7 +3326,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C2EA-4E10-B8DC-B0F15286BC26}"/>
             </c:ext>
@@ -3341,12 +3342,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="168250720"/>
-        <c:axId val="167816152"/>
+        <c:axId val="243970104"/>
+        <c:axId val="205073872"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="168250720"/>
+        <c:axId val="243970104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3380,10 +3381,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167816152"/>
+        <c:crossAx val="205073872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3391,7 +3392,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167816152"/>
+        <c:axId val="205073872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3436,10 +3437,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168250720"/>
+        <c:crossAx val="243970104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3474,7 +3475,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3486,7 +3487,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3551,7 +3552,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3610,7 +3611,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -3621,7 +3622,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -3671,7 +3672,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-50BD-4EF6-9D79-6DA9D6248718}"/>
             </c:ext>
@@ -3688,11 +3689,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="168028896"/>
-        <c:axId val="168029280"/>
+        <c:axId val="342154120"/>
+        <c:axId val="342156080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="168028896"/>
+        <c:axId val="342154120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3755,7 +3756,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-PE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3793,10 +3794,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168029280"/>
+        <c:crossAx val="342156080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3804,7 +3805,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168029280"/>
+        <c:axId val="342156080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3878,7 +3879,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-PE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3886,7 +3887,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168028896"/>
+        <c:crossAx val="342154120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3937,7 +3938,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3949,7 +3950,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3994,6 +3995,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4025,7 +4027,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4124,7 +4126,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9209-487D-ADE6-3545591C93C9}"/>
             </c:ext>
@@ -4140,11 +4142,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="138509568"/>
-        <c:axId val="138509960"/>
+        <c:axId val="342153336"/>
+        <c:axId val="342153728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="138509568"/>
+        <c:axId val="342153336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4175,6 +4177,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4199,7 +4202,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-PE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4236,10 +4239,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138509960"/>
+        <c:crossAx val="342153728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4247,7 +4250,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138509960"/>
+        <c:axId val="342153728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4292,6 +4295,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4316,7 +4320,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-PE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4347,10 +4351,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="138509568"/>
+        <c:crossAx val="342153336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4401,7 +4405,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7930,13 +7934,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>557211</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7960,13 +7964,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>433387</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>271462</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8058,13 +8062,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>235098</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>270196</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8843,10 +8847,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8860,477 +8864,488 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="105"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="104"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
-      <c r="A2" s="106"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="108"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="107"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1">
-      <c r="A3" s="106"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="108"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="107"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1">
-      <c r="A4" s="106"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="108"/>
+      <c r="A4" s="105"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="107"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A5" s="106"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="108"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="107"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="109"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="110"/>
-      <c r="P6" s="111"/>
+      <c r="A6" s="108"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="110"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="111" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="113"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A8" s="114"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="116"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A9" s="34"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A10" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="114"/>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="115"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="117"/>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A9" s="12" t="s">
+      <c r="B10" s="191" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="122" t="s">
+      <c r="C10" s="192"/>
+      <c r="D10" s="192"/>
+      <c r="E10" s="192"/>
+      <c r="F10" s="192"/>
+      <c r="G10" s="192"/>
+      <c r="H10" s="192"/>
+      <c r="I10" s="193"/>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" thickBot="1">
+      <c r="A11" s="121" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A12" s="194"/>
+      <c r="B12" s="117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="118"/>
+      <c r="D12" s="117" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="119"/>
+      <c r="F12" s="120" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="119"/>
+      <c r="H12" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="119"/>
+    </row>
+    <row r="13" spans="1:16" ht="26.25" thickBot="1">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>10</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2</v>
+      </c>
+      <c r="E15" s="5">
+        <v>5</v>
+      </c>
+      <c r="F15" s="5">
+        <v>11</v>
+      </c>
+      <c r="G15" s="5">
+        <v>35</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="5">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="5">
+        <v>6</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="5">
+        <v>36</v>
+      </c>
+      <c r="G16" s="5">
+        <v>100</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0.21</v>
+      </c>
+      <c r="I16" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A17" s="34"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+    </row>
+    <row r="18" spans="1:16" ht="19.5" thickBot="1">
+      <c r="J18" s="99" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="100"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="100"/>
+      <c r="N18" s="100"/>
+      <c r="O18" s="100"/>
+      <c r="P18" s="101"/>
+    </row>
+    <row r="19" spans="1:16" ht="32.25" customHeight="1">
+      <c r="J19" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="123"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="124"/>
-    </row>
-    <row r="10" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A10" s="125" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="126"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="118" t="s">
+      <c r="K19" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="30" customHeight="1">
+      <c r="J20" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="14">
+        <v>0</v>
+      </c>
+      <c r="M20" s="14">
+        <v>0</v>
+      </c>
+      <c r="N20" s="14">
+        <v>0</v>
+      </c>
+      <c r="O20" s="14">
+        <f>P20</f>
+        <v>1</v>
+      </c>
+      <c r="P20" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="30" customHeight="1">
+      <c r="J21" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="118" t="s">
+      <c r="K21" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="14">
+        <v>0</v>
+      </c>
+      <c r="M21" s="14">
+        <v>0</v>
+      </c>
+      <c r="N21" s="14">
+        <v>0</v>
+      </c>
+      <c r="O21" s="14">
+        <f>P21</f>
+        <v>2</v>
+      </c>
+      <c r="P21" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="30" customHeight="1">
+      <c r="J22" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="120"/>
-      <c r="F11" s="121" t="s">
+      <c r="K22" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="14">
+        <v>0</v>
+      </c>
+      <c r="M22" s="14">
+        <v>0</v>
+      </c>
+      <c r="N22" s="14">
+        <v>0</v>
+      </c>
+      <c r="O22" s="14">
+        <f>P22</f>
+        <v>36</v>
+      </c>
+      <c r="P22" s="14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="30" customHeight="1">
+      <c r="J23" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="120"/>
-      <c r="H11" s="121" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="120"/>
-    </row>
-    <row r="12" spans="1:16" ht="26.25" thickBot="1">
-      <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="5">
+      <c r="K23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="14">
         <v>0</v>
       </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="M23" s="14">
         <v>0</v>
       </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
+      <c r="N23" s="14">
         <v>0</v>
       </c>
-      <c r="G13" s="5">
-        <v>10</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="5">
-        <v>2</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="O23" s="14">
+        <f>P23</f>
         <v>5</v>
       </c>
-      <c r="D14" s="5">
-        <v>2</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="P23" s="14">
         <v>5</v>
       </c>
-      <c r="F14" s="5">
-        <v>11</v>
-      </c>
-      <c r="G14" s="5">
-        <v>35</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0.06</v>
-      </c>
-      <c r="I14" s="10">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A15" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="5">
-        <v>6</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="5">
-        <v>6</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="5">
-        <v>36</v>
-      </c>
-      <c r="G15" s="5">
-        <v>100</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0.21</v>
-      </c>
-      <c r="I15" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-    </row>
-    <row r="17" spans="10:16" ht="19.5" thickBot="1">
-      <c r="J17" s="100" t="s">
-        <v>65</v>
-      </c>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="101"/>
-      <c r="P17" s="102"/>
-    </row>
-    <row r="18" spans="10:16" ht="32.25" customHeight="1">
-      <c r="J18" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="N18" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="O18" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="P18" s="34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="10:16" ht="30" customHeight="1">
-      <c r="J19" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L19" s="15">
-        <v>0</v>
-      </c>
-      <c r="M19" s="15">
-        <v>0</v>
-      </c>
-      <c r="N19" s="15">
-        <v>0</v>
-      </c>
-      <c r="O19" s="15">
-        <f>P19</f>
-        <v>1</v>
-      </c>
-      <c r="P19" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="10:16" ht="30" customHeight="1">
-      <c r="J20" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" s="15">
-        <v>0</v>
-      </c>
-      <c r="M20" s="15">
-        <v>0</v>
-      </c>
-      <c r="N20" s="15">
-        <v>0</v>
-      </c>
-      <c r="O20" s="15">
-        <f>P20</f>
-        <v>2</v>
-      </c>
-      <c r="P20" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="10:16" ht="30" customHeight="1">
-      <c r="J21" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" s="15">
-        <v>0</v>
-      </c>
-      <c r="M21" s="15">
-        <v>0</v>
-      </c>
-      <c r="N21" s="15">
-        <v>0</v>
-      </c>
-      <c r="O21" s="15">
-        <f>P21</f>
-        <v>36</v>
-      </c>
-      <c r="P21" s="15">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="10:16" ht="30" customHeight="1">
-      <c r="J22" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L22" s="15">
-        <v>0</v>
-      </c>
-      <c r="M22" s="15">
-        <v>0</v>
-      </c>
-      <c r="N22" s="15">
-        <v>0</v>
-      </c>
-      <c r="O22" s="15">
-        <f>P22</f>
-        <v>5</v>
-      </c>
-      <c r="P22" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="10:16">
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
     <mergeCell ref="A1:P6"/>
     <mergeCell ref="A7:P8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="A11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9355,7 +9370,7 @@
               <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>O19</xm:sqref>
+          <xm:sqref>O20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="3" id="{3131A288-8D96-4CFA-A78E-6BFB61EF6712}">
@@ -9374,7 +9389,7 @@
               <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>O20</xm:sqref>
+          <xm:sqref>O21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="2" id="{96336BB9-20C3-4573-9C55-FC931DAE3DE1}">
@@ -9393,7 +9408,7 @@
               <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>O21</xm:sqref>
+          <xm:sqref>O22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="1" id="{FB5FBEBF-82BD-43A6-9FF0-2FA48EB8A399}">
@@ -9412,7 +9427,7 @@
               <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>O22</xm:sqref>
+          <xm:sqref>O23</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -9422,10 +9437,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9443,496 +9458,497 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1">
-      <c r="A2" s="106"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1">
-      <c r="A3" s="106"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1">
-      <c r="A4" s="106"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
+      <c r="A4" s="105"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A5" s="106"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="109"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="C7" s="128" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="129"/>
-      <c r="E7" s="130"/>
-    </row>
-    <row r="8" spans="1:18" ht="23.25" customHeight="1" thickBot="1">
-      <c r="C8" s="131"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="133"/>
-    </row>
-    <row r="9" spans="1:18" ht="26.25" thickBot="1">
-      <c r="C9" s="3" t="s">
+      <c r="A6" s="108"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" thickBot="1"/>
+    <row r="8" spans="1:18">
+      <c r="C8" s="124" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="125"/>
+      <c r="E8" s="126"/>
+    </row>
+    <row r="9" spans="1:18" ht="23.25" customHeight="1" thickBot="1">
+      <c r="C9" s="127"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="129"/>
+    </row>
+    <row r="10" spans="1:18" ht="26.25" thickBot="1">
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="3" t="s">
+    </row>
+    <row r="11" spans="1:18" ht="15.75" thickBot="1">
+      <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" thickBot="1">
-      <c r="C10" s="4" t="s">
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" thickBot="1">
+      <c r="C12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D12" s="5">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" thickBot="1">
+      <c r="C13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="5">
+        <v>6</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" thickBot="1"/>
+    <row r="15" spans="1:18" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A15" s="132" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="133"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+    </row>
+    <row r="16" spans="1:18" ht="60.75" thickBot="1">
+      <c r="A16" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="39" thickBot="1">
+      <c r="A17" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="66">
+        <v>7</v>
+      </c>
+      <c r="F17" s="66">
+        <v>11</v>
+      </c>
+      <c r="G17" s="67">
+        <f>E17/F17</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="H17" s="68">
+        <f>+G17</f>
+        <v>0.63636363636363635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="20" spans="1:11" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A20" s="132" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="133"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
+    </row>
+    <row r="21" spans="1:11" ht="60.75" thickBot="1">
+      <c r="A21" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="39" thickBot="1">
+      <c r="A22" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="66">
+        <v>17</v>
+      </c>
+      <c r="F22" s="66">
+        <v>37</v>
+      </c>
+      <c r="G22" s="67">
+        <f>E22/F22</f>
+        <v>0.45945945945945948</v>
+      </c>
+      <c r="H22" s="68">
+        <f>+G22</f>
+        <v>0.45945945945945948</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="25" spans="1:11" ht="42.75" customHeight="1" thickBot="1">
+      <c r="A25" s="136" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="137"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+    </row>
+    <row r="26" spans="1:11" s="52" customFormat="1" ht="54.75" customHeight="1">
+      <c r="A26" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="141"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+    </row>
+    <row r="27" spans="1:11" ht="36" customHeight="1" thickBot="1">
+      <c r="A27" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="14">
+        <v>7</v>
+      </c>
+      <c r="E27" s="14">
+        <v>17</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="143"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="73"/>
+    </row>
+    <row r="28" spans="1:11" ht="45">
+      <c r="A28" s="134" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="135"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="35">
+        <v>11</v>
+      </c>
+      <c r="E28" s="35">
+        <v>37</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="77" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="45.75" thickBot="1">
+      <c r="A29" s="138" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="139"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="80">
+        <f>D27/D28</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="E29" s="80">
+        <f>E27/E28</f>
+        <v>0.45945945945945948</v>
+      </c>
+      <c r="F29" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="82">
+        <f>+J29</f>
         <v>0</v>
       </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" thickBot="1">
-      <c r="C11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="5">
-        <v>2</v>
-      </c>
-      <c r="E11" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="C12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="5">
-        <v>6</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1"/>
-    <row r="14" spans="1:18" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A14" s="136" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="137"/>
-      <c r="C14" s="137"/>
-      <c r="D14" s="137"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-    </row>
-    <row r="15" spans="1:18" ht="60.75" thickBot="1">
-      <c r="A15" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="62" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="63" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="39" thickBot="1">
-      <c r="A16" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="67" t="s">
+      <c r="H29" s="83">
+        <f>AVERAGE(D29:E29)</f>
+        <v>0.54791154791154795</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="K30" s="79"/>
+    </row>
+    <row r="34" spans="2:20" ht="15.75" thickBot="1"/>
+    <row r="35" spans="2:20" ht="39.75" customHeight="1">
+      <c r="B35" s="130" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="131"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="T35" s="70"/>
+    </row>
+    <row r="36" spans="2:20" ht="15.75">
+      <c r="B36" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20">
+      <c r="B37" s="98" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="57">
+        <f>D29</f>
+        <v>0.63636363636363635</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20">
+      <c r="B38" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="67">
-        <v>7</v>
-      </c>
-      <c r="F16" s="67">
-        <v>11</v>
-      </c>
-      <c r="G16" s="68">
-        <f>E16/F16</f>
-        <v>0.63636363636363635</v>
-      </c>
-      <c r="H16" s="69">
-        <f>+G16</f>
-        <v>0.63636363636363635</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="19" spans="1:11" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A19" s="136" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="137"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-    </row>
-    <row r="20" spans="1:11" ht="60.75" thickBot="1">
-      <c r="A20" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="62" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="63" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="39" thickBot="1">
-      <c r="A21" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="67" t="s">
+      <c r="C38" s="57">
+        <f>E27/37</f>
+        <v>0.45945945945945948</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20">
+      <c r="B39" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="67">
-        <v>17</v>
-      </c>
-      <c r="F21" s="67">
-        <v>37</v>
-      </c>
-      <c r="G21" s="68">
-        <f>E21/F21</f>
-        <v>0.45945945945945948</v>
-      </c>
-      <c r="H21" s="69">
-        <f>+G21</f>
-        <v>0.45945945945945948</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="24" spans="1:11" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A24" s="140" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="141"/>
-      <c r="C24" s="141"/>
-      <c r="D24" s="141"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="141"/>
-      <c r="H24" s="141"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-    </row>
-    <row r="25" spans="1:11" s="53" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A25" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="76" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="145"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-    </row>
-    <row r="26" spans="1:11" ht="36" customHeight="1" thickBot="1">
-      <c r="A26" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="15">
-        <v>7</v>
-      </c>
-      <c r="E26" s="15">
-        <v>17</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" s="147"/>
-      <c r="H26" s="148"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="74"/>
-    </row>
-    <row r="27" spans="1:11" ht="45">
-      <c r="A27" s="138" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" s="139"/>
-      <c r="C27" s="139"/>
-      <c r="D27" s="36">
-        <v>11</v>
-      </c>
-      <c r="E27" s="36">
-        <v>37</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="H27" s="78" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="45.75" thickBot="1">
-      <c r="A28" s="142" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="143"/>
-      <c r="C28" s="144"/>
-      <c r="D28" s="81">
-        <f>D26/D27</f>
-        <v>0.63636363636363635</v>
-      </c>
-      <c r="E28" s="81">
-        <f>E26/E27</f>
-        <v>0.45945945945945948</v>
-      </c>
-      <c r="F28" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="83">
-        <f>+J28</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="84">
-        <f>AVERAGE(D28:E28)</f>
-        <v>0.54791154791154795</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="K29" s="80"/>
-    </row>
-    <row r="33" spans="2:20" ht="15.75" thickBot="1"/>
-    <row r="34" spans="2:20" ht="39.75" customHeight="1">
-      <c r="B34" s="134" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="135"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="T34" s="71"/>
-    </row>
-    <row r="35" spans="2:20" ht="15.75">
-      <c r="B35" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="2:20">
-      <c r="B36" s="99" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="58">
-        <f>D28</f>
-        <v>0.63636363636363635</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20">
-      <c r="B37" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="58">
-        <f>E26/37</f>
-        <v>0.45945945945945948</v>
-      </c>
-    </row>
-    <row r="38" spans="2:20">
-      <c r="B38" s="99" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="99" t="str">
-        <f>+F26</f>
+      <c r="C39" s="98" t="str">
+        <f>+F27</f>
         <v>POR REVISAR</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="C7:E8"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="A1:L6"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="A28:C28"/>
-    <mergeCell ref="G25:H26"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="G26:H27"/>
   </mergeCells>
-  <conditionalFormatting sqref="I26">
+  <conditionalFormatting sqref="I27">
     <cfRule type="iconSet" priority="4">
       <iconSet iconSet="3TrafficLights2" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -9964,7 +9980,7 @@
               <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I26</xm:sqref>
+          <xm:sqref>I27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="3" id="{B7B11DFA-2019-4954-A4A8-4D6BB815C7E1}">
@@ -9983,7 +9999,7 @@
               <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H16</xm:sqref>
+          <xm:sqref>H17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="2" id="{61D5B203-D035-40E1-B44F-563AE0BAF98A}">
@@ -10002,7 +10018,7 @@
               <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H21</xm:sqref>
+          <xm:sqref>H22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="1" id="{0766904C-7CC9-4295-A584-6460DB31FA2E}">
@@ -10021,7 +10037,7 @@
               <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>G28</xm:sqref>
+          <xm:sqref>G29</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -10033,8 +10049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10046,118 +10062,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="105"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="104"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="106"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="108"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="107"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="106"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="108"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="107"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="106"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="108"/>
+      <c r="A4" s="105"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="107"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="106"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="108"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="107"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A6" s="109"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="111"/>
+      <c r="A6" s="108"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="110"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:12">
-      <c r="A8" s="128" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="129"/>
-      <c r="C8" s="130"/>
+      <c r="A8" s="124" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="125"/>
+      <c r="C8" s="126"/>
     </row>
     <row r="9" spans="1:12" ht="33" customHeight="1" thickBot="1">
-      <c r="A9" s="131"/>
-      <c r="B9" s="132"/>
-      <c r="C9" s="133"/>
+      <c r="A9" s="127"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="129"/>
     </row>
     <row r="10" spans="1:12" ht="26.25" thickBot="1">
       <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="5">
         <v>0</v>
@@ -10168,7 +10184,7 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1">
       <c r="A12" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="5">
         <v>11</v>
@@ -10179,7 +10195,7 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1">
       <c r="A13" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="5">
         <v>36</v>
@@ -10190,379 +10206,379 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="15" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A15" s="140" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="141"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="141"/>
-      <c r="I15" s="141"/>
-      <c r="J15" s="149"/>
+      <c r="A15" s="136" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="137"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="145"/>
     </row>
     <row r="16" spans="1:12" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="52" t="s">
+      <c r="I16" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="I16" s="52" t="s">
+      <c r="J16" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="J16" s="44" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="17" spans="1:10" ht="30.75" thickBot="1">
-      <c r="A17" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="47">
+      <c r="A17" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="46">
         <v>0</v>
       </c>
-      <c r="E17" s="47">
+      <c r="E17" s="46">
         <v>1</v>
       </c>
-      <c r="F17" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="47">
+      <c r="F17" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="46">
         <f>+J17</f>
         <v>25</v>
       </c>
-      <c r="H17" s="48">
+      <c r="H17" s="47">
         <f>(D17+E17)/15*100</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="I17" s="49">
+      <c r="I17" s="48">
         <f>J17</f>
         <v>25</v>
       </c>
-      <c r="J17" s="48">
+      <c r="J17" s="47">
         <f>E17/4*100</f>
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="21" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A21" s="136" t="s">
+      <c r="A21" s="132" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="133"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+    </row>
+    <row r="22" spans="1:10" ht="48.75" thickBot="1">
+      <c r="A22" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="137"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="137"/>
-      <c r="G21" s="137"/>
-      <c r="H21" s="137"/>
-    </row>
-    <row r="22" spans="1:10" ht="48.75" thickBot="1">
-      <c r="A22" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="62" t="s">
+      <c r="E22" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="G22" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="63" t="s">
+      <c r="G22" s="61" t="s">
         <v>17</v>
       </c>
+      <c r="H22" s="62" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="30.75" thickBot="1">
-      <c r="A23" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="67">
+      <c r="A23" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="66">
         <v>0</v>
       </c>
-      <c r="F23" s="67">
+      <c r="F23" s="66">
         <v>15</v>
       </c>
-      <c r="G23" s="98">
+      <c r="G23" s="97">
         <f>E23/F23</f>
         <v>0</v>
       </c>
-      <c r="H23" s="69">
+      <c r="H23" s="68">
         <f>+G23</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="27" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A27" s="136" t="s">
+      <c r="A27" s="132" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="133"/>
+      <c r="C27" s="133"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="133"/>
+    </row>
+    <row r="28" spans="1:10" ht="48.75" thickBot="1">
+      <c r="A28" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="137"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="137"/>
-      <c r="G27" s="137"/>
-      <c r="H27" s="137"/>
-    </row>
-    <row r="28" spans="1:10" ht="48.75" thickBot="1">
-      <c r="A28" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28" s="62" t="s">
+      <c r="E28" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="G28" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="63" t="s">
+      <c r="G28" s="61" t="s">
         <v>17</v>
       </c>
+      <c r="H28" s="62" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="29" spans="1:10" ht="30.75" thickBot="1">
-      <c r="A29" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="67" t="s">
+      <c r="A29" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="66">
+        <v>1</v>
+      </c>
+      <c r="F29" s="66">
         <v>15</v>
       </c>
-      <c r="E29" s="67">
-        <v>1</v>
-      </c>
-      <c r="F29" s="67">
-        <v>15</v>
-      </c>
-      <c r="G29" s="97">
+      <c r="G29" s="96">
         <f>E29/F29*100</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="H29" s="69">
+      <c r="H29" s="68">
         <f>+G29</f>
         <v>6.666666666666667</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="32" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A32" s="140" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" s="141"/>
-      <c r="C32" s="141"/>
-      <c r="D32" s="141"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="141"/>
-      <c r="G32" s="141"/>
-      <c r="H32" s="141"/>
+      <c r="A32" s="136" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="137"/>
+      <c r="C32" s="137"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="137"/>
+      <c r="H32" s="137"/>
     </row>
     <row r="33" spans="1:8" ht="24.75" thickBot="1">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="141"/>
+      <c r="H33" s="142"/>
+    </row>
+    <row r="34" spans="1:8" ht="54" customHeight="1" thickBot="1">
+      <c r="A34" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="14">
+        <v>0</v>
+      </c>
+      <c r="E34" s="14">
+        <v>1</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" s="143"/>
+      <c r="H34" s="144"/>
+    </row>
+    <row r="35" spans="1:8" ht="30">
+      <c r="A35" s="134" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="135"/>
+      <c r="C35" s="135"/>
+      <c r="D35" s="35">
+        <v>15</v>
+      </c>
+      <c r="E35" s="35">
+        <v>15</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="76" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="145"/>
-      <c r="H33" s="146"/>
-    </row>
-    <row r="34" spans="1:8" ht="54" customHeight="1" thickBot="1">
-      <c r="A34" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="15">
-        <v>0</v>
-      </c>
-      <c r="E34" s="15">
-        <v>1</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G34" s="147"/>
-      <c r="H34" s="148"/>
-    </row>
-    <row r="35" spans="1:8" ht="30">
-      <c r="A35" s="138" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35" s="139"/>
-      <c r="C35" s="139"/>
-      <c r="D35" s="36">
-        <v>15</v>
-      </c>
-      <c r="E35" s="36">
-        <v>15</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G35" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="H35" s="78" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="36" spans="1:8" ht="30.75" thickBot="1">
-      <c r="A36" s="142" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="143"/>
-      <c r="C36" s="144"/>
-      <c r="D36" s="81">
+      <c r="A36" s="138" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="139"/>
+      <c r="C36" s="140"/>
+      <c r="D36" s="80">
         <f>D34/D35*100</f>
         <v>0</v>
       </c>
-      <c r="E36" s="81">
+      <c r="E36" s="80">
         <f>E34/E35*100</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="F36" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="G36" s="83">
+      <c r="F36" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" s="82">
         <f>+J36</f>
         <v>0</v>
       </c>
-      <c r="H36" s="84">
+      <c r="H36" s="83">
         <f>AVERAGE(D36:E36)</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="39" spans="1:8" ht="36.75" customHeight="1">
-      <c r="A39" s="134" t="s">
+      <c r="A39" s="130" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="131"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75">
+      <c r="A40" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="135"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.75">
-      <c r="A40" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" s="38" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="58">
+      <c r="A41" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="57">
         <f>D36</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="58">
+      <c r="A42" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="57">
         <f>+E36</f>
         <v>6.666666666666667</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="36">
+      <c r="A43" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="35">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="G33:H34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A1:L6"/>
     <mergeCell ref="A8:C9"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="G33:H34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10675,113 +10691,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="105"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="104"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="106"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="108"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="107"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="106"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="108"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="107"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="106"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="108"/>
+      <c r="A4" s="105"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="107"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="106"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="108"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="107"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A6" s="109"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="111"/>
+      <c r="A6" s="108"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="110"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:10">
-      <c r="A8" s="128" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="129"/>
-      <c r="C8" s="130"/>
+      <c r="A8" s="124" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="125"/>
+      <c r="C8" s="126"/>
     </row>
     <row r="9" spans="1:10" ht="33" customHeight="1" thickBot="1">
-      <c r="A9" s="131"/>
-      <c r="B9" s="132"/>
-      <c r="C9" s="133"/>
+      <c r="A9" s="127"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="129"/>
     </row>
     <row r="10" spans="1:10" ht="26.25" thickBot="1">
       <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="6">
         <v>0</v>
@@ -10792,7 +10808,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1">
       <c r="A12" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="9">
         <v>0.06</v>
@@ -10803,7 +10819,7 @@
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1">
       <c r="A13" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="9">
         <v>0.21</v>
@@ -10814,256 +10830,256 @@
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="15" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A15" s="136" t="s">
+      <c r="A15" s="132" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="133"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+    </row>
+    <row r="16" spans="1:10" ht="24.75" thickBot="1">
+      <c r="A16" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="30.75" thickBot="1">
+      <c r="A17" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="137"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-    </row>
-    <row r="16" spans="1:10" ht="24.75" thickBot="1">
-      <c r="A16" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="87" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="62" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="30.75" thickBot="1">
-      <c r="A17" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <v>18</v>
       </c>
-      <c r="F17" s="89">
+      <c r="F17" s="88">
         <f>+E17</f>
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="22" spans="1:14" ht="19.5" thickBot="1">
-      <c r="A22" s="136" t="s">
+      <c r="A22" s="132" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="133"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+    </row>
+    <row r="23" spans="1:14" ht="24.75" thickBot="1">
+      <c r="A23" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="30.75" thickBot="1">
+      <c r="A24" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="137"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="137"/>
-    </row>
-    <row r="23" spans="1:14" ht="24.75" thickBot="1">
-      <c r="A23" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="87" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="62" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="30.75" thickBot="1">
-      <c r="A24" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="67" t="s">
+      <c r="C24" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="87">
         <v>15</v>
       </c>
-      <c r="E24" s="88">
-        <v>15</v>
-      </c>
-      <c r="F24" s="89">
+      <c r="F24" s="88">
         <f>+E24</f>
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="29" spans="1:14" ht="19.5" thickBot="1">
-      <c r="A29" s="140" t="s">
+      <c r="A29" s="136" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="137"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="94"/>
+    </row>
+    <row r="30" spans="1:14" ht="24.75" thickBot="1">
+      <c r="A30" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="141"/>
+      <c r="H30" s="142"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="94"/>
+    </row>
+    <row r="31" spans="1:14" ht="53.25" customHeight="1" thickBot="1">
+      <c r="A31" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="141"/>
-      <c r="C29" s="141"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="141"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="95"/>
-    </row>
-    <row r="30" spans="1:14" ht="24.75" thickBot="1">
-      <c r="A30" s="75" t="s">
+      <c r="C31" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="14">
+        <v>18</v>
+      </c>
+      <c r="E31" s="14">
+        <v>15</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="143"/>
+      <c r="H31" s="144"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="94"/>
+    </row>
+    <row r="32" spans="1:14" ht="30">
+      <c r="A32" s="134" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="135"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="85">
+        <v>18</v>
+      </c>
+      <c r="E32" s="85">
+        <v>15</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="76" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="76" t="s">
+    </row>
+    <row r="33" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A33" s="146" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="147"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="89">
+        <v>18</v>
+      </c>
+      <c r="E33" s="89">
         <v>15</v>
       </c>
-      <c r="F30" s="77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="145"/>
-      <c r="H30" s="146"/>
-      <c r="L30" s="94"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
-    </row>
-    <row r="31" spans="1:14" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A31" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="15">
-        <v>18</v>
-      </c>
-      <c r="E31" s="15">
-        <v>15</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G31" s="147"/>
-      <c r="H31" s="148"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
-    </row>
-    <row r="32" spans="1:14" ht="30">
-      <c r="A32" s="138" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" s="139"/>
-      <c r="C32" s="139"/>
-      <c r="D32" s="86">
-        <v>18</v>
-      </c>
-      <c r="E32" s="86">
-        <v>15</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G32" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="H32" s="78" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="30.75" thickBot="1">
-      <c r="A33" s="150" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" s="151"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="90">
-        <v>18</v>
-      </c>
-      <c r="E33" s="90">
-        <v>15</v>
-      </c>
-      <c r="F33" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="G33" s="93">
+      <c r="F33" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" s="92">
         <f>+H33</f>
         <v>16.5</v>
       </c>
-      <c r="H33" s="92">
+      <c r="H33" s="91">
         <f>AVERAGE(D33:E33)</f>
         <v>16.5</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="39" spans="1:8" ht="18.75">
-      <c r="A39" s="134" t="s">
+      <c r="A39" s="130" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="131"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75">
+      <c r="A40" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="135"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.75">
-      <c r="A40" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" s="38" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="86" t="s">
+      <c r="A41" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="95">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="96">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="86" t="s">
+      <c r="B42" s="95">
         <v>15</v>
       </c>
-      <c r="B42" s="96">
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="85" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="96">
+      <c r="B43" s="95">
         <v>0</v>
       </c>
     </row>
@@ -11151,7 +11167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -11163,219 +11179,201 @@
   <sheetData>
     <row r="4" spans="3:10" ht="15.75" thickBot="1"/>
     <row r="5" spans="3:10" ht="15.75" thickBot="1">
-      <c r="C5" s="167" t="s">
+      <c r="C5" s="149" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="150"/>
+      <c r="E5" s="149" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="168"/>
-      <c r="E5" s="167" t="s">
+      <c r="F5" s="151"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="169"/>
-      <c r="G5" s="168"/>
-      <c r="H5" s="170" t="s">
+      <c r="I5" s="153"/>
+      <c r="J5" s="154"/>
+    </row>
+    <row r="6" spans="3:10" ht="24" customHeight="1" thickBot="1">
+      <c r="C6" s="155" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="171"/>
-      <c r="J5" s="172"/>
-    </row>
-    <row r="6" spans="3:10" ht="24" customHeight="1" thickBot="1">
-      <c r="C6" s="161" t="s">
+      <c r="D6" s="156"/>
+      <c r="E6" s="155" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="157"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="158" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="162"/>
-      <c r="E6" s="161" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="163"/>
-      <c r="G6" s="162"/>
-      <c r="H6" s="164" t="s">
+      <c r="I6" s="159"/>
+      <c r="J6" s="160"/>
+    </row>
+    <row r="7" spans="3:10" ht="24" customHeight="1" thickBot="1">
+      <c r="C7" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="165"/>
-      <c r="J6" s="166"/>
-    </row>
-    <row r="7" spans="3:10" ht="24" customHeight="1" thickBot="1">
-      <c r="C7" s="161" t="s">
+      <c r="D7" s="156"/>
+      <c r="E7" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="157"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="158" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="162"/>
-      <c r="E7" s="161" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="163"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="164" t="s">
+      <c r="I7" s="159"/>
+      <c r="J7" s="160"/>
+    </row>
+    <row r="8" spans="3:10" ht="24" customHeight="1" thickBot="1">
+      <c r="C8" s="155" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="165"/>
-      <c r="J7" s="166"/>
-    </row>
-    <row r="8" spans="3:10" ht="24" customHeight="1" thickBot="1">
-      <c r="C8" s="161" t="s">
+      <c r="D8" s="156"/>
+      <c r="E8" s="158" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="162"/>
-      <c r="E8" s="164" t="s">
+      <c r="F8" s="159"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="158" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="165"/>
-      <c r="G8" s="166"/>
-      <c r="H8" s="164" t="s">
+      <c r="I8" s="159"/>
+      <c r="J8" s="160"/>
+    </row>
+    <row r="9" spans="3:10">
+      <c r="C9" s="161"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="163"/>
+    </row>
+    <row r="10" spans="3:10">
+      <c r="C10" s="164" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="165"/>
-      <c r="J8" s="166"/>
-    </row>
-    <row r="9" spans="3:10">
-      <c r="C9" s="158"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="159"/>
-      <c r="H9" s="159"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="160"/>
-    </row>
-    <row r="10" spans="3:10">
-      <c r="C10" s="157" t="s">
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="165"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="165"/>
+      <c r="I10" s="166"/>
+      <c r="J10" s="166"/>
+    </row>
+    <row r="11" spans="3:10">
+      <c r="C11" s="21"/>
+      <c r="D11" s="167" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="157"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="153"/>
-    </row>
-    <row r="11" spans="3:10">
-      <c r="C11" s="22"/>
-      <c r="D11" s="154" t="s">
+      <c r="E11" s="167"/>
+      <c r="F11" s="167"/>
+      <c r="G11" s="168" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="154"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="155" t="s">
+      <c r="H11" s="168"/>
+      <c r="I11" s="168"/>
+      <c r="J11" s="21"/>
+    </row>
+    <row r="12" spans="3:10">
+      <c r="C12" s="166"/>
+      <c r="D12" s="167" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="155"/>
-      <c r="I11" s="155"/>
-      <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="3:10">
-      <c r="C12" s="153"/>
-      <c r="D12" s="154" t="s">
+      <c r="E12" s="167"/>
+      <c r="F12" s="167"/>
+      <c r="G12" s="168" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="155" t="s">
+      <c r="H12" s="168"/>
+      <c r="I12" s="168"/>
+      <c r="J12" s="166"/>
+    </row>
+    <row r="13" spans="3:10">
+      <c r="C13" s="166"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="168"/>
+      <c r="H13" s="168"/>
+      <c r="I13" s="168"/>
+      <c r="J13" s="166"/>
+    </row>
+    <row r="14" spans="3:10">
+      <c r="C14" s="166"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="165" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="153"/>
-    </row>
-    <row r="13" spans="3:10">
-      <c r="C13" s="153"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="155"/>
-      <c r="I13" s="155"/>
-      <c r="J13" s="153"/>
-    </row>
-    <row r="14" spans="3:10">
-      <c r="C14" s="153"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="156" t="s">
+      <c r="H14" s="165"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="166"/>
+    </row>
+    <row r="15" spans="3:10">
+      <c r="C15" s="166"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="156"/>
-      <c r="I14" s="156"/>
-      <c r="J14" s="153"/>
-    </row>
-    <row r="15" spans="3:10">
-      <c r="C15" s="153"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="154"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="157" t="s">
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="166"/>
+    </row>
+    <row r="16" spans="3:10">
+      <c r="C16" s="166"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="168" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="157"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="153"/>
-    </row>
-    <row r="16" spans="3:10">
-      <c r="C16" s="153"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="155" t="s">
+      <c r="H16" s="168"/>
+      <c r="I16" s="168"/>
+      <c r="J16" s="166"/>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="C17" s="166"/>
+      <c r="D17" s="167"/>
+      <c r="E17" s="167"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="165"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="166"/>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" s="166"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="164" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="153"/>
-    </row>
-    <row r="17" spans="3:10">
-      <c r="C17" s="153"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="156"/>
-      <c r="H17" s="156"/>
-      <c r="I17" s="156"/>
-      <c r="J17" s="153"/>
-    </row>
-    <row r="18" spans="3:10">
-      <c r="C18" s="153"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="157" t="s">
+      <c r="H18" s="164"/>
+      <c r="I18" s="164"/>
+      <c r="J18" s="166"/>
+    </row>
+    <row r="19" spans="3:10">
+      <c r="C19" s="166"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="167"/>
+      <c r="G19" s="168" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="157"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="153"/>
-    </row>
-    <row r="19" spans="3:10">
-      <c r="C19" s="153"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="155" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="155"/>
-      <c r="I19" s="155"/>
-      <c r="J19" s="153"/>
+      <c r="H19" s="168"/>
+      <c r="I19" s="168"/>
+      <c r="J19" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
     <mergeCell ref="J12:J19"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
@@ -11389,6 +11387,24 @@
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="G19:I19"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11410,56 +11426,56 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B6" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B6" s="28" t="s">
+      <c r="C6" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="29" t="s">
+    </row>
+    <row r="7" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B7" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B7" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>63</v>
-      </c>
-    </row>
     <row r="8" spans="2:9" ht="15.75">
-      <c r="B8" s="25"/>
+      <c r="B8" s="24"/>
     </row>
     <row r="9" spans="2:9" ht="15.75">
-      <c r="B9" s="25"/>
+      <c r="B9" s="24"/>
     </row>
     <row r="15" spans="2:9" ht="15.75" thickBot="1">
       <c r="G15" s="1"/>
-      <c r="H15" s="118" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="120"/>
+      <c r="H15" s="117" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="119"/>
     </row>
     <row r="16" spans="2:9" ht="26.25" thickBot="1">
       <c r="G16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="17" spans="7:9" ht="15.75" thickBot="1">
       <c r="G17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H17" s="5">
         <v>0</v>
@@ -11470,7 +11486,7 @@
     </row>
     <row r="18" spans="7:9" ht="15.75" thickBot="1">
       <c r="G18" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H18" s="5">
         <v>2</v>
@@ -11481,19 +11497,19 @@
     </row>
     <row r="19" spans="7:9" ht="15.75" thickBot="1">
       <c r="G19" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H19" s="5">
         <v>6</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="7:9">
-      <c r="G20" s="30"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11520,52 +11536,52 @@
   <sheetData>
     <row r="4" spans="3:10" ht="15.75" thickBot="1"/>
     <row r="5" spans="3:10" ht="15.75" thickBot="1">
-      <c r="C5" s="176" t="s">
+      <c r="C5" s="172" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="173"/>
+      <c r="E5" s="172" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="177"/>
-      <c r="E5" s="176" t="s">
+      <c r="F5" s="174"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="172" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="178"/>
-      <c r="G5" s="177"/>
-      <c r="H5" s="176" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="178"/>
-      <c r="J5" s="177"/>
+      <c r="I5" s="174"/>
+      <c r="J5" s="173"/>
     </row>
     <row r="6" spans="3:10" ht="30.75" customHeight="1" thickBot="1">
-      <c r="C6" s="173" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="174"/>
-      <c r="E6" s="173" t="s">
+      <c r="C6" s="169" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="170"/>
+      <c r="E6" s="169" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="171"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="169" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="171"/>
+      <c r="J6" s="170"/>
+    </row>
+    <row r="7" spans="3:10" ht="38.25" customHeight="1" thickBot="1">
+      <c r="C7" s="169" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="170"/>
+      <c r="E7" s="169" t="s">
         <v>102</v>
       </c>
-      <c r="F6" s="175"/>
-      <c r="G6" s="174"/>
-      <c r="H6" s="173" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="175"/>
-      <c r="J6" s="174"/>
-    </row>
-    <row r="7" spans="3:10" ht="38.25" customHeight="1" thickBot="1">
-      <c r="C7" s="173" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="174"/>
-      <c r="E7" s="173" t="s">
+      <c r="F7" s="171"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="169" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="175"/>
-      <c r="G7" s="174"/>
-      <c r="H7" s="173" t="s">
-        <v>104</v>
-      </c>
-      <c r="I7" s="175"/>
-      <c r="J7" s="174"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -11588,7 +11604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -11605,146 +11621,146 @@
   <sheetData>
     <row r="7" spans="5:11" ht="15.75" thickBot="1"/>
     <row r="8" spans="5:11" ht="18.75">
-      <c r="E8" s="179" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="180"/>
-      <c r="G8" s="180"/>
-      <c r="H8" s="180"/>
-      <c r="I8" s="181"/>
-      <c r="J8" s="182"/>
-      <c r="K8" s="183"/>
+      <c r="E8" s="175" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="176"/>
+      <c r="G8" s="176"/>
+      <c r="H8" s="176"/>
+      <c r="I8" s="177"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="179"/>
     </row>
     <row r="9" spans="5:11" ht="15.75">
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="G9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="H9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="I9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+    </row>
+    <row r="10" spans="5:11" ht="15" customHeight="1">
+      <c r="E10" s="184" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-    </row>
-    <row r="10" spans="5:11" ht="15" customHeight="1">
-      <c r="E10" s="188" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="186" t="s">
+      <c r="G10" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="190" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="192"/>
-      <c r="I10" s="184"/>
-      <c r="J10" s="182"/>
-      <c r="K10" s="183"/>
+      <c r="H10" s="188"/>
+      <c r="I10" s="180"/>
+      <c r="J10" s="178"/>
+      <c r="K10" s="179"/>
     </row>
     <row r="11" spans="5:11" ht="15" customHeight="1">
-      <c r="E11" s="188"/>
-      <c r="F11" s="186"/>
-      <c r="G11" s="190"/>
-      <c r="H11" s="192"/>
-      <c r="I11" s="184"/>
-      <c r="J11" s="182"/>
-      <c r="K11" s="183"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="186"/>
+      <c r="H11" s="188"/>
+      <c r="I11" s="180"/>
+      <c r="J11" s="178"/>
+      <c r="K11" s="179"/>
     </row>
     <row r="12" spans="5:11" ht="15.75">
-      <c r="E12" s="188"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="190"/>
-      <c r="H12" s="192"/>
-      <c r="I12" s="184"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
+      <c r="E12" s="184"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="186"/>
+      <c r="H12" s="188"/>
+      <c r="I12" s="180"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="5:11" ht="15.75">
-      <c r="E13" s="188"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="190"/>
-      <c r="H13" s="192"/>
-      <c r="I13" s="184"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="E13" s="184"/>
+      <c r="F13" s="182"/>
+      <c r="G13" s="186"/>
+      <c r="H13" s="188"/>
+      <c r="I13" s="180"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
     </row>
     <row r="14" spans="5:11" ht="55.5" customHeight="1" thickBot="1">
-      <c r="E14" s="189"/>
-      <c r="F14" s="187"/>
-      <c r="G14" s="191"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="185"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="E14" s="185"/>
+      <c r="F14" s="183"/>
+      <c r="G14" s="187"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="181"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="19" spans="1:5" ht="32.25" thickBot="1">
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="E19" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="39" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="20" spans="1:5" ht="39" thickBot="1">
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="41" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="45.75" thickBot="1">
+      <c r="C21" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="45.75" thickBot="1">
-      <c r="C21" s="43" t="s">
+      <c r="D21" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="E21" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="41" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="24" t="s">
+    </row>
+    <row r="33" spans="1:2" ht="38.25" customHeight="1">
+      <c r="A33" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="38.25" customHeight="1">
-      <c r="A33" s="23" t="s">
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B34" s="23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30" customHeight="1">
-      <c r="A34" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="21"/>
+      <c r="A35" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Area_de_Proceso-_MA/TABME/TABME_V1.0_2015.xlsx
+++ b/Area_de_Proceso-_MA/TABME/TABME_V1.0_2015.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UTP-GPS-ALARM\UTP-GPS-ALARM\Area_de_Proceso-_MA\TABME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jleonardo\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_MA\TABME\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7650" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tableros" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="106">
   <si>
     <t xml:space="preserve">    EJR-SOFT</t>
   </si>
@@ -1284,7 +1284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1572,6 +1572,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1638,6 +1646,15 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1722,6 +1739,48 @@
     <xf numFmtId="0" fontId="40" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1741,48 +1800,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1845,17 +1862,24 @@
     <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Cancel" xfId="1"/>
@@ -1937,7 +1961,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>FMNCONPRO!$B$27:$C$27</c:f>
+              <c:f>FMNCONPRO!$B$31:$C$31</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2028,7 +2052,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>FMNCONPRO!$D$26:$F$26</c:f>
+              <c:f>FMNCONPRO!$D$30:$F$30</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2045,7 +2069,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FMNCONPRO!$D$27:$F$27</c:f>
+              <c:f>FMNCONPRO!$D$31:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2056,7 +2080,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2079,11 +2103,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="244848424"/>
-        <c:axId val="243966576"/>
+        <c:axId val="525967776"/>
+        <c:axId val="525968168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="244848424"/>
+        <c:axId val="525967776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2182,7 +2206,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243966576"/>
+        <c:crossAx val="525968168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2190,7 +2214,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243966576"/>
+        <c:axId val="525968168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2282,7 +2306,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="244848424"/>
+        <c:crossAx val="525967776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2436,7 +2460,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>FMNCONPRO!$C$35:$C$36</c:f>
+              <c:f>FMNCONPRO!$C$39:$C$40</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2522,7 +2546,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>FMNCONPRO!$B$37:$B$39</c:f>
+              <c:f>FMNCONPRO!$B$41:$B$43</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2539,7 +2563,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FMNCONPRO!$C$37:$C$39</c:f>
+              <c:f>FMNCONPRO!$C$41:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2549,8 +2573,8 @@
                 <c:pt idx="1">
                   <c:v>0.45945945945945948</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0</c:v>
+                <c:pt idx="2">
+                  <c:v>0.15789473684210525</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2571,11 +2595,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="243971280"/>
-        <c:axId val="243969712"/>
+        <c:axId val="187394704"/>
+        <c:axId val="525968952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="243971280"/>
+        <c:axId val="187394704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2618,7 +2642,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243969712"/>
+        <c:crossAx val="525968952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2626,7 +2650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243969712"/>
+        <c:axId val="525968952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2647,7 +2671,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="243971280"/>
+        <c:crossAx val="187394704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2866,11 +2890,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="243968536"/>
-        <c:axId val="243968928"/>
+        <c:axId val="525969736"/>
+        <c:axId val="525970128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="243968536"/>
+        <c:axId val="525969736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2969,7 +2993,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243968928"/>
+        <c:crossAx val="525970128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2977,7 +3001,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243968928"/>
+        <c:axId val="525970128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3084,7 +3108,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243968536"/>
+        <c:crossAx val="525969736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3342,12 +3366,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="243970104"/>
-        <c:axId val="205073872"/>
+        <c:axId val="525970912"/>
+        <c:axId val="525971304"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="243970104"/>
+        <c:axId val="525970912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3384,7 +3408,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205073872"/>
+        <c:crossAx val="525971304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3392,7 +3416,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="205073872"/>
+        <c:axId val="525971304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3440,7 +3464,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243970104"/>
+        <c:crossAx val="525970912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3689,11 +3713,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="342154120"/>
-        <c:axId val="342156080"/>
+        <c:axId val="525972088"/>
+        <c:axId val="525972480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="342154120"/>
+        <c:axId val="525972088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3797,7 +3821,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342156080"/>
+        <c:crossAx val="525972480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3805,7 +3829,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="342156080"/>
+        <c:axId val="525972480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3887,7 +3911,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="342154120"/>
+        <c:crossAx val="525972088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4142,11 +4166,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="342153336"/>
-        <c:axId val="342153728"/>
+        <c:axId val="525973264"/>
+        <c:axId val="525973656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="342153336"/>
+        <c:axId val="525973264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4242,7 +4266,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342153728"/>
+        <c:crossAx val="525973656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4250,7 +4274,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="342153728"/>
+        <c:axId val="525973656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4354,7 +4378,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342153336"/>
+        <c:crossAx val="525973264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7934,13 +7958,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>557211</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7964,13 +7988,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>433387</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>271462</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8062,13 +8086,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>235098</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>270196</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8849,8 +8873,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8864,152 +8888,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="104"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="108"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="107"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="111"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1">
-      <c r="A3" s="105"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="107"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="111"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1">
-      <c r="A4" s="105"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="107"/>
+      <c r="A4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="111"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A5" s="105"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="107"/>
+      <c r="A5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="110"/>
+      <c r="P5" s="111"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="108"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="110"/>
+      <c r="A6" s="112"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="113"/>
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="113"/>
+      <c r="O6" s="113"/>
+      <c r="P6" s="114"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="115" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="113"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="117"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="114"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="116"/>
+      <c r="A8" s="118"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="119"/>
+      <c r="O8" s="119"/>
+      <c r="P8" s="120"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1">
       <c r="A9" s="34"/>
@@ -9023,51 +9047,51 @@
       <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A10" s="190" t="s">
+      <c r="A10" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="191" t="s">
+      <c r="B10" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="192"/>
-      <c r="D10" s="192"/>
-      <c r="E10" s="192"/>
-      <c r="F10" s="192"/>
-      <c r="G10" s="192"/>
-      <c r="H10" s="192"/>
-      <c r="I10" s="193"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
     </row>
     <row r="11" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="128" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="130"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A12" s="194"/>
-      <c r="B12" s="117" t="s">
+      <c r="A12" s="102"/>
+      <c r="B12" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="118"/>
-      <c r="D12" s="117" t="s">
+      <c r="C12" s="122"/>
+      <c r="D12" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="119"/>
-      <c r="F12" s="120" t="s">
+      <c r="E12" s="123"/>
+      <c r="F12" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="119"/>
-      <c r="H12" s="120" t="s">
+      <c r="G12" s="123"/>
+      <c r="H12" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="119"/>
+      <c r="I12" s="123"/>
     </row>
     <row r="13" spans="1:16" ht="26.25" thickBot="1">
       <c r="A13" s="2" t="s">
@@ -9197,15 +9221,15 @@
       <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:16" ht="19.5" thickBot="1">
-      <c r="J18" s="99" t="s">
+      <c r="J18" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="100"/>
-      <c r="N18" s="100"/>
-      <c r="O18" s="100"/>
-      <c r="P18" s="101"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="104"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="104"/>
+      <c r="P18" s="105"/>
     </row>
     <row r="19" spans="1:16" ht="32.25" customHeight="1">
       <c r="J19" s="32" t="s">
@@ -9237,21 +9261,25 @@
       <c r="K20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="201">
+        <f>FMNCONPRO!D33</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="M20" s="201">
+        <f>FMNCONPRO!E33</f>
+        <v>0.45945945945945948</v>
+      </c>
+      <c r="N20" s="201">
+        <f>FMNCONPRO!F33</f>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="O20" s="14">
+        <f>FMNCONPRO!G33</f>
         <v>0</v>
       </c>
-      <c r="M20" s="14">
-        <v>0</v>
-      </c>
-      <c r="N20" s="14">
-        <v>0</v>
-      </c>
-      <c r="O20" s="14">
-        <f>P20</f>
-        <v>1</v>
-      </c>
-      <c r="P20" s="14">
-        <v>1</v>
+      <c r="P20" s="201">
+        <f>FMNCONPRO!H33</f>
+        <v>0.41790594422173372</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="30" customHeight="1">
@@ -9261,22 +9289,11 @@
       <c r="K21" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="14">
-        <v>0</v>
-      </c>
-      <c r="M21" s="14">
-        <v>0</v>
-      </c>
-      <c r="N21" s="14">
-        <v>0</v>
-      </c>
-      <c r="O21" s="14">
-        <f>P21</f>
-        <v>2</v>
-      </c>
-      <c r="P21" s="14">
-        <v>2</v>
-      </c>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
     </row>
     <row r="22" spans="1:16" ht="30" customHeight="1">
       <c r="J22" s="15" t="s">
@@ -9285,22 +9302,11 @@
       <c r="K22" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L22" s="14">
-        <v>0</v>
-      </c>
-      <c r="M22" s="14">
-        <v>0</v>
-      </c>
-      <c r="N22" s="14">
-        <v>0</v>
-      </c>
-      <c r="O22" s="14">
-        <f>P22</f>
-        <v>36</v>
-      </c>
-      <c r="P22" s="14">
-        <v>36</v>
-      </c>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
     </row>
     <row r="23" spans="1:16" ht="30" customHeight="1">
       <c r="J23" s="15" t="s">
@@ -9309,22 +9315,11 @@
       <c r="K23" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="L23" s="14">
-        <v>0</v>
-      </c>
-      <c r="M23" s="14">
-        <v>0</v>
-      </c>
-      <c r="N23" s="14">
-        <v>0</v>
-      </c>
-      <c r="O23" s="14">
-        <f>P23</f>
-        <v>5</v>
-      </c>
-      <c r="P23" s="14">
-        <v>5</v>
-      </c>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
     </row>
     <row r="24" spans="1:16">
       <c r="J24" s="12"/>
@@ -9437,10 +9432,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9458,20 +9453,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="104"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="108"/>
       <c r="M1" s="54"/>
       <c r="N1" s="54"/>
       <c r="O1" s="54"/>
@@ -9480,18 +9475,18 @@
       <c r="R1" s="54"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="107"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="111"/>
       <c r="M2" s="54"/>
       <c r="N2" s="54"/>
       <c r="O2" s="54"/>
@@ -9500,18 +9495,18 @@
       <c r="R2" s="54"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1">
-      <c r="A3" s="105"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="107"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="111"/>
       <c r="M3" s="54"/>
       <c r="N3" s="54"/>
       <c r="O3" s="54"/>
@@ -9520,18 +9515,18 @@
       <c r="R3" s="54"/>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1">
-      <c r="A4" s="105"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="107"/>
+      <c r="A4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="111"/>
       <c r="M4" s="54"/>
       <c r="N4" s="54"/>
       <c r="O4" s="54"/>
@@ -9540,18 +9535,18 @@
       <c r="R4" s="54"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A5" s="105"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="107"/>
+      <c r="A5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="111"/>
       <c r="M5" s="54"/>
       <c r="N5" s="54"/>
       <c r="O5" s="54"/>
@@ -9560,18 +9555,18 @@
       <c r="R5" s="54"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="108"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="110"/>
+      <c r="A6" s="112"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="113"/>
+      <c r="L6" s="114"/>
       <c r="M6" s="54"/>
       <c r="N6" s="54"/>
       <c r="O6" s="54"/>
@@ -9581,16 +9576,16 @@
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:18">
-      <c r="C8" s="124" t="s">
+      <c r="C8" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="125"/>
-      <c r="E8" s="126"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="133"/>
     </row>
     <row r="9" spans="1:18" ht="23.25" customHeight="1" thickBot="1">
-      <c r="C9" s="127"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="129"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="136"/>
     </row>
     <row r="10" spans="1:18" ht="26.25" thickBot="1">
       <c r="C10" s="3" t="s">
@@ -9638,16 +9633,16 @@
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="15" spans="1:18" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A15" s="132" t="s">
+      <c r="A15" s="139" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="133"/>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
       <c r="I15" s="69"/>
       <c r="J15" s="69"/>
     </row>
@@ -9677,7 +9672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="39" thickBot="1">
+    <row r="17" spans="1:10" ht="39" thickBot="1">
       <c r="A17" s="63" t="s">
         <v>2</v>
       </c>
@@ -9705,20 +9700,20 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="20" spans="1:11" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A20" s="132" t="s">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="20" spans="1:10" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A20" s="139" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="133"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="133"/>
-      <c r="H20" s="133"/>
-    </row>
-    <row r="21" spans="1:11" ht="60.75" thickBot="1">
+      <c r="B20" s="140"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+    </row>
+    <row r="21" spans="1:10" ht="60.75" thickBot="1">
       <c r="A21" s="58" t="s">
         <v>79</v>
       </c>
@@ -9744,7 +9739,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="39" thickBot="1">
+    <row r="22" spans="1:10" ht="39" thickBot="1">
       <c r="A22" s="63" t="s">
         <v>2</v>
       </c>
@@ -9772,184 +9767,272 @@
         <v>0.45945945945945948</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="25" spans="1:11" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A25" s="136" t="s">
+    <row r="23" spans="1:10" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A23" s="72"/>
+      <c r="B23" s="197"/>
+      <c r="C23" s="198"/>
+      <c r="D23" s="199"/>
+      <c r="E23" s="199"/>
+      <c r="F23" s="199"/>
+      <c r="G23" s="200"/>
+      <c r="H23" s="200"/>
+    </row>
+    <row r="24" spans="1:10" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A24" s="139" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="137"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="137"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-    </row>
-    <row r="26" spans="1:11" s="52" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A26" s="74" t="s">
+      <c r="B24" s="140"/>
+      <c r="C24" s="140"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="140"/>
+      <c r="H24" s="140"/>
+    </row>
+    <row r="25" spans="1:10" ht="60.75" thickBot="1">
+      <c r="A25" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="75" t="s">
+      <c r="B25" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="75" t="s">
+      <c r="C25" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="75" t="s">
+      <c r="D25" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="100" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="39" thickBot="1">
+      <c r="A26" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="66">
+        <v>6</v>
+      </c>
+      <c r="F26" s="66">
+        <v>38</v>
+      </c>
+      <c r="G26" s="67">
+        <f>E26/F26</f>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="H26" s="68">
+        <f>+G26</f>
+        <v>0.15789473684210525</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="21">
+      <c r="A27" s="72"/>
+      <c r="B27" s="197"/>
+      <c r="C27" s="198"/>
+      <c r="D27" s="199"/>
+      <c r="E27" s="199"/>
+      <c r="F27" s="199"/>
+      <c r="G27" s="200"/>
+      <c r="H27" s="200"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="29" spans="1:10" ht="42.75" customHeight="1" thickBot="1">
+      <c r="A29" s="143" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="144"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="144"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+    </row>
+    <row r="30" spans="1:10" s="52" customFormat="1" ht="54.75" customHeight="1">
+      <c r="A30" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="75" t="s">
+      <c r="E30" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="76" t="s">
+      <c r="F30" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="141"/>
-      <c r="H26" s="142"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-    </row>
-    <row r="27" spans="1:11" ht="36" customHeight="1" thickBot="1">
-      <c r="A27" s="78" t="s">
+      <c r="G30" s="148"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+    </row>
+    <row r="31" spans="1:10" ht="36" customHeight="1" thickBot="1">
+      <c r="A31" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B31" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C31" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D31" s="14">
         <v>7</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E31" s="14">
         <v>17</v>
       </c>
-      <c r="F27" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" s="143"/>
-      <c r="H27" s="144"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="73"/>
-    </row>
-    <row r="28" spans="1:11" ht="45">
-      <c r="A28" s="134" t="s">
+      <c r="F31" s="14">
+        <v>6</v>
+      </c>
+      <c r="G31" s="150"/>
+      <c r="H31" s="151"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="73"/>
+    </row>
+    <row r="32" spans="1:10" ht="24">
+      <c r="A32" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="135"/>
-      <c r="C28" s="135"/>
-      <c r="D28" s="35">
+      <c r="B32" s="142"/>
+      <c r="C32" s="142"/>
+      <c r="D32" s="35">
         <v>11</v>
       </c>
-      <c r="E28" s="35">
+      <c r="E32" s="35">
         <v>37</v>
       </c>
-      <c r="F28" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" s="75" t="s">
+      <c r="F32" s="14">
+        <v>38</v>
+      </c>
+      <c r="G32" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="H28" s="77" t="s">
+      <c r="H32" s="77" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="45.75" thickBot="1">
-      <c r="A29" s="138" t="s">
+    <row r="33" spans="1:20" ht="27" thickBot="1">
+      <c r="A33" s="145" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="139"/>
-      <c r="C29" s="140"/>
-      <c r="D29" s="80">
-        <f>D27/D28</f>
+      <c r="B33" s="146"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="80">
+        <f>D31/D32</f>
         <v>0.63636363636363635</v>
       </c>
-      <c r="E29" s="80">
-        <f>E27/E28</f>
+      <c r="E33" s="80">
+        <f>E31/E32</f>
         <v>0.45945945945945948</v>
       </c>
-      <c r="F29" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="G29" s="82">
-        <f>+J29</f>
+      <c r="F33" s="202">
+        <f>F31/F32</f>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="G33" s="82">
+        <f>+J33</f>
         <v>0</v>
       </c>
-      <c r="H29" s="83">
-        <f>AVERAGE(D29:E29)</f>
-        <v>0.54791154791154795</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="K30" s="79"/>
-    </row>
-    <row r="34" spans="2:20" ht="15.75" thickBot="1"/>
-    <row r="35" spans="2:20" ht="39.75" customHeight="1">
-      <c r="B35" s="130" t="s">
+      <c r="H33" s="83">
+        <f>AVERAGE(D33:F33)</f>
+        <v>0.41790594422173372</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="K34" s="79"/>
+    </row>
+    <row r="38" spans="1:20" ht="15.75" thickBot="1"/>
+    <row r="39" spans="1:20" ht="39.75" customHeight="1">
+      <c r="B39" s="137" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="131"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="T35" s="70"/>
-    </row>
-    <row r="36" spans="2:20" ht="15.75">
-      <c r="B36" s="37" t="s">
+      <c r="C39" s="138"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="T39" s="70"/>
+    </row>
+    <row r="40" spans="1:20" ht="15.75">
+      <c r="B40" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C40" s="37" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="2:20">
-      <c r="B37" s="98" t="s">
+    <row r="41" spans="1:20">
+      <c r="B41" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="57">
-        <f>D29</f>
+      <c r="C41" s="57">
+        <f>D33</f>
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="38" spans="2:20">
-      <c r="B38" s="98" t="s">
+    <row r="42" spans="1:20">
+      <c r="B42" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="57">
-        <f>E27/37</f>
+      <c r="C42" s="57">
+        <f>E31/37</f>
         <v>0.45945945945945948</v>
       </c>
     </row>
-    <row r="39" spans="2:20">
-      <c r="B39" s="98" t="s">
+    <row r="43" spans="1:20">
+      <c r="B43" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="98" t="str">
-        <f>+F27</f>
-        <v>POR REVISAR</v>
+      <c r="C43" s="57">
+        <f>F31/F32</f>
+        <v>0.15789473684210525</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="C8:E9"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
     <mergeCell ref="A1:L6"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="G26:H27"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="G30:H31"/>
+    <mergeCell ref="A24:H24"/>
   </mergeCells>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="iconSet" priority="4">
+  <conditionalFormatting sqref="I31">
+    <cfRule type="iconSet" priority="5">
       <iconSet iconSet="3TrafficLights2" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -9964,7 +10047,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{D77E4CC9-CE3D-4BBD-8FDF-2035D6D65AED}">
+          <x14:cfRule type="iconSet" priority="6" id="{D77E4CC9-CE3D-4BBD-8FDF-2035D6D65AED}">
             <x14:iconSet iconSet="3TrafficLights2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9980,10 +10063,10 @@
               <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I27</xm:sqref>
+          <xm:sqref>I31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{B7B11DFA-2019-4954-A4A8-4D6BB815C7E1}">
+          <x14:cfRule type="iconSet" priority="4" id="{B7B11DFA-2019-4954-A4A8-4D6BB815C7E1}">
             <x14:iconSet iconSet="3TrafficLights2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10002,7 +10085,7 @@
           <xm:sqref>H17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{61D5B203-D035-40E1-B44F-563AE0BAF98A}">
+          <x14:cfRule type="iconSet" priority="2" id="{0766904C-7CC9-4295-A584-6460DB31FA2E}">
             <x14:iconSet iconSet="3TrafficLights2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10018,10 +10101,10 @@
               <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H22</xm:sqref>
+          <xm:sqref>G33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{0766904C-7CC9-4295-A584-6460DB31FA2E}">
+          <x14:cfRule type="iconSet" priority="1" id="{3E234067-282E-4C2B-BE5D-BBC7DE74D15C}">
             <x14:iconSet iconSet="3TrafficLights2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10037,7 +10120,26 @@
               <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>G29</xm:sqref>
+          <xm:sqref>H26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="7" id="{61D5B203-D035-40E1-B44F-563AE0BAF98A}">
+            <x14:iconSet iconSet="3TrafficLights2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>6</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="2"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="1"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H22:H23 H27</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -10049,8 +10151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10062,103 +10164,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="104"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="108"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="107"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="111"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="105"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="107"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="111"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="105"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="107"/>
+      <c r="A4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="111"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="105"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="107"/>
+      <c r="A5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="111"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A6" s="108"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="110"/>
+      <c r="A6" s="112"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="113"/>
+      <c r="L6" s="114"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:12">
-      <c r="A8" s="124" t="s">
+      <c r="A8" s="131" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="126"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="133"/>
     </row>
     <row r="9" spans="1:12" ht="33" customHeight="1" thickBot="1">
-      <c r="A9" s="127"/>
-      <c r="B9" s="128"/>
-      <c r="C9" s="129"/>
+      <c r="A9" s="134"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="136"/>
     </row>
     <row r="10" spans="1:12" ht="26.25" thickBot="1">
       <c r="A10" s="3" t="s">
@@ -10206,18 +10308,18 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="15" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A15" s="136" t="s">
+      <c r="A15" s="143" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="137"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="145"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="152"/>
     </row>
     <row r="16" spans="1:12" ht="30.75" customHeight="1" thickBot="1">
       <c r="A16" s="49" t="s">
@@ -10289,16 +10391,16 @@
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="21" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A21" s="132" t="s">
+      <c r="A21" s="139" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="133"/>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="133"/>
-      <c r="H21" s="133"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
     </row>
     <row r="22" spans="1:10" ht="48.75" thickBot="1">
       <c r="A22" s="58" t="s">
@@ -10356,16 +10458,16 @@
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="27" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A27" s="132" t="s">
+      <c r="A27" s="139" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="133"/>
-      <c r="C27" s="133"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="133"/>
+      <c r="B27" s="140"/>
+      <c r="C27" s="140"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="140"/>
+      <c r="H27" s="140"/>
     </row>
     <row r="28" spans="1:10" ht="48.75" thickBot="1">
       <c r="A28" s="58" t="s">
@@ -10423,16 +10525,16 @@
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="32" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A32" s="136" t="s">
+      <c r="A32" s="143" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="137"/>
-      <c r="C32" s="137"/>
-      <c r="D32" s="137"/>
-      <c r="E32" s="137"/>
-      <c r="F32" s="137"/>
-      <c r="G32" s="137"/>
-      <c r="H32" s="137"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="144"/>
     </row>
     <row r="33" spans="1:8" ht="24.75" thickBot="1">
       <c r="A33" s="74" t="s">
@@ -10453,8 +10555,8 @@
       <c r="F33" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="141"/>
-      <c r="H33" s="142"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="149"/>
     </row>
     <row r="34" spans="1:8" ht="54" customHeight="1" thickBot="1">
       <c r="A34" s="78" t="s">
@@ -10475,15 +10577,15 @@
       <c r="F34" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G34" s="143"/>
-      <c r="H34" s="144"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="151"/>
     </row>
     <row r="35" spans="1:8" ht="30">
-      <c r="A35" s="134" t="s">
+      <c r="A35" s="141" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="135"/>
-      <c r="C35" s="135"/>
+      <c r="B35" s="142"/>
+      <c r="C35" s="142"/>
       <c r="D35" s="35">
         <v>15</v>
       </c>
@@ -10501,11 +10603,11 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="30.75" thickBot="1">
-      <c r="A36" s="138" t="s">
+      <c r="A36" s="145" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="139"/>
-      <c r="C36" s="140"/>
+      <c r="B36" s="146"/>
+      <c r="C36" s="147"/>
       <c r="D36" s="80">
         <f>D34/D35*100</f>
         <v>0</v>
@@ -10528,10 +10630,10 @@
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="39" spans="1:8" ht="36.75" customHeight="1">
-      <c r="A39" s="130" t="s">
+      <c r="A39" s="137" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="131"/>
+      <c r="B39" s="138"/>
     </row>
     <row r="40" spans="1:8" ht="15.75">
       <c r="A40" s="37" t="s">
@@ -10569,16 +10671,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:L6"/>
+    <mergeCell ref="A8:C9"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A27:H27"/>
     <mergeCell ref="A32:H32"/>
     <mergeCell ref="G33:H34"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A1:L6"/>
-    <mergeCell ref="A8:C9"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A27:H27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10691,98 +10793,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="104"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="108"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="107"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="111"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="105"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="107"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="111"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="105"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="107"/>
+      <c r="A4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="111"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="105"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="107"/>
+      <c r="A5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A6" s="108"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="110"/>
+      <c r="A6" s="112"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="114"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:10">
-      <c r="A8" s="124" t="s">
+      <c r="A8" s="131" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="126"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="133"/>
     </row>
     <row r="9" spans="1:10" ht="33" customHeight="1" thickBot="1">
-      <c r="A9" s="127"/>
-      <c r="B9" s="128"/>
-      <c r="C9" s="129"/>
+      <c r="A9" s="134"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="136"/>
     </row>
     <row r="10" spans="1:10" ht="26.25" thickBot="1">
       <c r="A10" s="2" t="s">
@@ -10830,14 +10932,14 @@
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="15" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A15" s="132" t="s">
+      <c r="A15" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="133"/>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
     </row>
     <row r="16" spans="1:10" ht="24.75" thickBot="1">
       <c r="A16" s="58" t="s">
@@ -10882,14 +10984,14 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="22" spans="1:14" ht="19.5" thickBot="1">
-      <c r="A22" s="132" t="s">
+      <c r="A22" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="133"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
+      <c r="B22" s="140"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
     </row>
     <row r="23" spans="1:14" ht="24.75" thickBot="1">
       <c r="A23" s="58" t="s">
@@ -10934,16 +11036,16 @@
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="29" spans="1:14" ht="19.5" thickBot="1">
-      <c r="A29" s="136" t="s">
+      <c r="A29" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="137"/>
-      <c r="C29" s="137"/>
-      <c r="D29" s="137"/>
-      <c r="E29" s="137"/>
-      <c r="F29" s="137"/>
-      <c r="G29" s="137"/>
-      <c r="H29" s="137"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="144"/>
       <c r="L29" s="93"/>
       <c r="M29" s="94"/>
       <c r="N29" s="94"/>
@@ -10967,8 +11069,8 @@
       <c r="F30" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="141"/>
-      <c r="H30" s="142"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="149"/>
       <c r="L30" s="93"/>
       <c r="M30" s="94"/>
       <c r="N30" s="94"/>
@@ -10992,18 +11094,18 @@
       <c r="F31" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G31" s="143"/>
-      <c r="H31" s="144"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="151"/>
       <c r="L31" s="93"/>
       <c r="M31" s="94"/>
       <c r="N31" s="94"/>
     </row>
     <row r="32" spans="1:14" ht="30">
-      <c r="A32" s="134" t="s">
+      <c r="A32" s="141" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="135"/>
-      <c r="C32" s="135"/>
+      <c r="B32" s="142"/>
+      <c r="C32" s="142"/>
       <c r="D32" s="85">
         <v>18</v>
       </c>
@@ -11021,11 +11123,11 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="30.75" thickBot="1">
-      <c r="A33" s="146" t="s">
+      <c r="A33" s="153" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="147"/>
-      <c r="C33" s="148"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="155"/>
       <c r="D33" s="89">
         <v>18</v>
       </c>
@@ -11046,10 +11148,10 @@
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="39" spans="1:8" ht="18.75">
-      <c r="A39" s="130" t="s">
+      <c r="A39" s="137" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="131"/>
+      <c r="B39" s="138"/>
     </row>
     <row r="40" spans="1:8" ht="15.75">
       <c r="A40" s="37" t="s">
@@ -11179,68 +11281,68 @@
   <sheetData>
     <row r="4" spans="3:10" ht="15.75" thickBot="1"/>
     <row r="5" spans="3:10" ht="15.75" thickBot="1">
-      <c r="C5" s="149" t="s">
+      <c r="C5" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="150"/>
-      <c r="E5" s="149" t="s">
+      <c r="D5" s="171"/>
+      <c r="E5" s="170" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="151"/>
-      <c r="G5" s="150"/>
-      <c r="H5" s="152" t="s">
+      <c r="F5" s="172"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="173" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="153"/>
-      <c r="J5" s="154"/>
+      <c r="I5" s="174"/>
+      <c r="J5" s="175"/>
     </row>
     <row r="6" spans="3:10" ht="24" customHeight="1" thickBot="1">
-      <c r="C6" s="155" t="s">
+      <c r="C6" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="156"/>
-      <c r="E6" s="155" t="s">
+      <c r="D6" s="165"/>
+      <c r="E6" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="157"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="158" t="s">
+      <c r="F6" s="166"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="167" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="159"/>
-      <c r="J6" s="160"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="169"/>
     </row>
     <row r="7" spans="3:10" ht="24" customHeight="1" thickBot="1">
-      <c r="C7" s="155" t="s">
+      <c r="C7" s="164" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="156"/>
-      <c r="E7" s="155" t="s">
+      <c r="D7" s="165"/>
+      <c r="E7" s="164" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="157"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="158" t="s">
+      <c r="F7" s="166"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="167" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="159"/>
-      <c r="J7" s="160"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="169"/>
     </row>
     <row r="8" spans="3:10" ht="24" customHeight="1" thickBot="1">
-      <c r="C8" s="155" t="s">
+      <c r="C8" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="156"/>
-      <c r="E8" s="158" t="s">
+      <c r="D8" s="165"/>
+      <c r="E8" s="167" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="159"/>
-      <c r="G8" s="160"/>
-      <c r="H8" s="158" t="s">
+      <c r="F8" s="168"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="167" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="159"/>
-      <c r="J8" s="160"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="169"/>
     </row>
     <row r="9" spans="3:10">
       <c r="C9" s="161"/>
@@ -11253,127 +11355,145 @@
       <c r="J9" s="163"/>
     </row>
     <row r="10" spans="3:10">
-      <c r="C10" s="164" t="s">
+      <c r="C10" s="160" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="165"/>
-      <c r="G10" s="165"/>
-      <c r="H10" s="165"/>
-      <c r="I10" s="166"/>
-      <c r="J10" s="166"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="156"/>
+      <c r="J10" s="156"/>
     </row>
     <row r="11" spans="3:10">
       <c r="C11" s="21"/>
-      <c r="D11" s="167" t="s">
+      <c r="D11" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="167"/>
-      <c r="F11" s="167"/>
-      <c r="G11" s="168" t="s">
+      <c r="E11" s="157"/>
+      <c r="F11" s="157"/>
+      <c r="G11" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="168"/>
-      <c r="I11" s="168"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="158"/>
       <c r="J11" s="21"/>
     </row>
     <row r="12" spans="3:10">
-      <c r="C12" s="166"/>
-      <c r="D12" s="167" t="s">
+      <c r="C12" s="156"/>
+      <c r="D12" s="157" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="167"/>
-      <c r="F12" s="167"/>
-      <c r="G12" s="168" t="s">
+      <c r="E12" s="157"/>
+      <c r="F12" s="157"/>
+      <c r="G12" s="158" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="168"/>
-      <c r="I12" s="168"/>
-      <c r="J12" s="166"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="158"/>
+      <c r="J12" s="156"/>
     </row>
     <row r="13" spans="3:10">
-      <c r="C13" s="166"/>
-      <c r="D13" s="167"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="168"/>
-      <c r="H13" s="168"/>
-      <c r="I13" s="168"/>
-      <c r="J13" s="166"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="156"/>
     </row>
     <row r="14" spans="3:10">
-      <c r="C14" s="166"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="165" t="s">
+      <c r="C14" s="156"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="159" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="165"/>
-      <c r="I14" s="165"/>
-      <c r="J14" s="166"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="156"/>
     </row>
     <row r="15" spans="3:10">
-      <c r="C15" s="166"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="164" t="s">
+      <c r="C15" s="156"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="164"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="166"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="160"/>
+      <c r="J15" s="156"/>
     </row>
     <row r="16" spans="3:10">
-      <c r="C16" s="166"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="168" t="s">
+      <c r="C16" s="156"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="158" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="168"/>
-      <c r="I16" s="168"/>
-      <c r="J16" s="166"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="156"/>
     </row>
     <row r="17" spans="3:10">
-      <c r="C17" s="166"/>
-      <c r="D17" s="167"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="165"/>
-      <c r="H17" s="165"/>
-      <c r="I17" s="165"/>
-      <c r="J17" s="166"/>
+      <c r="C17" s="156"/>
+      <c r="D17" s="157"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="159"/>
+      <c r="J17" s="156"/>
     </row>
     <row r="18" spans="3:10">
-      <c r="C18" s="166"/>
-      <c r="D18" s="167"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="164" t="s">
+      <c r="C18" s="156"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="160" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="164"/>
-      <c r="I18" s="164"/>
-      <c r="J18" s="166"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="156"/>
     </row>
     <row r="19" spans="3:10">
-      <c r="C19" s="166"/>
-      <c r="D19" s="167"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="167"/>
-      <c r="G19" s="168" t="s">
+      <c r="C19" s="156"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="158" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="168"/>
-      <c r="I19" s="168"/>
-      <c r="J19" s="166"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="J12:J19"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
@@ -11387,24 +11507,6 @@
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="G19:I19"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11457,10 +11559,10 @@
     </row>
     <row r="15" spans="2:9" ht="15.75" thickBot="1">
       <c r="G15" s="1"/>
-      <c r="H15" s="117" t="s">
+      <c r="H15" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="119"/>
+      <c r="I15" s="123"/>
     </row>
     <row r="16" spans="2:9" ht="26.25" thickBot="1">
       <c r="G16" s="2" t="s">
@@ -11536,52 +11638,52 @@
   <sheetData>
     <row r="4" spans="3:10" ht="15.75" thickBot="1"/>
     <row r="5" spans="3:10" ht="15.75" thickBot="1">
-      <c r="C5" s="172" t="s">
+      <c r="C5" s="179" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="173"/>
-      <c r="E5" s="172" t="s">
+      <c r="D5" s="180"/>
+      <c r="E5" s="179" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="174"/>
-      <c r="G5" s="173"/>
-      <c r="H5" s="172" t="s">
+      <c r="F5" s="181"/>
+      <c r="G5" s="180"/>
+      <c r="H5" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="174"/>
-      <c r="J5" s="173"/>
+      <c r="I5" s="181"/>
+      <c r="J5" s="180"/>
     </row>
     <row r="6" spans="3:10" ht="30.75" customHeight="1" thickBot="1">
-      <c r="C6" s="169" t="s">
+      <c r="C6" s="176" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="170"/>
-      <c r="E6" s="169" t="s">
+      <c r="D6" s="177"/>
+      <c r="E6" s="176" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="171"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="169" t="s">
+      <c r="F6" s="178"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="176" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="171"/>
-      <c r="J6" s="170"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="177"/>
     </row>
     <row r="7" spans="3:10" ht="38.25" customHeight="1" thickBot="1">
-      <c r="C7" s="169" t="s">
+      <c r="C7" s="176" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="170"/>
-      <c r="E7" s="169" t="s">
+      <c r="D7" s="177"/>
+      <c r="E7" s="176" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="171"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="169" t="s">
+      <c r="F7" s="178"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="176" t="s">
         <v>103</v>
       </c>
-      <c r="I7" s="171"/>
-      <c r="J7" s="170"/>
+      <c r="I7" s="178"/>
+      <c r="J7" s="177"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -11604,7 +11706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -11621,15 +11723,15 @@
   <sheetData>
     <row r="7" spans="5:11" ht="15.75" thickBot="1"/>
     <row r="8" spans="5:11" ht="18.75">
-      <c r="E8" s="175" t="s">
+      <c r="E8" s="182" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="176"/>
-      <c r="G8" s="176"/>
-      <c r="H8" s="176"/>
-      <c r="I8" s="177"/>
-      <c r="J8" s="178"/>
-      <c r="K8" s="179"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="183"/>
+      <c r="H8" s="183"/>
+      <c r="I8" s="184"/>
+      <c r="J8" s="185"/>
+      <c r="K8" s="186"/>
     </row>
     <row r="9" spans="5:11" ht="15.75">
       <c r="E9" s="17" t="s">
@@ -11651,53 +11753,53 @@
       <c r="K9" s="16"/>
     </row>
     <row r="10" spans="5:11" ht="15" customHeight="1">
-      <c r="E10" s="184" t="s">
+      <c r="E10" s="191" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="182" t="s">
+      <c r="F10" s="189" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="186" t="s">
+      <c r="G10" s="193" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="188"/>
-      <c r="I10" s="180"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="179"/>
+      <c r="H10" s="195"/>
+      <c r="I10" s="187"/>
+      <c r="J10" s="185"/>
+      <c r="K10" s="186"/>
     </row>
     <row r="11" spans="5:11" ht="15" customHeight="1">
-      <c r="E11" s="184"/>
-      <c r="F11" s="182"/>
-      <c r="G11" s="186"/>
-      <c r="H11" s="188"/>
-      <c r="I11" s="180"/>
-      <c r="J11" s="178"/>
-      <c r="K11" s="179"/>
+      <c r="E11" s="191"/>
+      <c r="F11" s="189"/>
+      <c r="G11" s="193"/>
+      <c r="H11" s="195"/>
+      <c r="I11" s="187"/>
+      <c r="J11" s="185"/>
+      <c r="K11" s="186"/>
     </row>
     <row r="12" spans="5:11" ht="15.75">
-      <c r="E12" s="184"/>
-      <c r="F12" s="182"/>
-      <c r="G12" s="186"/>
-      <c r="H12" s="188"/>
-      <c r="I12" s="180"/>
+      <c r="E12" s="191"/>
+      <c r="F12" s="189"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="195"/>
+      <c r="I12" s="187"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
     </row>
     <row r="13" spans="5:11" ht="15.75">
-      <c r="E13" s="184"/>
-      <c r="F13" s="182"/>
-      <c r="G13" s="186"/>
-      <c r="H13" s="188"/>
-      <c r="I13" s="180"/>
+      <c r="E13" s="191"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="195"/>
+      <c r="I13" s="187"/>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
     </row>
     <row r="14" spans="5:11" ht="55.5" customHeight="1" thickBot="1">
-      <c r="E14" s="185"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="187"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="181"/>
+      <c r="E14" s="192"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="196"/>
+      <c r="I14" s="188"/>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
     </row>

--- a/Area_de_Proceso-_MA/TABME/TABME_V1.0_2015.xlsx
+++ b/Area_de_Proceso-_MA/TABME/TABME_V1.0_2015.xlsx
@@ -9,17 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Tableros" sheetId="1" r:id="rId1"/>
     <sheet name="FMNCONPRO" sheetId="6" r:id="rId2"/>
     <sheet name="FMVREQM" sheetId="7" r:id="rId3"/>
     <sheet name="FMEXRI" sheetId="8" r:id="rId4"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId5"/>
-    <sheet name="Hoja4" sheetId="4" r:id="rId6"/>
-    <sheet name="Hoja1" sheetId="5" r:id="rId7"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId8"/>
+    <sheet name="FMICIC" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="64">
   <si>
     <t xml:space="preserve">    EJR-SOFT</t>
   </si>
@@ -111,189 +108,6 @@
     <t>&gt;10</t>
   </si>
   <si>
-    <t>Objetivo</t>
-  </si>
-  <si>
-    <t>Métrica</t>
-  </si>
-  <si>
-    <t>Proyecto</t>
-  </si>
-  <si>
-    <t>Valores</t>
-  </si>
-  <si>
-    <t>Número de NC encontradas en la revisión de QA del Producto</t>
-  </si>
-  <si>
-    <t>Proyecto UTP-GPS-ALARM</t>
-  </si>
-  <si>
-    <t>Facilitar completamente el viaje cotidiano y largo que realizan las personas.</t>
-  </si>
-  <si>
-    <t>TABLERO DE CONTROL DE METRICAS DE UTP-GPS-ALARM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volatilidad_de_Req. </t>
-  </si>
-  <si>
-    <t>Porcentaje de Requerimientos cambiados</t>
-  </si>
-  <si>
-    <t>Cantidad de Requerimientos en proceso en el Ciclo de Producción, ya sean Requerimientos que han iniciado en el Ciclo de Producción actual o en uno anterior.</t>
-  </si>
-  <si>
-    <t>Cantidad de Requerimientos que registraron cambios en requerimientos durante el Ciclo de Producción.</t>
-  </si>
-  <si>
-    <t>Nombre del  Artefacto</t>
-  </si>
-  <si>
-    <t>Nomenclatura</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Registro_Metricas.xls</t>
-  </si>
-  <si>
-    <t>Plantilla para el registro de los valores de las métricas.</t>
-  </si>
-  <si>
-    <t>Metricas.xls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plantilla para la actualización de los márgenes de las métricas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tablero_Metricas.xls </t>
-  </si>
-  <si>
-    <t>[SE]-[LI] Tablero_Control</t>
-  </si>
-  <si>
-    <t>Plantilla para la presentación de las métricas mediante semáforos y gráficos.</t>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">          </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Donde:</t>
-    </r>
-  </si>
-  <si>
-    <t>[SE]:</t>
-  </si>
-  <si>
-    <t>Servicio</t>
-  </si>
-  <si>
-    <t>[LI] :</t>
-  </si>
-  <si>
-    <t>Línea</t>
-  </si>
-  <si>
-    <t>Los tres archivos se deberán almacenar en la siguiente ruta:</t>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">          </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Los tres archivos se deberán almacenar en la siguiente ruta:</t>
-    </r>
-  </si>
-  <si>
-    <t>rep_[SE]$\04.Rep_Trabajo_Gestion_[SE]\01.Gestion del Servicio\B.Gestion_Mantenimiento\[Línea]\02.Tablero_Control_MA\</t>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">          </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">La ruta y nomenclatura están de acuerdo a lo indicado en el documento: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>“7.7.2.R01 Lista de items de configuracion_XXX.xls”</t>
-    </r>
-  </si>
-  <si>
-    <t>Donde: XXX es el nombre del servicio:  DYM2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicador de cambio de ítems. </t>
-  </si>
-  <si>
-    <t>Indicador cambios</t>
-  </si>
-  <si>
-    <t>Numero_de_Solicitudes_de_Cambios</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Total de solicitudes de cambio  registrados por ítem (incluidos los Procesos). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total de ítems que tuvieron   cambio dentro del periodo. </t>
-  </si>
-  <si>
-    <t>Ítem</t>
-  </si>
-  <si>
     <t>TABLERO DE METRICAS DE PROCESOS</t>
   </si>
   <si>
@@ -315,24 +129,6 @@
     <t>TABLA DE INDICADORES PPQA</t>
   </si>
   <si>
-    <t>Tablero de Metricas</t>
-  </si>
-  <si>
-    <t>Plantilla  donde se encuentran los parametros para determinar los valores para los semafores correspondientes</t>
-  </si>
-  <si>
-    <t>TABME_VX.X_2015</t>
-  </si>
-  <si>
-    <t>Metricas de Numero de N Conformidades de Producto</t>
-  </si>
-  <si>
-    <t>FMNCONPRO_VX.X_2015</t>
-  </si>
-  <si>
-    <t>Plantilla para determinar los procedimientos necesarios en el uso de metricas para el Numero de N Conformidades de Producto</t>
-  </si>
-  <si>
     <t>POR REVISAR</t>
   </si>
   <si>
@@ -352,12 +148,6 @@
   </si>
   <si>
     <t>SEMAFORO GLOBAL</t>
-  </si>
-  <si>
-    <t>#_Req_en_proceso</t>
-  </si>
-  <si>
-    <t>#_Req_cambiados</t>
   </si>
   <si>
     <t>Volatilidad de Requerimientos</t>
@@ -402,22 +192,34 @@
     <t xml:space="preserve">EXPOSICION </t>
   </si>
   <si>
-    <t>Ficha de Metricas de Exposicion al Riesgo</t>
-  </si>
-  <si>
-    <t>TABME_V#.#_2015</t>
-  </si>
-  <si>
-    <t>FMEXRI_V#.#_2015</t>
-  </si>
-  <si>
-    <t>Plantilla para la elaboracion de Metricas de Exposicion al Riesgo</t>
-  </si>
-  <si>
     <t>EXPOSICION AL RIESGO</t>
   </si>
   <si>
     <t>TABME - TABLERO DE CONTROL DE METRICAS DEL PROYECTO UTP-GPS-ALARM</t>
+  </si>
+  <si>
+    <t>TABLA DE INDICADORES CM</t>
+  </si>
+  <si>
+    <t>Indice de Cambios de ítems de Configuración</t>
+  </si>
+  <si>
+    <t>TABLERO DE METRICAS DE INDICE DE CAMBIOS DE ITEMS DE CONFIGURACIÓN</t>
+  </si>
+  <si>
+    <t>CANTIDAD DE CAMBIOS DE REQUERIMIENTOS</t>
+  </si>
+  <si>
+    <t>NRO DE ITEMS MODIFICADOS</t>
+  </si>
+  <si>
+    <t>NRO DE ITEMS TOTAL</t>
+  </si>
+  <si>
+    <t>Numero de Items Modificados</t>
+  </si>
+  <si>
+    <t>CANTIDAD DE ITEM TOTALES</t>
   </si>
 </sst>
 </file>
@@ -427,7 +229,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,115 +313,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color rgb="FFFFCC00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="26"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Symbol"/>
-      <family val="1"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -642,18 +340,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -713,7 +399,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -764,31 +450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6E6E6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1284,9 +946,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1329,48 +990,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1383,32 +1002,17 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1426,46 +1030,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1486,11 +1090,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1499,41 +1103,41 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="22" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="39" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="22" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1542,16 +1146,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="39" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="22" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="39" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="22" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="39" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="22" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1572,21 +1176,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1664,34 +1295,34 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1700,184 +1331,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="22" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2103,11 +1605,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="525967776"/>
-        <c:axId val="525968168"/>
+        <c:axId val="403361680"/>
+        <c:axId val="403697400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="525967776"/>
+        <c:axId val="403361680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2206,7 +1708,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525968168"/>
+        <c:crossAx val="403697400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2214,7 +1716,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="525968168"/>
+        <c:axId val="403697400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2306,7 +1808,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="525967776"/>
+        <c:crossAx val="403361680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2595,11 +2097,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="187394704"/>
-        <c:axId val="525968952"/>
+        <c:axId val="403770568"/>
+        <c:axId val="403770952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="187394704"/>
+        <c:axId val="403770568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2642,7 +2144,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525968952"/>
+        <c:crossAx val="403770952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2650,7 +2152,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="525968952"/>
+        <c:axId val="403770952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2671,7 +2173,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187394704"/>
+        <c:crossAx val="403770568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2890,11 +2392,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="525969736"/>
-        <c:axId val="525970128"/>
+        <c:axId val="404199096"/>
+        <c:axId val="403930360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="525969736"/>
+        <c:axId val="404199096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2993,7 +2495,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525970128"/>
+        <c:crossAx val="403930360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3001,7 +2503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="525970128"/>
+        <c:axId val="403930360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3108,7 +2610,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525969736"/>
+        <c:crossAx val="404199096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3366,12 +2868,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="525970912"/>
-        <c:axId val="525971304"/>
+        <c:axId val="404286880"/>
+        <c:axId val="401909448"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="525970912"/>
+        <c:axId val="404286880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3408,7 +2910,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525971304"/>
+        <c:crossAx val="401909448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3416,7 +2918,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="525971304"/>
+        <c:axId val="401909448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3464,7 +2966,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525970912"/>
+        <c:crossAx val="404286880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3713,11 +3215,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="525972088"/>
-        <c:axId val="525972480"/>
+        <c:axId val="401910624"/>
+        <c:axId val="401911016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="525972088"/>
+        <c:axId val="401910624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3821,7 +3323,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525972480"/>
+        <c:crossAx val="401911016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3829,7 +3331,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="525972480"/>
+        <c:axId val="401911016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3911,7 +3413,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="525972088"/>
+        <c:crossAx val="401910624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4166,11 +3668,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="525973264"/>
-        <c:axId val="525973656"/>
+        <c:axId val="401911800"/>
+        <c:axId val="401912192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="525973264"/>
+        <c:axId val="401911800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4266,7 +3768,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525973656"/>
+        <c:crossAx val="401912192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4274,7 +3776,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="525973656"/>
+        <c:axId val="401912192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4378,7 +3880,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525973264"/>
+        <c:crossAx val="401911800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4419,6 +3921,841 @@
       <a:solidFill>
         <a:schemeClr val="tx1"/>
       </a:solidFill>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14528213774602677"/>
+          <c:y val="2.3148180136855368E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FMICIC!$B$31:$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>CM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Numero de Items Modificados</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-PE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>FMICIC!$D$30:$F$30</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SETIEMBRE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OCTUBRE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NOVIEMBRE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FMICIC!$D$31:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-41FF-448D-A7F9-4D55DB2741DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="440814768"/>
+        <c:axId val="440815160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="440814768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MES DE REVISION</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="440815160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="440815160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>n CONFORMIDADES QA</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="440814768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>NUMERO DE N CONFORMIDADES QA DE PRODUCTO</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10591666666666667"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FMICIC!$C$39:$C$40</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>TABLERO DE METRICAS DE N CONFORMIDADES QA DE PRODUCTO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>VALORES</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-PE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>FMICIC!$B$41:$B$43</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SETIEMBRE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OCTUBRE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NOVIEMBRE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FMICIC!$C$41:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21621621621621623</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C88-429B-9B94-D693452364F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:axId val="440815944"/>
+        <c:axId val="440816336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="440815944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="440816336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="440816336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="440815944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -4680,6 +5017,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
   <cs:axisTitle>
@@ -7874,6 +8291,1144 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -8557,26 +10112,92 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>557211</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>321252</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>55418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>97014</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPr id="4" name="1 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8590,8 +10211,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7096125" y="1400175"/>
-          <a:ext cx="7496175" cy="3676650"/>
+          <a:off x="321252" y="55418"/>
+          <a:ext cx="1374198" cy="1003621"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8600,6 +10221,93 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>235098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>384496</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="1 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4629150" y="10036323"/>
+          <a:ext cx="1000125" cy="730423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -8888,447 +10596,447 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="108"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="97"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
-      <c r="A2" s="109"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="111"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="100"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1">
-      <c r="A3" s="109"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="111"/>
+      <c r="A3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="100"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1">
-      <c r="A4" s="109"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="111"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="100"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A5" s="109"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="111"/>
+      <c r="A5" s="98"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="100"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="112"/>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
-      <c r="L6" s="113"/>
-      <c r="M6" s="113"/>
-      <c r="N6" s="113"/>
-      <c r="O6" s="113"/>
-      <c r="P6" s="114"/>
+      <c r="A6" s="101"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="103"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1">
-      <c r="A7" s="115" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="116"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="116"/>
-      <c r="P7" s="117"/>
+      <c r="A7" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="106"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="118"/>
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="119"/>
-      <c r="M8" s="119"/>
-      <c r="N8" s="119"/>
-      <c r="O8" s="119"/>
-      <c r="P8" s="120"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="109"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="125" t="s">
+      <c r="B10" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="116"/>
     </row>
     <row r="11" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A11" s="128" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="129"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="130"/>
+      <c r="A11" s="117" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="119"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A12" s="102"/>
-      <c r="B12" s="121" t="s">
+      <c r="A12" s="82"/>
+      <c r="B12" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="122"/>
-      <c r="D12" s="121" t="s">
+      <c r="C12" s="111"/>
+      <c r="D12" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="123"/>
-      <c r="F12" s="124" t="s">
+      <c r="E12" s="112"/>
+      <c r="F12" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="123"/>
-      <c r="H12" s="124" t="s">
+      <c r="G12" s="112"/>
+      <c r="H12" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="123"/>
+      <c r="I12" s="112"/>
     </row>
     <row r="13" spans="1:16" ht="26.25" thickBot="1">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>0</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>1</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>0</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>1</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>0</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>10</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>0</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>0.05</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>2</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>5</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>2</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>5</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>11</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>35</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <v>0.06</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="9">
         <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>6</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>6</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>36</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>100</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <v>0.21</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A17" s="34"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
     </row>
     <row r="18" spans="1:16" ht="19.5" thickBot="1">
-      <c r="J18" s="103" t="s">
-        <v>64</v>
-      </c>
-      <c r="K18" s="104"/>
-      <c r="L18" s="104"/>
-      <c r="M18" s="104"/>
-      <c r="N18" s="104"/>
-      <c r="O18" s="104"/>
-      <c r="P18" s="105"/>
+      <c r="J18" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="94"/>
     </row>
     <row r="19" spans="1:16" ht="32.25" customHeight="1">
-      <c r="J19" s="32" t="s">
+      <c r="J19" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K19" s="33" t="s">
+      <c r="K19" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L19" s="33" t="s">
+      <c r="L19" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="M19" s="33" t="s">
+      <c r="M19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="N19" s="33" t="s">
+      <c r="N19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O19" s="33" t="s">
+      <c r="O19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="P19" s="33" t="s">
+      <c r="P19" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="30" customHeight="1">
-      <c r="J20" s="15" t="s">
+      <c r="J20" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="K20" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="201">
+      <c r="L20" s="90">
         <f>FMNCONPRO!D33</f>
         <v>0.63636363636363635</v>
       </c>
-      <c r="M20" s="201">
+      <c r="M20" s="90">
         <f>FMNCONPRO!E33</f>
         <v>0.45945945945945948</v>
       </c>
-      <c r="N20" s="201">
+      <c r="N20" s="90">
         <f>FMNCONPRO!F33</f>
         <v>0.15789473684210525</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O20" s="13">
         <f>FMNCONPRO!G33</f>
         <v>0</v>
       </c>
-      <c r="P20" s="201">
+      <c r="P20" s="90">
         <f>FMNCONPRO!H33</f>
         <v>0.41790594422173372</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="30" customHeight="1">
-      <c r="J21" s="15" t="s">
+      <c r="J21" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="K21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
     </row>
     <row r="22" spans="1:16" ht="30" customHeight="1">
-      <c r="J22" s="15" t="s">
+      <c r="J22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K22" s="13" t="s">
+      <c r="K22" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
     </row>
     <row r="23" spans="1:16" ht="30" customHeight="1">
-      <c r="J23" s="15" t="s">
+      <c r="J23" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="K23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -9434,7 +11142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
@@ -9453,567 +11161,567 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1">
-      <c r="A2" s="109"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1">
-      <c r="A3" s="109"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
+      <c r="A3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1">
-      <c r="A4" s="109"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A5" s="109"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
+      <c r="A5" s="98"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="112"/>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
+      <c r="A6" s="101"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:18">
-      <c r="C8" s="131" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="132"/>
-      <c r="E8" s="133"/>
+      <c r="C8" s="120" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="121"/>
+      <c r="E8" s="122"/>
     </row>
     <row r="9" spans="1:18" ht="23.25" customHeight="1" thickBot="1">
-      <c r="C9" s="134"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="136"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="125"/>
     </row>
     <row r="10" spans="1:18" ht="26.25" thickBot="1">
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1">
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>0</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>2</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1">
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>6</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="15" spans="1:18" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A15" s="139" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="140"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
+      <c r="A15" s="128" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="129"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="1:18" ht="60.75" thickBot="1">
-      <c r="A16" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="59" t="s">
+      <c r="A16" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="61" t="s">
+      <c r="C16" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="62" t="s">
+      <c r="H16" s="42" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="39" thickBot="1">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="66" t="s">
+      <c r="D17" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="66">
+      <c r="E17" s="46">
         <v>7</v>
       </c>
-      <c r="F17" s="66">
+      <c r="F17" s="46">
         <v>11</v>
       </c>
-      <c r="G17" s="67">
+      <c r="G17" s="47">
         <f>E17/F17</f>
         <v>0.63636363636363635</v>
       </c>
-      <c r="H17" s="68">
+      <c r="H17" s="48">
         <f>+G17</f>
         <v>0.63636363636363635</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="20" spans="1:10" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A20" s="139" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="140"/>
-      <c r="C20" s="140"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
+      <c r="A20" s="128" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="129"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="129"/>
     </row>
     <row r="21" spans="1:10" ht="60.75" thickBot="1">
-      <c r="A21" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="59" t="s">
+      <c r="A21" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="61" t="s">
+      <c r="C21" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="62" t="s">
+      <c r="H21" s="42" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="39" thickBot="1">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="66" t="s">
+      <c r="D22" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="66">
+      <c r="E22" s="46">
         <v>17</v>
       </c>
-      <c r="F22" s="66">
+      <c r="F22" s="46">
         <v>37</v>
       </c>
-      <c r="G22" s="67">
+      <c r="G22" s="47">
         <f>E22/F22</f>
         <v>0.45945945945945948</v>
       </c>
-      <c r="H22" s="68">
+      <c r="H22" s="48">
         <f>+G22</f>
         <v>0.45945945945945948</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A23" s="72"/>
-      <c r="B23" s="197"/>
-      <c r="C23" s="198"/>
-      <c r="D23" s="199"/>
-      <c r="E23" s="199"/>
-      <c r="F23" s="199"/>
-      <c r="G23" s="200"/>
-      <c r="H23" s="200"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
     </row>
     <row r="24" spans="1:10" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A24" s="139" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="140"/>
-      <c r="C24" s="140"/>
-      <c r="D24" s="140"/>
-      <c r="E24" s="140"/>
-      <c r="F24" s="140"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="140"/>
+      <c r="A24" s="128" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="129"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="129"/>
     </row>
     <row r="25" spans="1:10" ht="60.75" thickBot="1">
-      <c r="A25" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="99" t="s">
+      <c r="A25" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="G25" s="61" t="s">
+      <c r="C25" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="100" t="s">
+      <c r="H25" s="80" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="39" thickBot="1">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="66" t="s">
+      <c r="D26" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="66">
+      <c r="E26" s="46">
         <v>6</v>
       </c>
-      <c r="F26" s="66">
+      <c r="F26" s="46">
         <v>38</v>
       </c>
-      <c r="G26" s="67">
+      <c r="G26" s="47">
         <f>E26/F26</f>
         <v>0.15789473684210525</v>
       </c>
-      <c r="H26" s="68">
+      <c r="H26" s="48">
         <f>+G26</f>
         <v>0.15789473684210525</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="21">
-      <c r="A27" s="72"/>
-      <c r="B27" s="197"/>
-      <c r="C27" s="198"/>
-      <c r="D27" s="199"/>
-      <c r="E27" s="199"/>
-      <c r="F27" s="199"/>
-      <c r="G27" s="200"/>
-      <c r="H27" s="200"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="29" spans="1:10" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A29" s="143" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="144"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="144"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-    </row>
-    <row r="30" spans="1:10" s="52" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A30" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="75" t="s">
+      <c r="A29" s="132" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="133"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="133"/>
+      <c r="H29" s="133"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+    </row>
+    <row r="30" spans="1:10" s="32" customFormat="1" ht="54.75" customHeight="1">
+      <c r="A30" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="75" t="s">
+      <c r="C30" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="75" t="s">
+      <c r="E30" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="76" t="s">
+      <c r="F30" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="148"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
     </row>
     <row r="31" spans="1:10" ht="36" customHeight="1" thickBot="1">
-      <c r="A31" s="78" t="s">
+      <c r="A31" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="13">
         <v>7</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="13">
         <v>17</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="13">
         <v>6</v>
       </c>
-      <c r="G31" s="150"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="73"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="140"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="53"/>
     </row>
     <row r="32" spans="1:10" ht="24">
-      <c r="A32" s="141" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" s="142"/>
-      <c r="C32" s="142"/>
-      <c r="D32" s="35">
+      <c r="A32" s="130" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="131"/>
+      <c r="C32" s="131"/>
+      <c r="D32" s="20">
         <v>11</v>
       </c>
-      <c r="E32" s="35">
+      <c r="E32" s="20">
         <v>37</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="13">
         <v>38</v>
       </c>
-      <c r="G32" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="H32" s="77" t="s">
-        <v>80</v>
+      <c r="G32" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="57" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="27" thickBot="1">
-      <c r="A33" s="145" t="s">
-        <v>92</v>
-      </c>
-      <c r="B33" s="146"/>
-      <c r="C33" s="147"/>
-      <c r="D33" s="80">
+      <c r="A33" s="134" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="135"/>
+      <c r="C33" s="136"/>
+      <c r="D33" s="60">
         <f>D31/D32</f>
         <v>0.63636363636363635</v>
       </c>
-      <c r="E33" s="80">
+      <c r="E33" s="60">
         <f>E31/E32</f>
         <v>0.45945945945945948</v>
       </c>
-      <c r="F33" s="202">
+      <c r="F33" s="91">
         <f>F31/F32</f>
         <v>0.15789473684210525</v>
       </c>
-      <c r="G33" s="82">
+      <c r="G33" s="62">
         <f>+J33</f>
         <v>0</v>
       </c>
-      <c r="H33" s="83">
+      <c r="H33" s="63">
         <f>AVERAGE(D33:F33)</f>
         <v>0.41790594422173372</v>
       </c>
     </row>
     <row r="34" spans="1:20">
-      <c r="K34" s="79"/>
+      <c r="K34" s="59"/>
     </row>
     <row r="38" spans="1:20" ht="15.75" thickBot="1"/>
     <row r="39" spans="1:20" ht="39.75" customHeight="1">
-      <c r="B39" s="137" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="138"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="T39" s="70"/>
+      <c r="B39" s="126" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="127"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="T39" s="50"/>
     </row>
     <row r="40" spans="1:20" ht="15.75">
-      <c r="B40" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>67</v>
+      <c r="B40" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:20">
-      <c r="B41" s="98" t="s">
+      <c r="B41" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="57">
+      <c r="C41" s="37">
         <f>D33</f>
         <v>0.63636363636363635</v>
       </c>
     </row>
     <row r="42" spans="1:20">
-      <c r="B42" s="98" t="s">
+      <c r="B42" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="57">
+      <c r="C42" s="37">
         <f>E31/37</f>
         <v>0.45945945945945948</v>
       </c>
     </row>
     <row r="43" spans="1:20">
-      <c r="B43" s="98" t="s">
+      <c r="B43" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="57">
+      <c r="C43" s="37">
         <f>F31/F32</f>
         <v>0.15789473684210525</v>
       </c>
@@ -10151,7 +11859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -10164,523 +11872,523 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="108"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="97"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="109"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="111"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="100"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="109"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="111"/>
+      <c r="A3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="100"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="109"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="111"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="100"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="109"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="111"/>
+      <c r="A5" s="98"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="100"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A6" s="112"/>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
-      <c r="L6" s="114"/>
+      <c r="A6" s="101"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="103"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:12">
-      <c r="A8" s="131" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="133"/>
+      <c r="A8" s="120" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="121"/>
+      <c r="C8" s="122"/>
     </row>
     <row r="9" spans="1:12" ht="33" customHeight="1" thickBot="1">
-      <c r="A9" s="134"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="136"/>
+      <c r="A9" s="123"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="125"/>
     </row>
     <row r="10" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>0</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>11</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>36</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="15" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A15" s="143" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="144"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="152"/>
+      <c r="A15" s="132" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="133"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="141"/>
     </row>
     <row r="16" spans="1:12" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A16" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="50" t="s">
+      <c r="A16" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="53" t="s">
+      <c r="C16" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="56" t="s">
+      <c r="F16" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="I16" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="J16" s="43" t="s">
-        <v>82</v>
+      <c r="G16" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30.75" thickBot="1">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="46">
+      <c r="C17" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="26">
         <v>0</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="26">
         <v>1</v>
       </c>
-      <c r="F17" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="46">
+      <c r="F17" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="26">
         <f>+J17</f>
         <v>25</v>
       </c>
-      <c r="H17" s="47">
+      <c r="H17" s="27">
         <f>(D17+E17)/15*100</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="I17" s="48">
+      <c r="I17" s="28">
         <f>J17</f>
         <v>25</v>
       </c>
-      <c r="J17" s="47">
+      <c r="J17" s="27">
         <f>E17/4*100</f>
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="21" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A21" s="139" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="140"/>
-      <c r="C21" s="140"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="140"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
+      <c r="A21" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="129"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="129"/>
     </row>
     <row r="22" spans="1:10" ht="48.75" thickBot="1">
-      <c r="A22" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="59" t="s">
+      <c r="A22" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="84" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="G22" s="61" t="s">
+      <c r="C22" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="62" t="s">
+      <c r="H22" s="42" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="30.75" thickBot="1">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="66" t="s">
+      <c r="C23" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="66">
+      <c r="E23" s="46">
         <v>0</v>
       </c>
-      <c r="F23" s="66">
+      <c r="F23" s="46">
         <v>15</v>
       </c>
-      <c r="G23" s="97">
+      <c r="G23" s="77">
         <f>E23/F23</f>
         <v>0</v>
       </c>
-      <c r="H23" s="68">
+      <c r="H23" s="48">
         <f>+G23</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="27" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A27" s="139" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="140"/>
-      <c r="C27" s="140"/>
-      <c r="D27" s="140"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="140"/>
-      <c r="G27" s="140"/>
-      <c r="H27" s="140"/>
+      <c r="A27" s="128" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="129"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="129"/>
     </row>
     <row r="28" spans="1:10" ht="48.75" thickBot="1">
-      <c r="A28" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="59" t="s">
+      <c r="A28" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="84" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="G28" s="61" t="s">
+      <c r="C28" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="62" t="s">
+      <c r="H28" s="42" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="30.75" thickBot="1">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="66" t="s">
+      <c r="C29" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="66">
+      <c r="E29" s="46">
         <v>1</v>
       </c>
-      <c r="F29" s="66">
+      <c r="F29" s="46">
         <v>15</v>
       </c>
-      <c r="G29" s="96">
+      <c r="G29" s="76">
         <f>E29/F29*100</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="H29" s="68">
+      <c r="H29" s="48">
         <f>+G29</f>
         <v>6.666666666666667</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="32" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A32" s="143" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="144"/>
-      <c r="C32" s="144"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="144"/>
-      <c r="H32" s="144"/>
+      <c r="A32" s="132" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="133"/>
+      <c r="C32" s="133"/>
+      <c r="D32" s="133"/>
+      <c r="E32" s="133"/>
+      <c r="F32" s="133"/>
+      <c r="G32" s="133"/>
+      <c r="H32" s="133"/>
     </row>
     <row r="33" spans="1:8" ht="24.75" thickBot="1">
-      <c r="A33" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="75" t="s">
+      <c r="A33" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="75" t="s">
+      <c r="C33" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="75" t="s">
+      <c r="E33" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="76" t="s">
+      <c r="F33" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="148"/>
-      <c r="H33" s="149"/>
+      <c r="G33" s="137"/>
+      <c r="H33" s="138"/>
     </row>
     <row r="34" spans="1:8" ht="54" customHeight="1" thickBot="1">
-      <c r="A34" s="78" t="s">
+      <c r="A34" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="64" t="s">
+      <c r="B34" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="14">
+      <c r="C34" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="13">
         <v>0</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="13">
         <v>1</v>
       </c>
-      <c r="F34" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G34" s="150"/>
-      <c r="H34" s="151"/>
+      <c r="F34" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="139"/>
+      <c r="H34" s="140"/>
     </row>
     <row r="35" spans="1:8" ht="30">
-      <c r="A35" s="141" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="142"/>
-      <c r="C35" s="142"/>
-      <c r="D35" s="35">
+      <c r="A35" s="130" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="131"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="20">
         <v>15</v>
       </c>
-      <c r="E35" s="35">
+      <c r="E35" s="20">
         <v>15</v>
       </c>
-      <c r="F35" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G35" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="H35" s="77" t="s">
-        <v>80</v>
+      <c r="F35" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="57" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="30.75" thickBot="1">
-      <c r="A36" s="145" t="s">
-        <v>92</v>
-      </c>
-      <c r="B36" s="146"/>
-      <c r="C36" s="147"/>
-      <c r="D36" s="80">
+      <c r="A36" s="134" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="135"/>
+      <c r="C36" s="136"/>
+      <c r="D36" s="60">
         <f>D34/D35*100</f>
         <v>0</v>
       </c>
-      <c r="E36" s="80">
+      <c r="E36" s="60">
         <f>E34/E35*100</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="F36" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="G36" s="82">
+      <c r="F36" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="62">
         <f>+J36</f>
         <v>0</v>
       </c>
-      <c r="H36" s="83">
+      <c r="H36" s="63">
         <f>AVERAGE(D36:E36)</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="39" spans="1:8" ht="36.75" customHeight="1">
-      <c r="A39" s="137" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="138"/>
+      <c r="A39" s="126" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="127"/>
     </row>
     <row r="40" spans="1:8" ht="15.75">
-      <c r="A40" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>67</v>
+      <c r="A40" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="57">
+      <c r="B41" s="37">
         <f>D36</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="57">
+      <c r="B42" s="37">
         <f>+E36</f>
         <v>6.666666666666667</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="35" t="s">
+      <c r="A43" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="35">
+      <c r="B43" s="20">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="G33:H34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A1:L6"/>
     <mergeCell ref="A8:C9"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="G33:H34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10793,395 +12501,395 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="108"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="109"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="111"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="100"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="109"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="111"/>
+      <c r="A3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="100"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="109"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="111"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="100"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="109"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="111"/>
+      <c r="A5" s="98"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="100"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A6" s="112"/>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="114"/>
+      <c r="A6" s="101"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="103"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:10">
-      <c r="A8" s="131" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="133"/>
+      <c r="A8" s="120" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="121"/>
+      <c r="C8" s="122"/>
     </row>
     <row r="9" spans="1:10" ht="33" customHeight="1" thickBot="1">
-      <c r="A9" s="134"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="136"/>
+      <c r="A9" s="123"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="125"/>
     </row>
     <row r="10" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>0</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>0.06</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>0.21</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="15" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A15" s="139" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="140"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
+      <c r="A15" s="128" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="129"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
     </row>
     <row r="16" spans="1:10" ht="24.75" thickBot="1">
-      <c r="A16" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="86" t="s">
+      <c r="A16" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="84" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="61" t="s">
+      <c r="C16" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="41" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="30.75" thickBot="1">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="55" t="s">
+      <c r="B17" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="66" t="s">
+      <c r="D17" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="87">
+      <c r="E17" s="67">
         <v>18</v>
       </c>
-      <c r="F17" s="88">
+      <c r="F17" s="68">
         <f>+E17</f>
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="22" spans="1:14" ht="19.5" thickBot="1">
-      <c r="A22" s="139" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" s="140"/>
-      <c r="C22" s="140"/>
-      <c r="D22" s="140"/>
-      <c r="E22" s="140"/>
-      <c r="F22" s="140"/>
+      <c r="A22" s="128" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="129"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="129"/>
     </row>
     <row r="23" spans="1:14" ht="24.75" thickBot="1">
-      <c r="A23" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="86" t="s">
+      <c r="A23" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="84" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="61" t="s">
+      <c r="C23" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="41" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="30.75" thickBot="1">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="55" t="s">
+      <c r="B24" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="66" t="s">
+      <c r="D24" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="87">
+      <c r="E24" s="67">
         <v>15</v>
       </c>
-      <c r="F24" s="88">
+      <c r="F24" s="68">
         <f>+E24</f>
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1"/>
     <row r="29" spans="1:14" ht="19.5" thickBot="1">
-      <c r="A29" s="143" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="144"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="144"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="94"/>
-      <c r="N29" s="94"/>
+      <c r="A29" s="132" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="133"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="133"/>
+      <c r="H29" s="133"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="74"/>
     </row>
     <row r="30" spans="1:14" ht="24.75" thickBot="1">
-      <c r="A30" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="75" t="s">
+      <c r="A30" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="75" t="s">
+      <c r="C30" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="75" t="s">
+      <c r="E30" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="76" t="s">
+      <c r="F30" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="148"/>
-      <c r="H30" s="149"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="94"/>
-      <c r="N30" s="94"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="138"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="74"/>
     </row>
     <row r="31" spans="1:14" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A31" s="78" t="s">
+      <c r="A31" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="55" t="s">
+      <c r="B31" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="13">
         <v>18</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="13">
         <v>15</v>
       </c>
-      <c r="F31" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31" s="150"/>
-      <c r="H31" s="151"/>
-      <c r="L31" s="93"/>
-      <c r="M31" s="94"/>
-      <c r="N31" s="94"/>
+      <c r="F31" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="139"/>
+      <c r="H31" s="140"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
     </row>
     <row r="32" spans="1:14" ht="30">
-      <c r="A32" s="141" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32" s="142"/>
-      <c r="C32" s="142"/>
-      <c r="D32" s="85">
+      <c r="A32" s="130" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="131"/>
+      <c r="C32" s="131"/>
+      <c r="D32" s="65">
         <v>18</v>
       </c>
-      <c r="E32" s="85">
+      <c r="E32" s="65">
         <v>15</v>
       </c>
-      <c r="F32" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G32" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="H32" s="77" t="s">
-        <v>80</v>
+      <c r="F32" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="57" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="30.75" thickBot="1">
-      <c r="A33" s="153" t="s">
-        <v>92</v>
-      </c>
-      <c r="B33" s="154"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="89">
+      <c r="A33" s="142" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="143"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="69">
         <v>18</v>
       </c>
-      <c r="E33" s="89">
+      <c r="E33" s="69">
         <v>15</v>
       </c>
-      <c r="F33" s="90" t="s">
-        <v>77</v>
-      </c>
-      <c r="G33" s="92">
+      <c r="F33" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="72">
         <f>+H33</f>
         <v>16.5</v>
       </c>
-      <c r="H33" s="91">
+      <c r="H33" s="71">
         <f>AVERAGE(D33:E33)</f>
         <v>16.5</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="39" spans="1:8" ht="18.75">
-      <c r="A39" s="137" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="138"/>
+      <c r="A39" s="126" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="127"/>
     </row>
     <row r="40" spans="1:8" ht="15.75">
-      <c r="A40" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>67</v>
+      <c r="A40" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="85" t="s">
+      <c r="A41" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="95">
+      <c r="B41" s="75">
         <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="85" t="s">
+      <c r="A42" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="95">
+      <c r="B42" s="75">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="85" t="s">
+      <c r="A43" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="95">
+      <c r="B43" s="75">
         <v>0</v>
       </c>
     </row>
@@ -11267,616 +12975,756 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:J19"/>
+  <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="4" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="7" width="8.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:10" ht="15.75" thickBot="1"/>
-    <row r="5" spans="3:10" ht="15.75" thickBot="1">
-      <c r="C5" s="170" t="s">
+    <row r="1" spans="1:19" ht="15" customHeight="1">
+      <c r="A1" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1">
+      <c r="A2" s="98"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1">
+      <c r="A3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1">
+      <c r="A4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A5" s="98"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="101"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" thickBot="1"/>
+    <row r="8" spans="1:19">
+      <c r="C8" s="120" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="121"/>
+      <c r="E8" s="122"/>
+    </row>
+    <row r="9" spans="1:19" ht="23.25" customHeight="1" thickBot="1">
+      <c r="C9" s="123"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="125"/>
+    </row>
+    <row r="10" spans="1:19" ht="26.25" thickBot="1">
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" thickBot="1">
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" thickBot="1">
+      <c r="C12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" thickBot="1">
+      <c r="C13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="4">
+        <v>6</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" thickBot="1"/>
+    <row r="15" spans="1:19" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A15" s="128" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="129"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+    </row>
+    <row r="16" spans="1:19" ht="48.75" thickBot="1">
+      <c r="A16" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="51.75" thickBot="1">
+      <c r="A17" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="46">
+        <v>0</v>
+      </c>
+      <c r="F17" s="46">
+        <v>0</v>
+      </c>
+      <c r="G17" s="46">
+        <v>11</v>
+      </c>
+      <c r="H17" s="47">
+        <f>F17/G17</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="48">
+        <f>+H17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="20" spans="1:11" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A20" s="128" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="129"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="129"/>
+    </row>
+    <row r="21" spans="1:11" ht="48.75" customHeight="1" thickBot="1">
+      <c r="A21" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="51.75" thickBot="1">
+      <c r="A22" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="46">
+        <v>1</v>
+      </c>
+      <c r="F22" s="46">
+        <v>8</v>
+      </c>
+      <c r="G22" s="46">
+        <v>37</v>
+      </c>
+      <c r="H22" s="47">
+        <f>F22/G22</f>
+        <v>0.21621621621621623</v>
+      </c>
+      <c r="I22" s="48">
+        <f>+H22</f>
+        <v>0.21621621621621623</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="33.75" customHeight="1" thickBot="1">
+      <c r="A23" s="52"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
+    </row>
+    <row r="24" spans="1:11" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A24" s="128" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="129"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="129"/>
+    </row>
+    <row r="25" spans="1:11" ht="48.75" customHeight="1" thickBot="1">
+      <c r="A25" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="51.75" thickBot="1">
+      <c r="A26" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="46">
+        <v>0</v>
+      </c>
+      <c r="F26" s="46">
+        <v>0</v>
+      </c>
+      <c r="G26" s="46">
         <v>38</v>
       </c>
-      <c r="D5" s="171"/>
-      <c r="E5" s="170" t="s">
+      <c r="H26" s="47">
+        <f>F26/G26</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="48">
+        <f>+H26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="21">
+      <c r="A27" s="52"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="29" spans="1:11" ht="42.75" customHeight="1" thickBot="1">
+      <c r="A29" s="128" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="129"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="133"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="129"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+    </row>
+    <row r="30" spans="1:11" s="32" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A30" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="147" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="147"/>
+      <c r="H30" s="137"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+    </row>
+    <row r="31" spans="1:11" ht="39" customHeight="1" thickBot="1">
+      <c r="A31" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="13">
+        <v>0</v>
+      </c>
+      <c r="E31" s="13">
+        <v>8</v>
+      </c>
+      <c r="F31" s="146">
+        <v>0</v>
+      </c>
+      <c r="G31" s="146"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="53"/>
+    </row>
+    <row r="32" spans="1:11" ht="28.5" customHeight="1">
+      <c r="A32" s="145" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="146"/>
+      <c r="C32" s="146"/>
+      <c r="D32" s="83">
+        <v>11</v>
+      </c>
+      <c r="E32" s="83">
+        <v>37</v>
+      </c>
+      <c r="F32" s="146">
+        <v>38</v>
+      </c>
+      <c r="G32" s="146"/>
+      <c r="H32" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="172"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="173" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="174"/>
-      <c r="J5" s="175"/>
-    </row>
-    <row r="6" spans="3:10" ht="24" customHeight="1" thickBot="1">
-      <c r="C6" s="164" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="165"/>
-      <c r="E6" s="164" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="166"/>
-      <c r="G6" s="165"/>
-      <c r="H6" s="167" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="168"/>
-      <c r="J6" s="169"/>
-    </row>
-    <row r="7" spans="3:10" ht="24" customHeight="1" thickBot="1">
-      <c r="C7" s="164" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="165"/>
-      <c r="E7" s="164" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="166"/>
-      <c r="G7" s="165"/>
-      <c r="H7" s="167" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="168"/>
-      <c r="J7" s="169"/>
-    </row>
-    <row r="8" spans="3:10" ht="24" customHeight="1" thickBot="1">
-      <c r="C8" s="164" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="165"/>
-      <c r="E8" s="167" t="s">
+      <c r="I32" s="57" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="27" thickBot="1">
+      <c r="A33" s="134" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="168"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="167" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="168"/>
-      <c r="J8" s="169"/>
-    </row>
-    <row r="9" spans="3:10">
-      <c r="C9" s="161"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="162"/>
-      <c r="I9" s="163"/>
-      <c r="J9" s="163"/>
-    </row>
-    <row r="10" spans="3:10">
-      <c r="C10" s="160" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="156"/>
-    </row>
-    <row r="11" spans="3:10">
-      <c r="C11" s="21"/>
-      <c r="D11" s="157" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="157"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="158" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="21"/>
-    </row>
-    <row r="12" spans="3:10">
-      <c r="C12" s="156"/>
-      <c r="D12" s="157" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="157"/>
-      <c r="F12" s="157"/>
-      <c r="G12" s="158" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="158"/>
-      <c r="I12" s="158"/>
-      <c r="J12" s="156"/>
-    </row>
-    <row r="13" spans="3:10">
-      <c r="C13" s="156"/>
-      <c r="D13" s="157"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="156"/>
-    </row>
-    <row r="14" spans="3:10">
-      <c r="C14" s="156"/>
-      <c r="D14" s="157"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="159" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="156"/>
-    </row>
-    <row r="15" spans="3:10">
-      <c r="C15" s="156"/>
-      <c r="D15" s="157"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="160" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="160"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="156"/>
-    </row>
-    <row r="16" spans="3:10">
-      <c r="C16" s="156"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="158" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="156"/>
-    </row>
-    <row r="17" spans="3:10">
-      <c r="C17" s="156"/>
-      <c r="D17" s="157"/>
-      <c r="E17" s="157"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="156"/>
-    </row>
-    <row r="18" spans="3:10">
-      <c r="C18" s="156"/>
-      <c r="D18" s="157"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="160" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="160"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="156"/>
-    </row>
-    <row r="19" spans="3:10">
-      <c r="C19" s="156"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="158" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="156"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="136"/>
+      <c r="D33" s="60">
+        <f>D31/D32</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="60">
+        <f>E31/E32</f>
+        <v>0.21621621621621623</v>
+      </c>
+      <c r="F33" s="148">
+        <f>F31/F32</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="148"/>
+      <c r="H33" s="62">
+        <f>+K33</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="63">
+        <f>AVERAGE(D33:F33)</f>
+        <v>7.2072072072072071E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="L34" s="59"/>
+    </row>
+    <row r="38" spans="1:21" ht="15.75" thickBot="1"/>
+    <row r="39" spans="1:21" ht="39.75" customHeight="1">
+      <c r="B39" s="126" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="127"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="U39" s="50"/>
+    </row>
+    <row r="40" spans="1:21" ht="15.75">
+      <c r="B40" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="B41" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="37">
+        <f>D33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="B42" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="37">
+        <f>E31/37</f>
+        <v>0.21621621621621623</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="B43" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="37">
+        <f>F31/F32</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="J12:J19"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="D12:F19"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
+  <mergeCells count="14">
+    <mergeCell ref="H30:I31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A1:M6"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A29:I29"/>
   </mergeCells>
+  <conditionalFormatting sqref="J31">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="3TrafficLights2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:I20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="46" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B5" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B6" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B7" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="15.75">
-      <c r="B8" s="24"/>
-    </row>
-    <row r="9" spans="2:9" ht="15.75">
-      <c r="B9" s="24"/>
-    </row>
-    <row r="15" spans="2:9" ht="15.75" thickBot="1">
-      <c r="G15" s="1"/>
-      <c r="H15" s="121" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="123"/>
-    </row>
-    <row r="16" spans="2:9" ht="26.25" thickBot="1">
-      <c r="G16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="7:9" ht="15.75" thickBot="1">
-      <c r="G17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="7:9" ht="15.75" thickBot="1">
-      <c r="G18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="5">
-        <v>2</v>
-      </c>
-      <c r="I18" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="7:9" ht="15.75" thickBot="1">
-      <c r="G19" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="5">
-        <v>6</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="7:9">
-      <c r="G20" s="29"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H15:I15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:J7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:J7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="4" width="5.85546875" customWidth="1"/>
-    <col min="6" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="3:10" ht="15.75" thickBot="1"/>
-    <row r="5" spans="3:10" ht="15.75" thickBot="1">
-      <c r="C5" s="179" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="180"/>
-      <c r="E5" s="179" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="181"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="179" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="181"/>
-      <c r="J5" s="180"/>
-    </row>
-    <row r="6" spans="3:10" ht="30.75" customHeight="1" thickBot="1">
-      <c r="C6" s="176" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="177"/>
-      <c r="E6" s="176" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" s="178"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="176" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="178"/>
-      <c r="J6" s="177"/>
-    </row>
-    <row r="7" spans="3:10" ht="38.25" customHeight="1" thickBot="1">
-      <c r="C7" s="176" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="177"/>
-      <c r="E7" s="176" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="178"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="176" t="s">
-        <v>103</v>
-      </c>
-      <c r="I7" s="178"/>
-      <c r="J7" s="177"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:K35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="49.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="39" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="5:11" ht="15.75" thickBot="1"/>
-    <row r="8" spans="5:11" ht="18.75">
-      <c r="E8" s="182" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="183"/>
-      <c r="G8" s="183"/>
-      <c r="H8" s="183"/>
-      <c r="I8" s="184"/>
-      <c r="J8" s="185"/>
-      <c r="K8" s="186"/>
-    </row>
-    <row r="9" spans="5:11" ht="15.75">
-      <c r="E9" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-    </row>
-    <row r="10" spans="5:11" ht="15" customHeight="1">
-      <c r="E10" s="191" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="189" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="193" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="195"/>
-      <c r="I10" s="187"/>
-      <c r="J10" s="185"/>
-      <c r="K10" s="186"/>
-    </row>
-    <row r="11" spans="5:11" ht="15" customHeight="1">
-      <c r="E11" s="191"/>
-      <c r="F11" s="189"/>
-      <c r="G11" s="193"/>
-      <c r="H11" s="195"/>
-      <c r="I11" s="187"/>
-      <c r="J11" s="185"/>
-      <c r="K11" s="186"/>
-    </row>
-    <row r="12" spans="5:11" ht="15.75">
-      <c r="E12" s="191"/>
-      <c r="F12" s="189"/>
-      <c r="G12" s="193"/>
-      <c r="H12" s="195"/>
-      <c r="I12" s="187"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-    </row>
-    <row r="13" spans="5:11" ht="15.75">
-      <c r="E13" s="191"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="195"/>
-      <c r="I13" s="187"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-    </row>
-    <row r="14" spans="5:11" ht="55.5" customHeight="1" thickBot="1">
-      <c r="E14" s="192"/>
-      <c r="F14" s="190"/>
-      <c r="G14" s="194"/>
-      <c r="H14" s="196"/>
-      <c r="I14" s="188"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1"/>
-    <row r="19" spans="1:5" ht="32.25" thickBot="1">
-      <c r="C19" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="39" thickBot="1">
-      <c r="C20" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="45.75" thickBot="1">
-      <c r="C21" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1">
-      <c r="A32" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="38.25" customHeight="1">
-      <c r="A33" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="30" customHeight="1">
-      <c r="A34" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="I10:I14"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="E10:E14"/>
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="H10:H14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="5" id="{E69DA7A2-E926-4C7D-828C-71F6858F5A5C}">
+            <x14:iconSet iconSet="3TrafficLights2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>6</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="2"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="1"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{86BDC164-8F58-4C78-A362-C0EB70FBF0E9}">
+            <x14:iconSet iconSet="3TrafficLights2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>6</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="2"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="1"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{44D61DE1-DB14-4399-AA12-3E732A1D0D2F}">
+            <x14:iconSet iconSet="3TrafficLights2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>6</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="2"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="1"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{1DD96A15-A24A-4DE3-9FD9-40D05ECCCD4E}">
+            <x14:iconSet iconSet="3TrafficLights2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>6</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="2"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="1"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="6" id="{CAA3DA5F-84D4-42D2-9E29-2B5389DABFF7}">
+            <x14:iconSet iconSet="3TrafficLights2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>6</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="2"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="1"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I22:I23 I27</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Area_de_Proceso-_MA/TABME/TABME_V1.0_2015.xlsx
+++ b/Area_de_Proceso-_MA/TABME/TABME_V1.0_2015.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jleonardo\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_MA\TABME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thefa\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_MA\TABME\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Tableros" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="FMEXRI" sheetId="8" r:id="rId4"/>
     <sheet name="FMICIC" sheetId="10" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="68">
   <si>
     <t xml:space="preserve">    EJR-SOFT</t>
   </si>
@@ -221,11 +221,23 @@
   <si>
     <t>CANTIDAD DE ITEM TOTALES</t>
   </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>&gt;0.5</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -946,7 +958,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1380,6 +1392,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="22" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1401,7 +1416,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1448,7 +1463,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1521,7 +1536,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-PE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -1532,9 +1547,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1588,7 +1602,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-41FF-448D-A7F9-4D55DB2741DF}"/>
             </c:ext>
@@ -1641,7 +1655,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1667,7 +1680,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-PE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1705,7 +1718,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="403697400"/>
@@ -1774,7 +1787,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1800,7 +1812,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-PE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1862,7 +1874,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1874,7 +1886,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1946,7 +1958,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2015,7 +2027,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-PE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -2026,9 +2038,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2081,7 +2092,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6C88-429B-9B94-D693452364F6}"/>
             </c:ext>
@@ -2141,7 +2152,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="403770952"/>
@@ -2224,7 +2235,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2236,7 +2247,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2306,7 +2317,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2376,7 +2387,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1CE4-4D1A-8C0D-A8986C73C9BB}"/>
             </c:ext>
@@ -2454,7 +2465,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-PE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2492,7 +2503,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="403930360"/>
@@ -2575,7 +2586,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-PE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2607,7 +2618,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="404199096"/>
@@ -2653,7 +2664,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2680,7 +2691,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2692,7 +2703,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2739,7 +2750,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2852,7 +2863,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C2EA-4E10-B8DC-B0F15286BC26}"/>
             </c:ext>
@@ -2907,7 +2918,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="401909448"/>
@@ -2963,7 +2974,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="404286880"/>
@@ -3001,7 +3012,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3013,7 +3024,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3078,7 +3089,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3137,7 +3148,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-PE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -3148,7 +3159,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -3198,7 +3209,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-50BD-4EF6-9D79-6DA9D6248718}"/>
             </c:ext>
@@ -3282,7 +3293,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-PE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3320,7 +3331,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="401911016"/>
@@ -3405,7 +3416,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-PE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3464,7 +3475,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3476,7 +3487,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3553,7 +3564,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3652,7 +3663,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9209-487D-ADE6-3545591C93C9}"/>
             </c:ext>
@@ -3728,7 +3739,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-PE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3765,7 +3776,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="401912192"/>
@@ -3846,7 +3857,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-PE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3877,7 +3888,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="401911800"/>
@@ -3931,7 +3942,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3943,7 +3954,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3990,7 +4001,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4063,7 +4074,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-PE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -4074,7 +4085,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -4130,7 +4141,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-41FF-448D-A7F9-4D55DB2741DF}"/>
             </c:ext>
@@ -4209,7 +4220,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-PE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4247,7 +4258,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="440815160"/>
@@ -4342,7 +4353,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-PE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4404,7 +4415,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4416,7 +4427,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -4488,7 +4499,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-PE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4557,7 +4568,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-PE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -4568,9 +4579,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4623,7 +4633,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6C88-429B-9B94-D693452364F6}"/>
             </c:ext>
@@ -4683,7 +4693,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="440816336"/>
@@ -4766,7 +4776,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-PE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10581,8 +10591,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10843,8 +10853,8 @@
       <c r="D14" s="4">
         <v>0</v>
       </c>
-      <c r="E14" s="4">
-        <v>1</v>
+      <c r="E14" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F14" s="4">
         <v>0</v>
@@ -10869,11 +10879,11 @@
       <c r="C15" s="4">
         <v>5</v>
       </c>
-      <c r="D15" s="4">
-        <v>2</v>
+      <c r="D15" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="E15" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F15" s="4">
         <v>11</v>
@@ -10898,11 +10908,11 @@
       <c r="C16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="4">
-        <v>6</v>
+      <c r="D16" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="F16" s="4">
         <v>36</v>
@@ -10997,11 +11007,26 @@
       <c r="K21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
+      <c r="L21" s="90">
+        <f>FMICIC!D33</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="90">
+        <f>FMICIC!E33</f>
+        <v>0.21621621621621623</v>
+      </c>
+      <c r="N21" s="90">
+        <f>FMICIC!F33</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="13">
+        <f>FMICIC!H33</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="90">
+        <f>FMICIC!I33</f>
+        <v>7.2072072072072071E-2</v>
+      </c>
     </row>
     <row r="22" spans="1:16" ht="30" customHeight="1">
       <c r="J22" s="14" t="s">
@@ -11010,11 +11035,26 @@
       <c r="K22" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
+      <c r="L22" s="90">
+        <f>FMVREQM!D36</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="90">
+        <f>FMVREQM!E36</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="N22" s="13" t="str">
+        <f>FMVREQM!F36</f>
+        <v>POR REVISAR</v>
+      </c>
+      <c r="O22" s="13">
+        <f>FMVREQM!G36</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="90">
+        <f>FMVREQM!H36</f>
+        <v>3.3333333333333335</v>
+      </c>
     </row>
     <row r="23" spans="1:16" ht="30" customHeight="1">
       <c r="J23" s="14" t="s">
@@ -11023,11 +11063,26 @@
       <c r="K23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
+      <c r="L23" s="149">
+        <f>FMEXRI!D33</f>
+        <v>18</v>
+      </c>
+      <c r="M23" s="149">
+        <f>FMEXRI!E33</f>
+        <v>15</v>
+      </c>
+      <c r="N23" s="13" t="str">
+        <f>FMEXRI!F33</f>
+        <v>POR REVISAR</v>
+      </c>
+      <c r="O23" s="90">
+        <f>FMEXRI!G33</f>
+        <v>16.5</v>
+      </c>
+      <c r="P23" s="90">
+        <f>FMEXRI!H33</f>
+        <v>16.5</v>
+      </c>
     </row>
     <row r="24" spans="1:16">
       <c r="J24" s="11"/>
@@ -11859,7 +11914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -12501,8 +12556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -12977,8 +13032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -13606,12 +13661,12 @@
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A29:I29"/>
     <mergeCell ref="A1:M6"/>
     <mergeCell ref="C8:E9"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="A20:I20"/>
     <mergeCell ref="A24:I24"/>
-    <mergeCell ref="A29:I29"/>
   </mergeCells>
   <conditionalFormatting sqref="J31">
     <cfRule type="iconSet" priority="4">

--- a/Area_de_Proceso-_MA/TABME/TABME_V1.0_2015.xlsx
+++ b/Area_de_Proceso-_MA/TABME/TABME_V1.0_2015.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thefa\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_MA\TABME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Perochena\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_MA\TABME\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tableros" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="FMEXRI" sheetId="8" r:id="rId4"/>
     <sheet name="FMICIC" sheetId="10" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="69">
   <si>
     <t xml:space="preserve">    EJR-SOFT</t>
   </si>
@@ -233,11 +233,14 @@
   <si>
     <t>&gt;2</t>
   </si>
+  <si>
+    <t>i</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -958,7 +961,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1223,6 +1226,15 @@
     <xf numFmtId="2" fontId="22" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1394,8 +1406,11 @@
     <xf numFmtId="2" fontId="22" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1416,7 +1431,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1463,7 +1478,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1536,7 +1551,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -1547,7 +1562,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1602,7 +1617,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-41FF-448D-A7F9-4D55DB2741DF}"/>
             </c:ext>
@@ -1619,11 +1634,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="403361680"/>
-        <c:axId val="403697400"/>
+        <c:axId val="161120880"/>
+        <c:axId val="161121440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="403361680"/>
+        <c:axId val="161120880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1680,7 +1695,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-PE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1718,10 +1733,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403697400"/>
+        <c:crossAx val="161121440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1729,7 +1744,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="403697400"/>
+        <c:axId val="161121440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1812,7 +1827,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-PE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1820,7 +1835,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="403361680"/>
+        <c:crossAx val="161120880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1874,7 +1889,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1886,7 +1901,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1958,7 +1973,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2027,7 +2042,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -2038,7 +2053,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2092,7 +2107,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6C88-429B-9B94-D693452364F6}"/>
             </c:ext>
@@ -2108,11 +2123,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="403770568"/>
-        <c:axId val="403770952"/>
+        <c:axId val="161123680"/>
+        <c:axId val="161124240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="403770568"/>
+        <c:axId val="161123680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2152,10 +2167,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403770952"/>
+        <c:crossAx val="161124240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2163,7 +2178,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="403770952"/>
+        <c:axId val="161124240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2184,7 +2199,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="403770568"/>
+        <c:crossAx val="161123680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2235,7 +2250,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2247,7 +2262,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2317,7 +2332,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2359,35 +2374,41 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>FMVREQM!$D$33:$E$33</c:f>
+              <c:f>FMVREQM!$D$40:$F$40</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>SETIEMBRE</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>OCTUBRE</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>NOVIEMBRE</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FMVREQM!$D$34:$E$34</c:f>
+              <c:f>FMVREQM!$D$41:$F$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1CE4-4D1A-8C0D-A8986C73C9BB}"/>
             </c:ext>
@@ -2403,11 +2424,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="404199096"/>
-        <c:axId val="403930360"/>
+        <c:axId val="161127040"/>
+        <c:axId val="161127600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="404199096"/>
+        <c:axId val="161127040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2465,7 +2486,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-PE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2503,10 +2524,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403930360"/>
+        <c:crossAx val="161127600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2514,7 +2535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="403930360"/>
+        <c:axId val="161127600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2586,7 +2607,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-PE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2618,10 +2639,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404199096"/>
+        <c:crossAx val="161127040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2664,7 +2685,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2691,7 +2712,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2703,7 +2724,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2750,7 +2771,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2805,7 +2826,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>FMVREQM!$B$39:$B$40</c:f>
+              <c:f>FMVREQM!$B$46:$B$47</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2830,7 +2851,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>FMVREQM!$A$41:$A$43</c:f>
+              <c:f>FMVREQM!$A$48:$A$50</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2847,7 +2868,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FMVREQM!$B$41:$B$43</c:f>
+              <c:f>FMVREQM!$B$48:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2863,7 +2884,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C2EA-4E10-B8DC-B0F15286BC26}"/>
             </c:ext>
@@ -2879,12 +2900,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="404286880"/>
-        <c:axId val="401909448"/>
+        <c:axId val="161475344"/>
+        <c:axId val="161474784"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="404286880"/>
+        <c:axId val="161475344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2918,10 +2939,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401909448"/>
+        <c:crossAx val="161474784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2929,7 +2950,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="401909448"/>
+        <c:axId val="161474784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2974,10 +2995,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404286880"/>
+        <c:crossAx val="161475344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3012,7 +3033,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3024,7 +3045,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3089,7 +3110,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3148,7 +3169,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -3159,7 +3180,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -3181,35 +3202,41 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>FMEXRI!$D$30:$E$30</c:f>
+              <c:f>FMEXRI!$D$35:$F$35</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>SETIEMBRE</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>OCTUBRE</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>NOVIEMBRE</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FMEXRI!$D$31:$E$31</c:f>
+              <c:f>FMEXRI!$D$36:$F$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>15</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-50BD-4EF6-9D79-6DA9D6248718}"/>
             </c:ext>
@@ -3226,11 +3253,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="401910624"/>
-        <c:axId val="401911016"/>
+        <c:axId val="165087904"/>
+        <c:axId val="165088464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="401910624"/>
+        <c:axId val="165087904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3293,7 +3320,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-PE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3331,10 +3358,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401911016"/>
+        <c:crossAx val="165088464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3342,7 +3369,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="401911016"/>
+        <c:axId val="165088464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3416,7 +3443,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-PE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3424,7 +3451,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="401910624"/>
+        <c:crossAx val="165087904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3475,7 +3502,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3487,7 +3514,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3564,7 +3591,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3580,7 +3607,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>FMEXRI!$B$40</c:f>
+              <c:f>FMEXRI!$B$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3630,7 +3657,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>FMEXRI!$A$41:$A$43</c:f>
+              <c:f>FMEXRI!$A$46:$A$48</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3647,7 +3674,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FMEXRI!$B$41:$B$43</c:f>
+              <c:f>FMEXRI!$B$46:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3658,12 +3685,12 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9209-487D-ADE6-3545591C93C9}"/>
             </c:ext>
@@ -3679,11 +3706,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="401911800"/>
-        <c:axId val="401912192"/>
+        <c:axId val="165090704"/>
+        <c:axId val="165091264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="401911800"/>
+        <c:axId val="165090704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3739,7 +3766,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-PE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3776,10 +3803,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401912192"/>
+        <c:crossAx val="165091264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3787,7 +3814,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="401912192"/>
+        <c:axId val="165091264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3857,7 +3884,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-PE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3888,10 +3915,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401911800"/>
+        <c:crossAx val="165090704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3942,7 +3969,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3954,7 +3981,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -4001,7 +4028,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4074,7 +4101,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -4085,7 +4112,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -4141,7 +4168,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-41FF-448D-A7F9-4D55DB2741DF}"/>
             </c:ext>
@@ -4158,11 +4185,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="440814768"/>
-        <c:axId val="440815160"/>
+        <c:axId val="165094064"/>
+        <c:axId val="165094624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="440814768"/>
+        <c:axId val="165094064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4220,7 +4247,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-PE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4258,10 +4285,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440815160"/>
+        <c:crossAx val="165094624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4269,7 +4296,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="440815160"/>
+        <c:axId val="165094624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4353,7 +4380,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-PE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4361,7 +4388,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="440814768"/>
+        <c:crossAx val="165094064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4415,7 +4442,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4427,7 +4454,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -4499,7 +4526,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4568,7 +4595,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -4579,8 +4606,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4633,7 +4661,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6C88-429B-9B94-D693452364F6}"/>
             </c:ext>
@@ -4649,11 +4677,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="440815944"/>
-        <c:axId val="440816336"/>
+        <c:axId val="165096864"/>
+        <c:axId val="165097424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="440815944"/>
+        <c:axId val="165096864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4693,10 +4721,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440816336"/>
+        <c:crossAx val="165097424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4704,7 +4732,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="440816336"/>
+        <c:axId val="165097424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4725,7 +4753,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="440815944"/>
+        <c:crossAx val="165096864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4776,7 +4804,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9792,13 +9820,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>631866</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9866,7 +9894,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9890,13 +9918,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>471487</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>471487</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9993,13 +10021,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>584240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10067,7 +10095,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>290512</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10091,13 +10119,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>442912</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>442912</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10591,7 +10619,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
@@ -10606,152 +10634,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="97"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="100"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
-      <c r="A2" s="98"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="100"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="103"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1">
-      <c r="A3" s="98"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="100"/>
+      <c r="A3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="103"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1">
-      <c r="A4" s="98"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="100"/>
+      <c r="A4" s="101"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="103"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A5" s="98"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="100"/>
+      <c r="A5" s="101"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="103"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="101"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
-      <c r="N6" s="102"/>
-      <c r="O6" s="102"/>
-      <c r="P6" s="103"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="106"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
-      <c r="N7" s="105"/>
-      <c r="O7" s="105"/>
-      <c r="P7" s="106"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="109"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="107"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="109"/>
+      <c r="A8" s="110"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="112"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1">
       <c r="A9" s="19"/>
@@ -10768,48 +10796,48 @@
       <c r="A10" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="116"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="119"/>
     </row>
     <row r="11" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A11" s="117" t="s">
+      <c r="A11" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="118"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="119"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1">
       <c r="A12" s="82"/>
-      <c r="B12" s="110" t="s">
+      <c r="B12" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="110" t="s">
+      <c r="C12" s="114"/>
+      <c r="D12" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="112"/>
-      <c r="F12" s="113" t="s">
+      <c r="E12" s="115"/>
+      <c r="F12" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="112"/>
-      <c r="H12" s="113" t="s">
+      <c r="G12" s="115"/>
+      <c r="H12" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="112"/>
+      <c r="I12" s="115"/>
     </row>
     <row r="13" spans="1:16" ht="26.25" thickBot="1">
       <c r="A13" s="1" t="s">
@@ -10939,15 +10967,15 @@
       <c r="I17" s="16"/>
     </row>
     <row r="18" spans="1:16" ht="19.5" thickBot="1">
-      <c r="J18" s="92" t="s">
+      <c r="J18" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="94"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="97"/>
     </row>
     <row r="19" spans="1:16" ht="32.25" customHeight="1">
       <c r="J19" s="17" t="s">
@@ -11036,23 +11064,23 @@
         <v>11</v>
       </c>
       <c r="L22" s="90">
-        <f>FMVREQM!D36</f>
+        <f>FMVREQM!D43</f>
         <v>0</v>
       </c>
       <c r="M22" s="90">
-        <f>FMVREQM!E36</f>
+        <f>FMVREQM!E43</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="N22" s="13" t="str">
-        <f>FMVREQM!F36</f>
-        <v>POR REVISAR</v>
+      <c r="N22" s="13">
+        <f>FMVREQM!F43</f>
+        <v>0</v>
       </c>
       <c r="O22" s="13">
-        <f>FMVREQM!G36</f>
+        <f>FMVREQM!G43</f>
         <v>0</v>
       </c>
       <c r="P22" s="90">
-        <f>FMVREQM!H36</f>
+        <f>FMVREQM!H43</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
@@ -11063,25 +11091,25 @@
       <c r="K23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L23" s="149">
-        <f>FMEXRI!D33</f>
+      <c r="L23" s="94">
+        <f>FMEXRI!D38</f>
         <v>18</v>
       </c>
-      <c r="M23" s="149">
-        <f>FMEXRI!E33</f>
+      <c r="M23" s="94">
+        <f>FMEXRI!E38</f>
         <v>15</v>
       </c>
-      <c r="N23" s="13" t="str">
-        <f>FMEXRI!F33</f>
-        <v>POR REVISAR</v>
+      <c r="N23" s="13">
+        <f>FMEXRI!F38</f>
+        <v>8</v>
       </c>
       <c r="O23" s="90">
-        <f>FMEXRI!G33</f>
-        <v>16.5</v>
+        <f>FMEXRI!G38</f>
+        <v>13.666666666666666</v>
       </c>
       <c r="P23" s="90">
-        <f>FMEXRI!H33</f>
-        <v>16.5</v>
+        <f>FMEXRI!H38</f>
+        <v>13.666666666666666</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -11216,20 +11244,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="97"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="100"/>
       <c r="M1" s="34"/>
       <c r="N1" s="34"/>
       <c r="O1" s="34"/>
@@ -11238,18 +11266,18 @@
       <c r="R1" s="34"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1">
-      <c r="A2" s="98"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="100"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="103"/>
       <c r="M2" s="34"/>
       <c r="N2" s="34"/>
       <c r="O2" s="34"/>
@@ -11258,18 +11286,18 @@
       <c r="R2" s="34"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1">
-      <c r="A3" s="98"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="100"/>
+      <c r="A3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="103"/>
       <c r="M3" s="34"/>
       <c r="N3" s="34"/>
       <c r="O3" s="34"/>
@@ -11278,18 +11306,18 @@
       <c r="R3" s="34"/>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1">
-      <c r="A4" s="98"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="100"/>
+      <c r="A4" s="101"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="103"/>
       <c r="M4" s="34"/>
       <c r="N4" s="34"/>
       <c r="O4" s="34"/>
@@ -11298,18 +11326,18 @@
       <c r="R4" s="34"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A5" s="98"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="100"/>
+      <c r="A5" s="101"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="103"/>
       <c r="M5" s="34"/>
       <c r="N5" s="34"/>
       <c r="O5" s="34"/>
@@ -11318,18 +11346,18 @@
       <c r="R5" s="34"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="101"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="103"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="106"/>
       <c r="M6" s="34"/>
       <c r="N6" s="34"/>
       <c r="O6" s="34"/>
@@ -11339,16 +11367,16 @@
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:18">
-      <c r="C8" s="120" t="s">
+      <c r="C8" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="121"/>
-      <c r="E8" s="122"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="125"/>
     </row>
     <row r="9" spans="1:18" ht="23.25" customHeight="1" thickBot="1">
-      <c r="C9" s="123"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="125"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="128"/>
     </row>
     <row r="10" spans="1:18" ht="26.25" thickBot="1">
       <c r="C10" s="2" t="s">
@@ -11396,16 +11424,16 @@
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="15" spans="1:18" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A15" s="128" t="s">
+      <c r="A15" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
       <c r="I15" s="49"/>
       <c r="J15" s="49"/>
     </row>
@@ -11465,16 +11493,16 @@
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="20" spans="1:10" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A20" s="128" t="s">
+      <c r="A20" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="129"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="132"/>
     </row>
     <row r="21" spans="1:10" ht="60.75" thickBot="1">
       <c r="A21" s="38" t="s">
@@ -11541,16 +11569,16 @@
       <c r="H23" s="89"/>
     </row>
     <row r="24" spans="1:10" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A24" s="128" t="s">
+      <c r="A24" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="129"/>
-      <c r="C24" s="129"/>
-      <c r="D24" s="129"/>
-      <c r="E24" s="129"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="129"/>
+      <c r="B24" s="132"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="132"/>
+      <c r="H24" s="132"/>
     </row>
     <row r="25" spans="1:10" ht="60.75" thickBot="1">
       <c r="A25" s="38" t="s">
@@ -11618,16 +11646,16 @@
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="29" spans="1:10" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A29" s="132" t="s">
+      <c r="A29" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="133"/>
-      <c r="C29" s="133"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="133"/>
-      <c r="H29" s="133"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
       <c r="I29" s="49"/>
       <c r="J29" s="49"/>
     </row>
@@ -11650,8 +11678,8 @@
       <c r="F30" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="137"/>
-      <c r="H30" s="138"/>
+      <c r="G30" s="140"/>
+      <c r="H30" s="141"/>
       <c r="I30" s="51"/>
       <c r="J30" s="51"/>
     </row>
@@ -11674,17 +11702,17 @@
       <c r="F31" s="13">
         <v>6</v>
       </c>
-      <c r="G31" s="139"/>
-      <c r="H31" s="140"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="143"/>
       <c r="I31" s="52"/>
       <c r="J31" s="53"/>
     </row>
     <row r="32" spans="1:10" ht="24">
-      <c r="A32" s="130" t="s">
+      <c r="A32" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="131"/>
-      <c r="C32" s="131"/>
+      <c r="B32" s="134"/>
+      <c r="C32" s="134"/>
       <c r="D32" s="20">
         <v>11</v>
       </c>
@@ -11702,11 +11730,11 @@
       </c>
     </row>
     <row r="33" spans="1:20" ht="27" thickBot="1">
-      <c r="A33" s="134" t="s">
+      <c r="A33" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="135"/>
-      <c r="C33" s="136"/>
+      <c r="B33" s="138"/>
+      <c r="C33" s="139"/>
       <c r="D33" s="60">
         <f>D31/D32</f>
         <v>0.63636363636363635</v>
@@ -11733,10 +11761,10 @@
     </row>
     <row r="38" spans="1:20" ht="15.75" thickBot="1"/>
     <row r="39" spans="1:20" ht="39.75" customHeight="1">
-      <c r="B39" s="126" t="s">
+      <c r="B39" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="127"/>
+      <c r="C39" s="130"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
@@ -11912,10 +11940,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -11927,103 +11955,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="97"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="100"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="98"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="100"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="103"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="98"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="100"/>
+      <c r="A3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="103"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="98"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="100"/>
+      <c r="A4" s="101"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="103"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="98"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="100"/>
+      <c r="A5" s="101"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="103"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A6" s="101"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="103"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="106"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:12">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="121"/>
-      <c r="C8" s="122"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="125"/>
     </row>
     <row r="9" spans="1:12" ht="33" customHeight="1" thickBot="1">
-      <c r="A9" s="123"/>
-      <c r="B9" s="124"/>
-      <c r="C9" s="125"/>
+      <c r="A9" s="126"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="128"/>
     </row>
     <row r="10" spans="1:12" ht="26.25" thickBot="1">
       <c r="A10" s="2" t="s">
@@ -12071,18 +12099,18 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="15" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A15" s="132" t="s">
+      <c r="A15" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="133"/>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="141"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="136"/>
+      <c r="J15" s="144"/>
     </row>
     <row r="16" spans="1:12" ht="30.75" customHeight="1" thickBot="1">
       <c r="A16" s="29" t="s">
@@ -12154,16 +12182,16 @@
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="21" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A21" s="128" t="s">
+      <c r="A21" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="129"/>
-      <c r="C21" s="129"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="129"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="132"/>
     </row>
     <row r="22" spans="1:10" ht="48.75" thickBot="1">
       <c r="A22" s="38" t="s">
@@ -12221,16 +12249,16 @@
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="27" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A27" s="128" t="s">
+      <c r="A27" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="129"/>
-      <c r="C27" s="129"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="129"/>
+      <c r="B27" s="132"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="132"/>
+      <c r="H27" s="132"/>
     </row>
     <row r="28" spans="1:10" ht="48.75" thickBot="1">
       <c r="A28" s="38" t="s">
@@ -12286,164 +12314,245 @@
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="32" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A32" s="132" t="s">
+    <row r="30" spans="1:10" ht="21.75" thickBot="1">
+      <c r="A30" s="52"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="153"/>
+      <c r="H30" s="89"/>
+    </row>
+    <row r="31" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A31" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="133"/>
-      <c r="C32" s="133"/>
-      <c r="D32" s="133"/>
-      <c r="E32" s="133"/>
-      <c r="F32" s="133"/>
-      <c r="G32" s="133"/>
-      <c r="H32" s="133"/>
-    </row>
-    <row r="33" spans="1:8" ht="24.75" thickBot="1">
-      <c r="A33" s="54" t="s">
+      <c r="B31" s="132"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="132"/>
+      <c r="H31" s="132"/>
+    </row>
+    <row r="32" spans="1:10" ht="48.75" thickBot="1">
+      <c r="A32" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="55" t="s">
+      <c r="B32" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C32" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="55" t="s">
+      <c r="D32" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A33" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="46">
+        <v>0</v>
+      </c>
+      <c r="F33" s="46">
+        <v>15</v>
+      </c>
+      <c r="G33" s="76">
+        <f>E33/F33*100</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="48">
+        <f>+G33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A39" s="135" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="136"/>
+      <c r="C39" s="136"/>
+      <c r="D39" s="136"/>
+      <c r="E39" s="136"/>
+      <c r="F39" s="136"/>
+      <c r="G39" s="136"/>
+      <c r="H39" s="136"/>
+    </row>
+    <row r="40" spans="1:8" ht="24.75" thickBot="1">
+      <c r="A40" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="55" t="s">
+      <c r="E40" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="56" t="s">
+      <c r="F40" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="137"/>
-      <c r="H33" s="138"/>
-    </row>
-    <row r="34" spans="1:8" ht="54" customHeight="1" thickBot="1">
-      <c r="A34" s="58" t="s">
+      <c r="G40" s="140"/>
+      <c r="H40" s="141"/>
+    </row>
+    <row r="41" spans="1:8" ht="54" customHeight="1" thickBot="1">
+      <c r="A41" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B41" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C41" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D41" s="13">
         <v>0</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E41" s="13">
         <v>1</v>
       </c>
-      <c r="F34" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" s="139"/>
-      <c r="H34" s="140"/>
-    </row>
-    <row r="35" spans="1:8" ht="30">
-      <c r="A35" s="130" t="s">
+      <c r="F41" s="13">
+        <v>0</v>
+      </c>
+      <c r="G41" s="142"/>
+      <c r="H41" s="143"/>
+    </row>
+    <row r="42" spans="1:8" ht="24">
+      <c r="A42" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="131"/>
-      <c r="C35" s="131"/>
-      <c r="D35" s="20">
+      <c r="B42" s="134"/>
+      <c r="C42" s="134"/>
+      <c r="D42" s="20">
         <v>15</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E42" s="20">
         <v>15</v>
       </c>
-      <c r="F35" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" s="55" t="s">
+      <c r="F42" s="13">
+        <v>0</v>
+      </c>
+      <c r="G42" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="H35" s="57" t="s">
+      <c r="H42" s="57" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="30.75" thickBot="1">
-      <c r="A36" s="134" t="s">
+    <row r="43" spans="1:8" ht="27" thickBot="1">
+      <c r="A43" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="135"/>
-      <c r="C36" s="136"/>
-      <c r="D36" s="60">
-        <f>D34/D35*100</f>
+      <c r="B43" s="138"/>
+      <c r="C43" s="139"/>
+      <c r="D43" s="60">
+        <f>D41/D42*100</f>
         <v>0</v>
       </c>
-      <c r="E36" s="60">
-        <f>E34/E35*100</f>
+      <c r="E43" s="60">
+        <f>E41/E42*100</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="F36" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" s="62">
-        <f>+J36</f>
+      <c r="F43" s="61">
         <v>0</v>
       </c>
-      <c r="H36" s="63">
-        <f>AVERAGE(D36:E36)</f>
+      <c r="G43" s="62">
+        <f>+J43</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="63">
+        <f>AVERAGE(D43:E43)</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="39" spans="1:8" ht="36.75" customHeight="1">
-      <c r="A39" s="126" t="s">
+    <row r="45" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="46" spans="1:8" ht="36.75" customHeight="1">
+      <c r="A46" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="127"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.75">
-      <c r="A40" s="22" t="s">
+      <c r="B46" s="130"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.75">
+      <c r="A47" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B47" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="20" t="s">
+    <row r="48" spans="1:8">
+      <c r="A48" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="37">
-        <f>D36</f>
+      <c r="B48" s="37">
+        <f>D43</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="20" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="37">
-        <f>+E36</f>
+      <c r="B49" s="37">
+        <f>+E43</f>
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="20" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="20">
+      <c r="B50" s="20">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="G33:H34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A39:B39"/>
+  <mergeCells count="11">
+    <mergeCell ref="A31:H31"/>
     <mergeCell ref="A1:L6"/>
     <mergeCell ref="A8:C9"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="G40:H41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A46:B46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12452,7 +12561,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{CBD7A6D0-C43B-416D-BE21-A198B74C68DD}">
+          <x14:cfRule type="iconSet" priority="5" id="{CBD7A6D0-C43B-416D-BE21-A198B74C68DD}">
             <x14:iconSet iconSet="3TrafficLights2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12471,7 +12580,7 @@
           <xm:sqref>I17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{2288E40A-70D3-4ECB-BEE8-C44463D6F431}">
+          <x14:cfRule type="iconSet" priority="6" id="{2288E40A-70D3-4ECB-BEE8-C44463D6F431}">
             <x14:iconSet iconSet="3TrafficLights2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12490,7 +12599,7 @@
           <xm:sqref>G17 I17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{41E02EDB-031B-4DF7-BBD9-AC625B797F68}">
+          <x14:cfRule type="iconSet" priority="4" id="{41E02EDB-031B-4DF7-BBD9-AC625B797F68}">
             <x14:iconSet iconSet="3TrafficLights2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12509,7 +12618,7 @@
           <xm:sqref>H23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{95565DB4-CDAC-41EE-8CE8-0B42918B93FF}">
+          <x14:cfRule type="iconSet" priority="3" id="{95565DB4-CDAC-41EE-8CE8-0B42918B93FF}">
             <x14:iconSet iconSet="3TrafficLights2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12525,10 +12634,10 @@
               <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H29</xm:sqref>
+          <xm:sqref>H29:H30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{15408CE2-3B91-4EE8-98CD-28A71309B928}">
+          <x14:cfRule type="iconSet" priority="2" id="{15408CE2-3B91-4EE8-98CD-28A71309B928}">
             <x14:iconSet iconSet="3TrafficLights2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12544,7 +12653,26 @@
               <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>G36</xm:sqref>
+          <xm:sqref>G43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{31E7E84A-8F46-4F52-A96A-51C4112E27F9}">
+            <x14:iconSet iconSet="3TrafficLights2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>11</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>36</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="2"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="1"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H33</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -12554,100 +12682,100 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="97"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="100"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="98"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="100"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="103"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="98"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="100"/>
+      <c r="A3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="103"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="98"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="100"/>
+      <c r="A4" s="101"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="103"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="98"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="100"/>
+      <c r="A5" s="101"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="103"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A6" s="101"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="103"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="106"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:10">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="121"/>
-      <c r="C8" s="122"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="125"/>
     </row>
     <row r="9" spans="1:10" ht="33" customHeight="1" thickBot="1">
-      <c r="A9" s="123"/>
-      <c r="B9" s="124"/>
-      <c r="C9" s="125"/>
+      <c r="A9" s="126"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="128"/>
     </row>
     <row r="10" spans="1:10" ht="26.25" thickBot="1">
       <c r="A10" s="1" t="s">
@@ -12695,14 +12823,14 @@
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="15" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A15" s="128" t="s">
+      <c r="A15" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
     </row>
     <row r="16" spans="1:10" ht="24.75" thickBot="1">
       <c r="A16" s="38" t="s">
@@ -12724,7 +12852,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="30.75" thickBot="1">
+    <row r="17" spans="1:6" ht="30.75" thickBot="1">
       <c r="A17" s="43" t="s">
         <v>2</v>
       </c>
@@ -12745,18 +12873,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" thickBot="1"/>
-    <row r="22" spans="1:14" ht="19.5" thickBot="1">
-      <c r="A22" s="128" t="s">
+    <row r="21" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="22" spans="1:6" ht="19.5" thickBot="1">
+      <c r="A22" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="129"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-    </row>
-    <row r="23" spans="1:14" ht="24.75" thickBot="1">
+      <c r="B22" s="132"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+    </row>
+    <row r="23" spans="1:6" ht="24.75" thickBot="1">
       <c r="A23" s="38" t="s">
         <v>35</v>
       </c>
@@ -12776,7 +12904,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="30.75" thickBot="1">
+    <row r="24" spans="1:6" ht="30.75" thickBot="1">
       <c r="A24" s="43" t="s">
         <v>2</v>
       </c>
@@ -12797,168 +12925,221 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15.75" thickBot="1"/>
-    <row r="29" spans="1:14" ht="19.5" thickBot="1">
-      <c r="A29" s="132" t="s">
+    <row r="26" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="27" spans="1:6" ht="19.5" thickBot="1">
+      <c r="A27" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="133"/>
-      <c r="C29" s="133"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="133"/>
-      <c r="H29" s="133"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="74"/>
-    </row>
-    <row r="30" spans="1:14" ht="24.75" thickBot="1">
-      <c r="A30" s="54" t="s">
+      <c r="B27" s="132"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="132"/>
+    </row>
+    <row r="28" spans="1:6" ht="24.75" thickBot="1">
+      <c r="A28" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="55" t="s">
+      <c r="B28" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C28" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="55" t="s">
+      <c r="D28" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A29" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="67">
+        <v>8</v>
+      </c>
+      <c r="F29" s="68">
+        <f>+E29</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="34" spans="1:14" ht="19.5" thickBot="1">
+      <c r="A34" s="135" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="136"/>
+      <c r="C34" s="136"/>
+      <c r="D34" s="136"/>
+      <c r="E34" s="136"/>
+      <c r="F34" s="136"/>
+      <c r="G34" s="136"/>
+      <c r="H34" s="136"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+    </row>
+    <row r="35" spans="1:14" ht="24.75" thickBot="1">
+      <c r="A35" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="55" t="s">
+      <c r="E35" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="56" t="s">
+      <c r="F35" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="137"/>
-      <c r="H30" s="138"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="74"/>
-    </row>
-    <row r="31" spans="1:14" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A31" s="58" t="s">
+      <c r="G35" s="140"/>
+      <c r="H35" s="141"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
+    </row>
+    <row r="36" spans="1:14" ht="53.25" customHeight="1" thickBot="1">
+      <c r="A36" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B36" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C36" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D36" s="13">
         <v>18</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E36" s="13">
         <v>15</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" s="139"/>
-      <c r="H31" s="140"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74"/>
-    </row>
-    <row r="32" spans="1:14" ht="30">
-      <c r="A32" s="130" t="s">
+      <c r="F36" s="13">
+        <v>8</v>
+      </c>
+      <c r="G36" s="142"/>
+      <c r="H36" s="143"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="74"/>
+      <c r="N36" s="74"/>
+    </row>
+    <row r="37" spans="1:14" ht="24">
+      <c r="A37" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="131"/>
-      <c r="C32" s="131"/>
-      <c r="D32" s="65">
+      <c r="B37" s="134"/>
+      <c r="C37" s="134"/>
+      <c r="D37" s="65">
         <v>18</v>
       </c>
-      <c r="E32" s="65">
+      <c r="E37" s="65">
         <v>15</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" s="55" t="s">
+      <c r="F37" s="13">
+        <v>8</v>
+      </c>
+      <c r="G37" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="57" t="s">
+      <c r="H37" s="57" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="30.75" thickBot="1">
-      <c r="A33" s="142" t="s">
+    <row r="38" spans="1:14" ht="27" thickBot="1">
+      <c r="A38" s="145" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="143"/>
-      <c r="C33" s="144"/>
-      <c r="D33" s="69">
+      <c r="B38" s="146"/>
+      <c r="C38" s="147"/>
+      <c r="D38" s="69">
         <v>18</v>
       </c>
-      <c r="E33" s="69">
+      <c r="E38" s="69">
         <v>15</v>
       </c>
-      <c r="F33" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" s="72">
-        <f>+H33</f>
-        <v>16.5</v>
-      </c>
-      <c r="H33" s="71">
-        <f>AVERAGE(D33:E33)</f>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1"/>
-    <row r="39" spans="1:8" ht="18.75">
-      <c r="A39" s="126" t="s">
+      <c r="F38" s="70">
+        <v>8</v>
+      </c>
+      <c r="G38" s="72">
+        <f>+H38</f>
+        <v>13.666666666666666</v>
+      </c>
+      <c r="H38" s="71">
+        <f>AVERAGE(D38:F38)</f>
+        <v>13.666666666666666</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="44" spans="1:14" ht="18.75">
+      <c r="A44" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="127"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.75">
-      <c r="A40" s="22" t="s">
+      <c r="B44" s="130"/>
+    </row>
+    <row r="45" spans="1:14" ht="15.75">
+      <c r="A45" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B45" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="65" t="s">
+    <row r="46" spans="1:14">
+      <c r="A46" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="75">
+      <c r="B46" s="75">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="65" t="s">
+    <row r="47" spans="1:14">
+      <c r="A47" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="75">
+      <c r="B47" s="75">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="65" t="s">
+    <row r="48" spans="1:14">
+      <c r="A48" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="75">
-        <v>0</v>
+      <c r="B48" s="75">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A39:B39"/>
+  <mergeCells count="10">
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A44:B44"/>
     <mergeCell ref="A1:J6"/>
     <mergeCell ref="A8:C9"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="G30:H31"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="G35:H36"/>
+    <mergeCell ref="A27:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12966,7 +13147,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{33D9E917-C3BC-4966-95B4-F0B02EF6ABDD}">
+          <x14:cfRule type="iconSet" priority="4" id="{33D9E917-C3BC-4966-95B4-F0B02EF6ABDD}">
             <x14:iconSet iconSet="3TrafficLights2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12985,7 +13166,7 @@
           <xm:sqref>F17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{46E2D563-8FDD-4D57-B141-AC2B42F9A8C5}">
+          <x14:cfRule type="iconSet" priority="3" id="{46E2D563-8FDD-4D57-B141-AC2B42F9A8C5}">
             <x14:iconSet iconSet="3TrafficLights2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13004,7 +13185,7 @@
           <xm:sqref>F24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{A685F529-8294-47C2-A063-56EE6B1C95B0}">
+          <x14:cfRule type="iconSet" priority="2" id="{A685F529-8294-47C2-A063-56EE6B1C95B0}">
             <x14:iconSet iconSet="3TrafficLights2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13020,7 +13201,26 @@
               <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>G33</xm:sqref>
+          <xm:sqref>G38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{7C1C76BE-1B4D-486B-A042-9CB6CA1B7074}">
+            <x14:iconSet iconSet="3TrafficLights2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>6</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>21</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="2"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="1"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F29</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -13032,7 +13232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
@@ -13051,21 +13251,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="97"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="100"/>
       <c r="N1" s="34"/>
       <c r="O1" s="34"/>
       <c r="P1" s="34"/>
@@ -13074,19 +13274,19 @@
       <c r="S1" s="34"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
-      <c r="A2" s="98"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="100"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="103"/>
       <c r="N2" s="34"/>
       <c r="O2" s="34"/>
       <c r="P2" s="34"/>
@@ -13095,19 +13295,19 @@
       <c r="S2" s="34"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1">
-      <c r="A3" s="98"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="100"/>
+      <c r="A3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="103"/>
       <c r="N3" s="34"/>
       <c r="O3" s="34"/>
       <c r="P3" s="34"/>
@@ -13116,19 +13316,19 @@
       <c r="S3" s="34"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1">
-      <c r="A4" s="98"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="100"/>
+      <c r="A4" s="101"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="103"/>
       <c r="N4" s="34"/>
       <c r="O4" s="34"/>
       <c r="P4" s="34"/>
@@ -13137,19 +13337,19 @@
       <c r="S4" s="34"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A5" s="98"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="100"/>
+      <c r="A5" s="101"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="103"/>
       <c r="N5" s="34"/>
       <c r="O5" s="34"/>
       <c r="P5" s="34"/>
@@ -13158,19 +13358,19 @@
       <c r="S5" s="34"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="101"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="103"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="106"/>
       <c r="N6" s="34"/>
       <c r="O6" s="34"/>
       <c r="P6" s="34"/>
@@ -13180,16 +13380,16 @@
     </row>
     <row r="7" spans="1:19" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:19">
-      <c r="C8" s="120" t="s">
+      <c r="C8" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="121"/>
-      <c r="E8" s="122"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="125"/>
     </row>
     <row r="9" spans="1:19" ht="23.25" customHeight="1" thickBot="1">
-      <c r="C9" s="123"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="125"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="128"/>
     </row>
     <row r="10" spans="1:19" ht="26.25" thickBot="1">
       <c r="C10" s="2" t="s">
@@ -13237,17 +13437,17 @@
     </row>
     <row r="14" spans="1:19" ht="15.75" thickBot="1"/>
     <row r="15" spans="1:19" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A15" s="128" t="s">
+      <c r="A15" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
       <c r="J15" s="49"/>
       <c r="K15" s="49"/>
     </row>
@@ -13313,17 +13513,17 @@
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="20" spans="1:11" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A20" s="128" t="s">
+      <c r="A20" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="129"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="129"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="132"/>
     </row>
     <row r="21" spans="1:11" ht="48.75" customHeight="1" thickBot="1">
       <c r="A21" s="38" t="s">
@@ -13397,17 +13597,17 @@
       <c r="I23" s="89"/>
     </row>
     <row r="24" spans="1:11" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A24" s="128" t="s">
+      <c r="A24" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="129"/>
-      <c r="C24" s="129"/>
-      <c r="D24" s="129"/>
-      <c r="E24" s="129"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="129"/>
+      <c r="B24" s="132"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="132"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="132"/>
     </row>
     <row r="25" spans="1:11" ht="48.75" customHeight="1" thickBot="1">
       <c r="A25" s="38" t="s">
@@ -13482,17 +13682,17 @@
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="29" spans="1:11" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A29" s="128" t="s">
+      <c r="A29" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="129"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="133"/>
-      <c r="H29" s="129"/>
-      <c r="I29" s="129"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="132"/>
       <c r="J29" s="49"/>
       <c r="K29" s="49"/>
     </row>
@@ -13512,12 +13712,12 @@
       <c r="E30" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="147" t="s">
+      <c r="F30" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="147"/>
-      <c r="H30" s="137"/>
-      <c r="I30" s="138"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="140"/>
+      <c r="I30" s="141"/>
       <c r="J30" s="51"/>
       <c r="K30" s="51"/>
     </row>
@@ -13537,31 +13737,31 @@
       <c r="E31" s="13">
         <v>8</v>
       </c>
-      <c r="F31" s="146">
+      <c r="F31" s="149">
         <v>0</v>
       </c>
-      <c r="G31" s="146"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="140"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="143"/>
       <c r="J31" s="52"/>
       <c r="K31" s="53"/>
     </row>
     <row r="32" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A32" s="145" t="s">
+      <c r="A32" s="148" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="146"/>
-      <c r="C32" s="146"/>
+      <c r="B32" s="149"/>
+      <c r="C32" s="149"/>
       <c r="D32" s="83">
         <v>11</v>
       </c>
       <c r="E32" s="83">
         <v>37</v>
       </c>
-      <c r="F32" s="146">
+      <c r="F32" s="149">
         <v>38</v>
       </c>
-      <c r="G32" s="146"/>
+      <c r="G32" s="149"/>
       <c r="H32" s="55" t="s">
         <v>39</v>
       </c>
@@ -13570,11 +13770,11 @@
       </c>
     </row>
     <row r="33" spans="1:21" ht="27" thickBot="1">
-      <c r="A33" s="134" t="s">
+      <c r="A33" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="135"/>
-      <c r="C33" s="136"/>
+      <c r="B33" s="138"/>
+      <c r="C33" s="139"/>
       <c r="D33" s="60">
         <f>D31/D32</f>
         <v>0</v>
@@ -13583,11 +13783,11 @@
         <f>E31/E32</f>
         <v>0.21621621621621623</v>
       </c>
-      <c r="F33" s="148">
+      <c r="F33" s="151">
         <f>F31/F32</f>
         <v>0</v>
       </c>
-      <c r="G33" s="148"/>
+      <c r="G33" s="151"/>
       <c r="H33" s="62">
         <f>+K33</f>
         <v>0</v>
@@ -13602,10 +13802,10 @@
     </row>
     <row r="38" spans="1:21" ht="15.75" thickBot="1"/>
     <row r="39" spans="1:21" ht="39.75" customHeight="1">
-      <c r="B39" s="126" t="s">
+      <c r="B39" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="127"/>
+      <c r="C39" s="130"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
@@ -13653,6 +13853,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A1:M6"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A24:I24"/>
     <mergeCell ref="H30:I31"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="A33:C33"/>
@@ -13661,12 +13867,6 @@
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A1:M6"/>
-    <mergeCell ref="C8:E9"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A24:I24"/>
   </mergeCells>
   <conditionalFormatting sqref="J31">
     <cfRule type="iconSet" priority="4">
